--- a/core/core-api/src/main/resources/excel-templates/DAM.xlsx
+++ b/core/core-api/src/main/resources/excel-templates/DAM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HTG\Desktop\f-pms\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HTG\Desktop\f-pms\pms\core\core-api\src\main\resources\excel-templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -100,7 +100,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_1_1_PEAK)</t>
+          <t>(DAM_1_2_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -114,7 +114,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_1_2_PEAK)</t>
+          <t>(DAM_1_3_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -128,7 +128,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_1_2_PEAK)</t>
+          <t>(DAM_1_4_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -142,7 +142,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_1_3_PEAK)</t>
+          <t>(DAM_1_5_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -156,7 +156,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_1_3_PEAK)</t>
+          <t>(DAM_1_6_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -170,7 +170,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_1_4_PEAK)</t>
+          <t>(DAM_1_7_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -226,7 +226,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_1_1_OFFPEAK)</t>
+          <t>(DAM_1_2_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -240,7 +240,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_1_2_OFFPEAK)</t>
+          <t>(DAM_1_3_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -254,7 +254,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_1_2_OFFPEAK)</t>
+          <t>(DAM_1_4_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -268,7 +268,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_1_3_OFFPEAK)</t>
+          <t>(DAM_1_5_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -282,7 +282,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_1_3_OFFPEAK)</t>
+          <t>(DAM_1_6_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -296,7 +296,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_1_4_OFFPEAK)</t>
+          <t>(DAM_1_7_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -338,7 +338,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_1_1_STANDARD)</t>
+          <t>(DAM_1_2_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -352,7 +352,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_1_2_STANDARD)</t>
+          <t>(DAM_1_3_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -366,7 +366,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_1_2_STANDARD)</t>
+          <t>(DAM_1_4_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -380,7 +380,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_1_3_STANDARD)</t>
+          <t>(DAM_1_5_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -394,7 +394,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_1_3_STANDARD)</t>
+          <t>(DAM_1_6_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -408,7 +408,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_1_4_STANDARD)</t>
+          <t>(DAM_1_7_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -450,7 +450,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_2_1_PEAK)</t>
+          <t>(DAM_2_2_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -464,7 +464,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_2_2_PEAK)</t>
+          <t>(DAM_2_3_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -478,7 +478,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_2_2_PEAK)</t>
+          <t>(DAM_2_4_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -492,7 +492,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_2_3_PEAK)</t>
+          <t>(DAM_2_5_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -506,7 +506,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_2_3_PEAK)</t>
+          <t>(DAM_2_6_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -520,7 +520,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_2_4_PEAK)</t>
+          <t>(DAM_2_7_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -576,7 +576,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_2_1_OFFPEAK)</t>
+          <t>(DAM_2_2_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -590,7 +590,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_2_2_OFFPEAK)</t>
+          <t>(DAM_2_3_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -604,7 +604,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_2_2_OFFPEAK)</t>
+          <t>(DAM_2_4_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -618,7 +618,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_2_3_OFFPEAK)</t>
+          <t>(DAM_2_5_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -632,7 +632,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_2_3_OFFPEAK)</t>
+          <t>(DAM_2_6_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -646,7 +646,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_2_4_OFFPEAK)</t>
+          <t>(DAM_2_7_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -688,7 +688,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_2_1_STANDARD)</t>
+          <t>(DAM_2_2_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -702,7 +702,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_2_2_STANDARD)</t>
+          <t>(DAM_2_3_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -716,7 +716,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_2_2_STANDARD)</t>
+          <t>(DAM_2_4_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -730,7 +730,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_2_3_STANDARD)</t>
+          <t>(DAM_2_5_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -744,7 +744,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_2_3_STANDARD)</t>
+          <t>(DAM_2_6_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -758,7 +758,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_2_4_STANDARD)</t>
+          <t>(DAM_2_7_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -800,7 +800,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_3_1_PEAK)</t>
+          <t>(DAM_3_2_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -814,7 +814,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_3_2_PEAK)</t>
+          <t>(DAM_3_3_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -828,7 +828,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_3_2_PEAK)</t>
+          <t>(DAM_3_4_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -842,7 +842,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_3_3_PEAK)</t>
+          <t>(DAM_3_5_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -856,7 +856,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_3_3_PEAK)</t>
+          <t>(DAM_3_6_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -870,7 +870,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_3_4_PEAK)</t>
+          <t>(DAM_3_7_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -926,7 +926,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_3_1_OFFPEAK)</t>
+          <t>(DAM_3_2_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -940,7 +940,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_3_2_OFFPEAK)</t>
+          <t>(DAM_3_3_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -954,7 +954,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_3_2_OFFPEAK)</t>
+          <t>(DAM_3_4_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -968,7 +968,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_3_3_OFFPEAK)</t>
+          <t>(DAM_3_5_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -982,7 +982,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_3_3_OFFPEAK)</t>
+          <t>(DAM_3_6_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -996,7 +996,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_3_4_OFFPEAK)</t>
+          <t>(DAM_3_7_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -1038,7 +1038,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_3_1_STANDARD)</t>
+          <t>(DAM_3_2_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -1052,7 +1052,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_3_2_STANDARD)</t>
+          <t>(DAM_3_3_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -1066,7 +1066,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_3_2_STANDARD)</t>
+          <t>(DAM_3_4_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -1080,7 +1080,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_3_3_STANDARD)</t>
+          <t>(DAM_3_5_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -1094,7 +1094,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_3_3_STANDARD)</t>
+          <t>(DAM_3_6_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -1108,7 +1108,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_3_4_STANDARD)</t>
+          <t>(DAM_3_7_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -1163,7 +1163,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_4_1_PEAK)</t>
+          <t>(DAM_4_2_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -1177,7 +1177,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_4_2_PEAK)</t>
+          <t>(DAM_4_3_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -1191,7 +1191,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_4_2_PEAK)</t>
+          <t>(DAM_4_4_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -1205,7 +1205,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_4_3_PEAK)</t>
+          <t>(DAM_4_5_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -1219,7 +1219,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_4_3_PEAK)</t>
+          <t>(DAM_4_6_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -1233,7 +1233,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_4_4_PEAK)</t>
+          <t>(DAM_4_7_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -1289,7 +1289,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_4_1_OFFPEAK)</t>
+          <t>(DAM_4_2_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -1303,7 +1303,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_4_2_OFFPEAK)</t>
+          <t>(DAM_4_3_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -1317,7 +1317,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_4_2_OFFPEAK)</t>
+          <t>(DAM_4_4_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -1331,7 +1331,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_4_3_OFFPEAK)</t>
+          <t>(DAM_4_5_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -1345,7 +1345,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_4_3_OFFPEAK)</t>
+          <t>(DAM_4_6_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -1359,7 +1359,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_4_4_OFFPEAK)</t>
+          <t>(DAM_4_7_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -1401,7 +1401,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_4_1_STANDARD)</t>
+          <t>(DAM_4_2_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -1415,7 +1415,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_4_2_STANDARD)</t>
+          <t>(DAM_4_3_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -1429,7 +1429,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_4_2_STANDARD)</t>
+          <t>(DAM_4_4_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -1443,7 +1443,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_4_3_STANDARD)</t>
+          <t>(DAM_4_5_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -1457,7 +1457,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_4_3_STANDARD)</t>
+          <t>(DAM_4_6_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -1471,7 +1471,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_4_4_STANDARD)</t>
+          <t>(DAM_4_7_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -1513,7 +1513,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_5_1_PEAK)</t>
+          <t>(DAM_5_2_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -1527,7 +1527,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_5_2_PEAK)</t>
+          <t>(DAM_5_3_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -1541,7 +1541,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_5_2_PEAK)</t>
+          <t>(DAM_5_4_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -1555,7 +1555,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_5_3_PEAK)</t>
+          <t>(DAM_5_5_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -1569,7 +1569,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_5_3_PEAK)</t>
+          <t>(DAM_5_6_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -1583,7 +1583,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_5_4_PEAK)</t>
+          <t>(DAM_5_7_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -1639,7 +1639,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_5_1_OFFPEAK)</t>
+          <t>(DAM_5_2_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -1653,7 +1653,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_5_2_OFFPEAK)</t>
+          <t>(DAM_5_3_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -1667,7 +1667,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_5_2_OFFPEAK)</t>
+          <t>(DAM_5_4_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -1681,7 +1681,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_5_3_OFFPEAK)</t>
+          <t>(DAM_5_5_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -1695,7 +1695,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_5_3_OFFPEAK)</t>
+          <t>(DAM_5_6_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -1709,7 +1709,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_5_4_OFFPEAK)</t>
+          <t>(DAM_5_7_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -1751,7 +1751,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_5_1_STANDARD)</t>
+          <t>(DAM_5_2_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -1765,7 +1765,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_5_2_STANDARD)</t>
+          <t>(DAM_5_3_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -1779,7 +1779,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_5_2_STANDARD)</t>
+          <t>(DAM_5_4_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -1793,7 +1793,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_5_3_STANDARD)</t>
+          <t>(DAM_5_5_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -1807,7 +1807,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_5_3_STANDARD)</t>
+          <t>(DAM_5_6_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -1821,7 +1821,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_5_4_STANDARD)</t>
+          <t>(DAM_5_7_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -1863,7 +1863,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_6_1_PEAK)</t>
+          <t>(DAM_6_2_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -1877,7 +1877,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_6_2_PEAK)</t>
+          <t>(DAM_6_3_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -1891,7 +1891,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_6_2_PEAK)</t>
+          <t>(DAM_6_4_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -1905,7 +1905,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_6_3_PEAK)</t>
+          <t>(DAM_6_5_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -1919,7 +1919,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_6_3_PEAK)</t>
+          <t>(DAM_6_6_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -1933,7 +1933,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_6_4_PEAK)</t>
+          <t>(DAM_6_7_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -1989,7 +1989,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_6_1_OFFPEAK)</t>
+          <t>(DAM_6_2_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -2003,7 +2003,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_6_2_OFFPEAK)</t>
+          <t>(DAM_6_3_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -2017,7 +2017,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_6_2_OFFPEAK)</t>
+          <t>(DAM_6_4_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -2031,7 +2031,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_6_3_OFFPEAK)</t>
+          <t>(DAM_6_5_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -2045,7 +2045,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_6_3_OFFPEAK)</t>
+          <t>(DAM_6_6_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -2059,7 +2059,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_6_4_OFFPEAK)</t>
+          <t>(DAM_6_7_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -2101,7 +2101,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_6_1_STANDARD)</t>
+          <t>(DAM_6_2_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -2115,7 +2115,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_6_2_STANDARD)</t>
+          <t>(DAM_6_3_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -2129,7 +2129,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_6_2_STANDARD)</t>
+          <t>(DAM_6_4_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -2143,7 +2143,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_6_3_STANDARD)</t>
+          <t>(DAM_6_5_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -2157,7 +2157,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_6_3_STANDARD)</t>
+          <t>(DAM_6_6_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -2171,7 +2171,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_6_4_STANDARD)</t>
+          <t>(DAM_6_7_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -2213,7 +2213,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_7_1_PEAK)</t>
+          <t>(DAM_7_2_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -2227,7 +2227,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_7_2_PEAK)</t>
+          <t>(DAM_7_3_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -2241,7 +2241,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_7_2_PEAK)</t>
+          <t>(DAM_7_4_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -2255,7 +2255,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_7_3_PEAK)</t>
+          <t>(DAM_7_5_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -2269,7 +2269,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_7_3_PEAK)</t>
+          <t>(DAM_7_6_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -2283,7 +2283,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_7_4_PEAK)</t>
+          <t>(DAM_7_7_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -2339,7 +2339,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_7_1_OFFPEAK)</t>
+          <t>(DAM_7_2_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -2353,7 +2353,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_7_2_OFFPEAK)</t>
+          <t>(DAM_7_3_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -2367,7 +2367,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_7_2_OFFPEAK)</t>
+          <t>(DAM_7_4_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -2381,7 +2381,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_7_3_OFFPEAK)</t>
+          <t>(DAM_7_5_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -2395,7 +2395,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_7_3_OFFPEAK)</t>
+          <t>(DAM_7_6_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -2409,7 +2409,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_7_4_OFFPEAK)</t>
+          <t>(DAM_7_7_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -2451,7 +2451,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_7_1_STANDARD)</t>
+          <t>(DAM_7_2_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -2465,7 +2465,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_7_2_STANDARD)</t>
+          <t>(DAM_7_3_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -2479,7 +2479,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_7_2_STANDARD)</t>
+          <t>(DAM_7_4_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -2493,7 +2493,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_7_3_STANDARD)</t>
+          <t>(DAM_7_5_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -2507,7 +2507,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_7_3_STANDARD)</t>
+          <t>(DAM_7_6_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -2521,7 +2521,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_7_4_STANDARD)</t>
+          <t>(DAM_7_7_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -2563,7 +2563,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_8_1_PEAK)</t>
+          <t>(DAM_8_2_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -2577,7 +2577,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_8_2_PEAK)</t>
+          <t>(DAM_8_3_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -2591,7 +2591,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_8_2_PEAK)</t>
+          <t>(DAM_8_4_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -2605,7 +2605,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_8_3_PEAK)</t>
+          <t>(DAM_8_5_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -2619,7 +2619,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_8_3_PEAK)</t>
+          <t>(DAM_8_6_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -2633,7 +2633,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_8_4_PEAK)</t>
+          <t>(DAM_8_7_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -2689,7 +2689,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_8_1_OFFPEAK)</t>
+          <t>(DAM_8_2_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -2703,7 +2703,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_8_2_OFFPEAK)</t>
+          <t>(DAM_8_3_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -2717,7 +2717,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_8_2_OFFPEAK)</t>
+          <t>(DAM_8_4_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -2731,7 +2731,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_8_3_OFFPEAK)</t>
+          <t>(DAM_8_5_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -2745,7 +2745,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_8_3_OFFPEAK)</t>
+          <t>(DAM_8_6_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -2759,7 +2759,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_8_4_OFFPEAK)</t>
+          <t>(DAM_8_7_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -2801,7 +2801,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_8_1_STANDARD)</t>
+          <t>(DAM_8_2_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -2815,7 +2815,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_8_2_STANDARD)</t>
+          <t>(DAM_8_3_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -2829,7 +2829,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_8_2_STANDARD)</t>
+          <t>(DAM_8_4_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -2843,7 +2843,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_8_3_STANDARD)</t>
+          <t>(DAM_8_5_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -2857,7 +2857,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_8_3_STANDARD)</t>
+          <t>(DAM_8_6_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -2871,7 +2871,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_8_4_STANDARD)</t>
+          <t>(DAM_8_7_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -2913,7 +2913,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_9_1_PEAK)</t>
+          <t>(DAM_9_2_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -2927,7 +2927,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_9_2_PEAK)</t>
+          <t>(DAM_9_3_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -2941,7 +2941,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_9_2_PEAK)</t>
+          <t>(DAM_9_4_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -2955,7 +2955,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_9_3_PEAK)</t>
+          <t>(DAM_9_5_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -2969,7 +2969,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_9_3_PEAK)</t>
+          <t>(DAM_9_6_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -2983,7 +2983,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_9_4_PEAK)</t>
+          <t>(DAM_9_7_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -3039,7 +3039,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_9_1_OFFPEAK)</t>
+          <t>(DAM_9_2_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -3053,7 +3053,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_9_2_OFFPEAK)</t>
+          <t>(DAM_9_3_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -3067,7 +3067,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_9_2_OFFPEAK)</t>
+          <t>(DAM_9_4_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -3081,7 +3081,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_9_3_OFFPEAK)</t>
+          <t>(DAM_9_5_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -3095,7 +3095,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_9_3_OFFPEAK)</t>
+          <t>(DAM_9_6_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -3109,7 +3109,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_9_4_OFFPEAK)</t>
+          <t>(DAM_9_7_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -3151,7 +3151,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_9_1_STANDARD)</t>
+          <t>(DAM_9_2_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -3165,7 +3165,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_9_2_STANDARD)</t>
+          <t>(DAM_9_3_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -3179,7 +3179,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_9_2_STANDARD)</t>
+          <t>(DAM_9_4_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -3193,7 +3193,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_9_3_STANDARD)</t>
+          <t>(DAM_9_5_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -3207,7 +3207,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_9_3_STANDARD)</t>
+          <t>(DAM_9_6_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -3221,7 +3221,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_9_4_STANDARD)</t>
+          <t>(DAM_9_7_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -3263,7 +3263,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_10_1_PEAK)</t>
+          <t>(DAM_10_2_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -3277,7 +3277,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_10_2_PEAK)</t>
+          <t>(DAM_10_3_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -3291,7 +3291,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_10_2_PEAK)</t>
+          <t>(DAM_10_4_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -3305,7 +3305,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_10_3_PEAK)</t>
+          <t>(DAM_10_5_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -3319,7 +3319,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_10_3_PEAK)</t>
+          <t>(DAM_10_6_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -3333,7 +3333,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_10_4_PEAK)</t>
+          <t>(DAM_10_7_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -3389,7 +3389,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_10_1_OFFPEAK)</t>
+          <t>(DAM_10_2_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -3403,7 +3403,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_10_2_OFFPEAK)</t>
+          <t>(DAM_10_3_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -3417,7 +3417,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_10_2_OFFPEAK)</t>
+          <t>(DAM_10_4_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -3431,7 +3431,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_10_3_OFFPEAK)</t>
+          <t>(DAM_10_5_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -3445,7 +3445,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_10_3_OFFPEAK)</t>
+          <t>(DAM_10_6_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -3459,7 +3459,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_10_4_OFFPEAK)</t>
+          <t>(DAM_10_7_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -3501,7 +3501,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_10_1_STANDARD)</t>
+          <t>(DAM_10_2_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -3515,7 +3515,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_10_2_STANDARD)</t>
+          <t>(DAM_10_3_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -3529,7 +3529,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_10_2_STANDARD)</t>
+          <t>(DAM_10_4_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -3543,7 +3543,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_10_3_STANDARD)</t>
+          <t>(DAM_10_5_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -3557,7 +3557,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_10_3_STANDARD)</t>
+          <t>(DAM_10_6_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -3571,7 +3571,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_10_4_STANDARD)</t>
+          <t>(DAM_10_7_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -3613,7 +3613,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_11_1_PEAK)</t>
+          <t>(DAM_11_2_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -3627,7 +3627,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_11_2_PEAK)</t>
+          <t>(DAM_11_3_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -3641,7 +3641,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_11_2_PEAK)</t>
+          <t>(DAM_11_4_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -3655,7 +3655,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_11_3_PEAK)</t>
+          <t>(DAM_11_5_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -3669,7 +3669,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_11_3_PEAK)</t>
+          <t>(DAM_11_6_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -3683,7 +3683,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_11_4_PEAK)</t>
+          <t>(DAM_11_7_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -3739,7 +3739,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_11_1_OFFPEAK)</t>
+          <t>(DAM_11_2_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -3753,7 +3753,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_11_2_OFFPEAK)</t>
+          <t>(DAM_11_3_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -3767,7 +3767,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_11_2_OFFPEAK)</t>
+          <t>(DAM_11_4_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -3781,7 +3781,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_11_3_OFFPEAK)</t>
+          <t>(DAM_11_5_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -3795,7 +3795,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_11_3_OFFPEAK)</t>
+          <t>(DAM_11_6_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -3809,7 +3809,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_11_4_OFFPEAK)</t>
+          <t>(DAM_11_7_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -3851,7 +3851,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_11_1_STANDARD)</t>
+          <t>(DAM_11_2_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -3865,7 +3865,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_11_2_STANDARD)</t>
+          <t>(DAM_11_3_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -3879,7 +3879,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_11_2_STANDARD)</t>
+          <t>(DAM_11_4_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -3893,7 +3893,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_11_3_STANDARD)</t>
+          <t>(DAM_11_5_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -3907,7 +3907,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_11_3_STANDARD)</t>
+          <t>(DAM_11_6_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -3921,7 +3921,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_11_4_STANDARD)</t>
+          <t>(DAM_11_7_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -4051,7 +4051,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_1_1_PEAK)</t>
+          <t>(DAM_1_2_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -4065,7 +4065,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_1_2_PEAK)</t>
+          <t>(DAM_1_3_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -4079,7 +4079,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_1_2_PEAK)</t>
+          <t>(DAM_1_4_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -4093,7 +4093,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_1_3_PEAK)</t>
+          <t>(DAM_1_5_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -4107,7 +4107,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_1_3_PEAK)</t>
+          <t>(DAM_1_6_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -4121,7 +4121,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_1_4_PEAK)</t>
+          <t>(DAM_1_7_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -4177,7 +4177,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_1_1_OFFPEAK)</t>
+          <t>(DAM_1_2_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -4191,7 +4191,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_1_2_OFFPEAK)</t>
+          <t>(DAM_1_3_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -4205,7 +4205,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_1_2_OFFPEAK)</t>
+          <t>(DAM_1_4_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -4219,7 +4219,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_1_3_OFFPEAK)</t>
+          <t>(DAM_1_5_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -4233,7 +4233,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_1_3_OFFPEAK)</t>
+          <t>(DAM_1_6_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -4247,7 +4247,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_1_4_OFFPEAK)</t>
+          <t>(DAM_1_7_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -4289,7 +4289,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_1_1_STANDARD)</t>
+          <t>(DAM_1_2_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -4303,7 +4303,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_1_2_STANDARD)</t>
+          <t>(DAM_1_3_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -4317,7 +4317,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_1_2_STANDARD)</t>
+          <t>(DAM_1_4_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -4331,7 +4331,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_1_3_STANDARD)</t>
+          <t>(DAM_1_5_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -4345,7 +4345,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_1_3_STANDARD)</t>
+          <t>(DAM_1_6_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -4359,7 +4359,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_1_4_STANDARD)</t>
+          <t>(DAM_1_7_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -4401,7 +4401,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_2_1_PEAK)</t>
+          <t>(DAM_2_2_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -4415,7 +4415,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_2_2_PEAK)</t>
+          <t>(DAM_2_3_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -4429,7 +4429,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_2_2_PEAK)</t>
+          <t>(DAM_2_4_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -4443,7 +4443,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_2_3_PEAK)</t>
+          <t>(DAM_2_5_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -4457,7 +4457,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_2_3_PEAK)</t>
+          <t>(DAM_2_6_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -4471,7 +4471,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_2_4_PEAK)</t>
+          <t>(DAM_2_7_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -4527,7 +4527,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_2_1_OFFPEAK)</t>
+          <t>(DAM_2_2_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -4541,7 +4541,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_2_2_OFFPEAK)</t>
+          <t>(DAM_2_3_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -4555,7 +4555,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_2_2_OFFPEAK)</t>
+          <t>(DAM_2_4_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -4569,7 +4569,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_2_3_OFFPEAK)</t>
+          <t>(DAM_2_5_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -4583,7 +4583,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_2_3_OFFPEAK)</t>
+          <t>(DAM_2_6_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -4597,7 +4597,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_2_4_OFFPEAK)</t>
+          <t>(DAM_2_7_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -4639,7 +4639,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_2_1_STANDARD)</t>
+          <t>(DAM_2_2_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -4653,7 +4653,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_2_2_STANDARD)</t>
+          <t>(DAM_2_3_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -4667,7 +4667,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_2_2_STANDARD)</t>
+          <t>(DAM_2_4_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -4681,7 +4681,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_2_3_STANDARD)</t>
+          <t>(DAM_2_5_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -4695,7 +4695,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_2_3_STANDARD)</t>
+          <t>(DAM_2_6_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -4709,7 +4709,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_2_4_STANDARD)</t>
+          <t>(DAM_2_7_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -4751,7 +4751,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_3_1_PEAK)</t>
+          <t>(DAM_3_2_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -4765,7 +4765,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_3_2_PEAK)</t>
+          <t>(DAM_3_3_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -4779,7 +4779,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_3_2_PEAK)</t>
+          <t>(DAM_3_4_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -4793,7 +4793,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_3_3_PEAK)</t>
+          <t>(DAM_3_5_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -4807,7 +4807,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_3_3_PEAK)</t>
+          <t>(DAM_3_6_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -4821,7 +4821,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_3_4_PEAK)</t>
+          <t>(DAM_3_7_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -4877,7 +4877,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_3_1_OFFPEAK)</t>
+          <t>(DAM_3_2_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -4891,7 +4891,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_3_2_OFFPEAK)</t>
+          <t>(DAM_3_3_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -4905,7 +4905,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_3_2_OFFPEAK)</t>
+          <t>(DAM_3_4_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -4919,7 +4919,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_3_3_OFFPEAK)</t>
+          <t>(DAM_3_5_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -4933,7 +4933,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_3_3_OFFPEAK)</t>
+          <t>(DAM_3_6_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -4947,7 +4947,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_3_4_OFFPEAK)</t>
+          <t>(DAM_3_7_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -4989,7 +4989,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_3_1_STANDARD)</t>
+          <t>(DAM_3_2_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -5003,7 +5003,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_3_2_STANDARD)</t>
+          <t>(DAM_3_3_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -5017,7 +5017,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_3_2_STANDARD)</t>
+          <t>(DAM_3_4_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -5031,7 +5031,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_3_3_STANDARD)</t>
+          <t>(DAM_3_5_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -5045,7 +5045,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_3_3_STANDARD)</t>
+          <t>(DAM_3_6_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -5059,7 +5059,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_3_4_STANDARD)</t>
+          <t>(DAM_3_7_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -5115,7 +5115,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_4_1_PEAK)</t>
+          <t>(DAM_4_2_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -5129,7 +5129,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_4_2_PEAK)</t>
+          <t>(DAM_4_3_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -5143,7 +5143,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_4_2_PEAK)</t>
+          <t>(DAM_4_4_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -5157,7 +5157,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_4_3_PEAK)</t>
+          <t>(DAM_4_5_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -5171,7 +5171,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_4_3_PEAK)</t>
+          <t>(DAM_4_6_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -5185,7 +5185,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_4_4_PEAK)</t>
+          <t>(DAM_4_7_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -5241,7 +5241,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_4_1_OFFPEAK)</t>
+          <t>(DAM_4_2_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -5255,7 +5255,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_4_2_OFFPEAK)</t>
+          <t>(DAM_4_3_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -5269,7 +5269,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_4_2_OFFPEAK)</t>
+          <t>(DAM_4_4_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -5283,7 +5283,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_4_3_OFFPEAK)</t>
+          <t>(DAM_4_5_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -5297,7 +5297,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_4_3_OFFPEAK)</t>
+          <t>(DAM_4_6_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -5311,7 +5311,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_4_4_OFFPEAK)</t>
+          <t>(DAM_4_7_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -5353,7 +5353,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_4_1_STANDARD)</t>
+          <t>(DAM_4_2_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -5367,7 +5367,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_4_2_STANDARD)</t>
+          <t>(DAM_4_3_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -5381,7 +5381,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_4_2_STANDARD)</t>
+          <t>(DAM_4_4_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -5395,7 +5395,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_4_3_STANDARD)</t>
+          <t>(DAM_4_5_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -5409,7 +5409,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_4_3_STANDARD)</t>
+          <t>(DAM_4_6_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -5423,7 +5423,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_4_4_STANDARD)</t>
+          <t>(DAM_4_7_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -5465,7 +5465,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_5_1_PEAK)</t>
+          <t>(DAM_5_2_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -5479,7 +5479,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_5_2_PEAK)</t>
+          <t>(DAM_5_3_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -5493,7 +5493,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_5_2_PEAK)</t>
+          <t>(DAM_5_4_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -5507,7 +5507,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_5_3_PEAK)</t>
+          <t>(DAM_5_5_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -5521,7 +5521,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_5_3_PEAK)</t>
+          <t>(DAM_5_6_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -5535,7 +5535,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_5_4_PEAK)</t>
+          <t>(DAM_5_7_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -5591,7 +5591,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_5_1_OFFPEAK)</t>
+          <t>(DAM_5_2_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -5605,7 +5605,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_5_2_OFFPEAK)</t>
+          <t>(DAM_5_3_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -5619,7 +5619,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_5_2_OFFPEAK)</t>
+          <t>(DAM_5_4_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -5633,7 +5633,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_5_3_OFFPEAK)</t>
+          <t>(DAM_5_5_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -5647,7 +5647,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_5_3_OFFPEAK)</t>
+          <t>(DAM_5_6_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -5661,7 +5661,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_5_4_OFFPEAK)</t>
+          <t>(DAM_5_7_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -5703,7 +5703,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_5_1_STANDARD)</t>
+          <t>(DAM_5_2_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -5717,7 +5717,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_5_2_STANDARD)</t>
+          <t>(DAM_5_3_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -5731,7 +5731,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_5_2_STANDARD)</t>
+          <t>(DAM_5_4_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -5745,7 +5745,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_5_3_STANDARD)</t>
+          <t>(DAM_5_5_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -5759,7 +5759,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_5_3_STANDARD)</t>
+          <t>(DAM_5_6_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -5773,7 +5773,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_5_4_STANDARD)</t>
+          <t>(DAM_5_7_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -5815,7 +5815,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_6_1_PEAK)</t>
+          <t>(DAM_6_2_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -5829,7 +5829,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_6_2_PEAK)</t>
+          <t>(DAM_6_3_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -5843,7 +5843,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_6_2_PEAK)</t>
+          <t>(DAM_6_4_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -5857,7 +5857,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_6_3_PEAK)</t>
+          <t>(DAM_6_5_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -5871,7 +5871,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_6_3_PEAK)</t>
+          <t>(DAM_6_6_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -5885,7 +5885,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_6_4_PEAK)</t>
+          <t>(DAM_6_7_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -5941,7 +5941,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_6_1_OFFPEAK)</t>
+          <t>(DAM_6_2_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -5955,7 +5955,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_6_2_OFFPEAK)</t>
+          <t>(DAM_6_3_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -5969,7 +5969,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_6_2_OFFPEAK)</t>
+          <t>(DAM_6_4_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -5983,7 +5983,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_6_3_OFFPEAK)</t>
+          <t>(DAM_6_5_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -5997,7 +5997,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_6_3_OFFPEAK)</t>
+          <t>(DAM_6_6_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -6011,7 +6011,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_6_4_OFFPEAK)</t>
+          <t>(DAM_6_7_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -6053,7 +6053,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_6_1_STANDARD)</t>
+          <t>(DAM_6_2_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -6067,7 +6067,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_6_2_STANDARD)</t>
+          <t>(DAM_6_3_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -6081,7 +6081,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_6_2_STANDARD)</t>
+          <t>(DAM_6_4_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -6095,7 +6095,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_6_3_STANDARD)</t>
+          <t>(DAM_6_5_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -6109,7 +6109,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_6_3_STANDARD)</t>
+          <t>(DAM_6_6_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -6123,7 +6123,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_6_4_STANDARD)</t>
+          <t>(DAM_6_7_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -6165,7 +6165,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_7_1_PEAK)</t>
+          <t>(DAM_7_2_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -6179,7 +6179,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_7_2_PEAK)</t>
+          <t>(DAM_7_3_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -6193,7 +6193,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_7_2_PEAK)</t>
+          <t>(DAM_7_4_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -6207,7 +6207,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_7_3_PEAK)</t>
+          <t>(DAM_7_5_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -6221,7 +6221,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_7_3_PEAK)</t>
+          <t>(DAM_7_6_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -6235,7 +6235,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_7_4_PEAK)</t>
+          <t>(DAM_7_7_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -6291,7 +6291,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_7_1_OFFPEAK)</t>
+          <t>(DAM_7_2_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -6305,7 +6305,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_7_2_OFFPEAK)</t>
+          <t>(DAM_7_3_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -6319,7 +6319,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_7_2_OFFPEAK)</t>
+          <t>(DAM_7_4_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -6333,7 +6333,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_7_3_OFFPEAK)</t>
+          <t>(DAM_7_5_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -6347,7 +6347,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_7_3_OFFPEAK)</t>
+          <t>(DAM_7_6_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -6361,7 +6361,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_7_4_OFFPEAK)</t>
+          <t>(DAM_7_7_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -6403,7 +6403,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_7_1_STANDARD)</t>
+          <t>(DAM_7_2_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -6417,7 +6417,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_7_2_STANDARD)</t>
+          <t>(DAM_7_3_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -6431,7 +6431,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_7_2_STANDARD)</t>
+          <t>(DAM_7_4_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -6445,7 +6445,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_7_3_STANDARD)</t>
+          <t>(DAM_7_5_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -6459,7 +6459,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_7_3_STANDARD)</t>
+          <t>(DAM_7_6_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -6473,7 +6473,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_7_4_STANDARD)</t>
+          <t>(DAM_7_7_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -6515,7 +6515,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_8_1_PEAK)</t>
+          <t>(DAM_8_2_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -6529,7 +6529,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_8_2_PEAK)</t>
+          <t>(DAM_8_3_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -6543,7 +6543,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_8_2_PEAK)</t>
+          <t>(DAM_8_4_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -6557,7 +6557,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_8_3_PEAK)</t>
+          <t>(DAM_8_5_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -6571,7 +6571,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_8_3_PEAK)</t>
+          <t>(DAM_8_6_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -6585,7 +6585,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_8_4_PEAK)</t>
+          <t>(DAM_8_7_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -6641,7 +6641,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_8_1_OFFPEAK)</t>
+          <t>(DAM_8_2_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -6655,7 +6655,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_8_2_OFFPEAK)</t>
+          <t>(DAM_8_3_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -6669,7 +6669,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_8_2_OFFPEAK)</t>
+          <t>(DAM_8_4_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -6683,7 +6683,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_8_3_OFFPEAK)</t>
+          <t>(DAM_8_5_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -6697,7 +6697,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_8_3_OFFPEAK)</t>
+          <t>(DAM_8_6_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -6711,7 +6711,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_8_4_OFFPEAK)</t>
+          <t>(DAM_8_7_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -6753,7 +6753,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_8_1_STANDARD)</t>
+          <t>(DAM_8_2_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -6767,7 +6767,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_8_2_STANDARD)</t>
+          <t>(DAM_8_3_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -6781,7 +6781,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_8_2_STANDARD)</t>
+          <t>(DAM_8_4_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -6795,7 +6795,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_8_3_STANDARD)</t>
+          <t>(DAM_8_5_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -6809,7 +6809,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_8_3_STANDARD)</t>
+          <t>(DAM_8_6_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -6823,7 +6823,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_8_4_STANDARD)</t>
+          <t>(DAM_8_7_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -6865,7 +6865,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_9_1_PEAK)</t>
+          <t>(DAM_9_2_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -6879,7 +6879,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_9_2_PEAK)</t>
+          <t>(DAM_9_3_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -6893,7 +6893,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_9_2_PEAK)</t>
+          <t>(DAM_9_4_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -6907,7 +6907,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_9_3_PEAK)</t>
+          <t>(DAM_9_5_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -6921,7 +6921,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_9_3_PEAK)</t>
+          <t>(DAM_9_6_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -6935,7 +6935,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_9_4_PEAK)</t>
+          <t>(DAM_9_7_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -6991,7 +6991,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_9_1_OFFPEAK)</t>
+          <t>(DAM_9_2_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -7005,7 +7005,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_9_2_OFFPEAK)</t>
+          <t>(DAM_9_3_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -7019,7 +7019,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_9_2_OFFPEAK)</t>
+          <t>(DAM_9_4_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -7033,7 +7033,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_9_3_OFFPEAK)</t>
+          <t>(DAM_9_5_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -7047,7 +7047,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_9_3_OFFPEAK)</t>
+          <t>(DAM_9_6_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -7061,7 +7061,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_9_4_OFFPEAK)</t>
+          <t>(DAM_9_7_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -7103,7 +7103,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_9_1_STANDARD)</t>
+          <t>(DAM_9_2_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -7117,7 +7117,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_9_2_STANDARD)</t>
+          <t>(DAM_9_3_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -7131,7 +7131,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_9_2_STANDARD)</t>
+          <t>(DAM_9_4_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -7145,7 +7145,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_9_3_STANDARD)</t>
+          <t>(DAM_9_5_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -7159,7 +7159,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_9_3_STANDARD)</t>
+          <t>(DAM_9_6_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -7173,7 +7173,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_9_4_STANDARD)</t>
+          <t>(DAM_9_7_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -7215,7 +7215,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_10_1_PEAK)</t>
+          <t>(DAM_10_2_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -7229,7 +7229,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_10_2_PEAK)</t>
+          <t>(DAM_10_3_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -7243,7 +7243,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_10_2_PEAK)</t>
+          <t>(DAM_10_4_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -7257,7 +7257,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_10_3_PEAK)</t>
+          <t>(DAM_10_5_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -7271,7 +7271,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_10_3_PEAK)</t>
+          <t>(DAM_10_6_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -7285,7 +7285,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_10_4_PEAK)</t>
+          <t>(DAM_10_7_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -7341,7 +7341,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_10_1_OFFPEAK)</t>
+          <t>(DAM_10_2_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -7355,7 +7355,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_10_2_OFFPEAK)</t>
+          <t>(DAM_10_3_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -7369,7 +7369,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_10_2_OFFPEAK)</t>
+          <t>(DAM_10_4_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -7383,7 +7383,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_10_3_OFFPEAK)</t>
+          <t>(DAM_10_5_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -7397,7 +7397,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_10_3_OFFPEAK)</t>
+          <t>(DAM_10_6_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -7411,7 +7411,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_10_4_OFFPEAK)</t>
+          <t>(DAM_10_7_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -7453,7 +7453,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_10_1_STANDARD)</t>
+          <t>(DAM_10_2_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -7467,7 +7467,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_10_2_STANDARD)</t>
+          <t>(DAM_10_3_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -7481,7 +7481,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_10_2_STANDARD)</t>
+          <t>(DAM_10_4_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -7495,7 +7495,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_10_3_STANDARD)</t>
+          <t>(DAM_10_5_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -7509,7 +7509,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_10_3_STANDARD)</t>
+          <t>(DAM_10_6_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -7523,7 +7523,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_10_4_STANDARD)</t>
+          <t>(DAM_10_7_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -7565,7 +7565,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_11_1_PEAK)</t>
+          <t>(DAM_11_2_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -7579,7 +7579,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_11_2_PEAK)</t>
+          <t>(DAM_11_3_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -7593,7 +7593,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_11_2_PEAK)</t>
+          <t>(DAM_11_4_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -7607,7 +7607,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_11_3_PEAK)</t>
+          <t>(DAM_11_5_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -7621,7 +7621,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_11_3_PEAK)</t>
+          <t>(DAM_11_6_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -7635,7 +7635,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_11_4_PEAK)</t>
+          <t>(DAM_11_7_PEAK)</t>
         </r>
       </text>
     </comment>
@@ -7691,7 +7691,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_11_1_OFFPEAK)</t>
+          <t>(DAM_11_2_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -7705,7 +7705,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_11_2_OFFPEAK)</t>
+          <t>(DAM_11_3_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -7719,7 +7719,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_11_2_OFFPEAK)</t>
+          <t>(DAM_11_4_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -7733,7 +7733,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_11_3_OFFPEAK)</t>
+          <t>(DAM_11_5_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -7747,7 +7747,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_11_3_OFFPEAK)</t>
+          <t>(DAM_11_6_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -7761,7 +7761,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_11_4_OFFPEAK)</t>
+          <t>(DAM_11_7_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -7803,7 +7803,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_11_1_STANDARD)</t>
+          <t>(DAM_11_2_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -7817,7 +7817,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_11_2_STANDARD)</t>
+          <t>(DAM_11_3_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -7831,7 +7831,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_11_2_STANDARD)</t>
+          <t>(DAM_11_4_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -7845,7 +7845,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_11_3_STANDARD)</t>
+          <t>(DAM_11_5_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -7859,7 +7859,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_11_3_STANDARD)</t>
+          <t>(DAM_11_6_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -7873,7 +7873,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(DAM_11_4_STANDARD)</t>
+          <t>(DAM_11_7_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -8748,41 +8748,14 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -8793,12 +8766,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -8808,10 +8775,43 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8831,6 +8831,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8857,13 +8866,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8871,28 +8880,19 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9220,8 +9220,8 @@
   </sheetPr>
   <dimension ref="A1:AA113"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="E74" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="W58" sqref="W58"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="E21" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="Q51" sqref="Q51:R74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10356,52 +10356,52 @@
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:20" s="10" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="82"/>
-      <c r="T3" s="82"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="85"/>
     </row>
     <row r="4" spans="1:20" s="14" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="83"/>
-      <c r="T4" s="83"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="86"/>
     </row>
     <row r="5" spans="1:20" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
@@ -10891,30 +10891,30 @@
       <c r="F29" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="73" t="s">
+      <c r="G29" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="H29" s="70" t="s">
+      <c r="H29" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70" t="s">
+      <c r="I29" s="68"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="L29" s="70"/>
-      <c r="M29" s="70"/>
-      <c r="N29" s="70" t="s">
+      <c r="L29" s="68"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="O29" s="70"/>
-      <c r="P29" s="70"/>
-      <c r="Q29" s="70" t="s">
+      <c r="O29" s="68"/>
+      <c r="P29" s="68"/>
+      <c r="Q29" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="R29" s="70"/>
-      <c r="S29" s="70"/>
-      <c r="T29" s="69" t="s">
+      <c r="R29" s="68"/>
+      <c r="S29" s="68"/>
+      <c r="T29" s="98" t="s">
         <v>46</v>
       </c>
     </row>
@@ -10925,28 +10925,28 @@
       <c r="D30" s="77"/>
       <c r="E30" s="80"/>
       <c r="F30" s="77"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="95" t="s">
+      <c r="G30" s="62"/>
+      <c r="H30" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="I30" s="96"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="95" t="s">
+      <c r="I30" s="74"/>
+      <c r="J30" s="75"/>
+      <c r="K30" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="L30" s="96"/>
-      <c r="M30" s="97"/>
-      <c r="N30" s="95" t="s">
+      <c r="L30" s="74"/>
+      <c r="M30" s="75"/>
+      <c r="N30" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="O30" s="96"/>
-      <c r="P30" s="97"/>
-      <c r="Q30" s="95" t="s">
+      <c r="O30" s="74"/>
+      <c r="P30" s="75"/>
+      <c r="Q30" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="R30" s="96"/>
-      <c r="S30" s="97"/>
-      <c r="T30" s="69"/>
+      <c r="R30" s="74"/>
+      <c r="S30" s="75"/>
+      <c r="T30" s="98"/>
     </row>
     <row r="31" spans="1:20" s="4" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="77"/>
@@ -10955,7 +10955,7 @@
       <c r="D31" s="77"/>
       <c r="E31" s="80"/>
       <c r="F31" s="77"/>
-      <c r="G31" s="73"/>
+      <c r="G31" s="62"/>
       <c r="H31" s="37" t="s">
         <v>37</v>
       </c>
@@ -10992,7 +10992,7 @@
       <c r="S31" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="T31" s="69"/>
+      <c r="T31" s="98"/>
     </row>
     <row r="32" spans="1:20" s="39" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="78"/>
@@ -11045,25 +11045,25 @@
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A33" s="93">
+      <c r="A33" s="96">
         <v>1</v>
       </c>
-      <c r="B33" s="58" t="s">
+      <c r="B33" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="57" t="s">
+      <c r="C33" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="58" t="s">
+      <c r="D33" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="E33" s="58" t="s">
+      <c r="E33" s="63" t="s">
         <v>16</v>
       </c>
       <c r="F33" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="59">
+      <c r="G33" s="67">
         <v>1000000</v>
       </c>
       <c r="H33" s="51"/>
@@ -11094,21 +11094,21 @@
         <f>$G$33*(J33+M33+P33+S33)</f>
         <v>0</v>
       </c>
-      <c r="U33" s="54">
+      <c r="U33" s="101">
         <f>SUM(T33:T35)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="93"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
+      <c r="A34" s="96"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
       <c r="F34" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="59"/>
+      <c r="G34" s="67"/>
       <c r="H34" s="51"/>
       <c r="I34" s="51"/>
       <c r="J34" s="51">
@@ -11137,18 +11137,18 @@
         <f t="shared" ref="T34:T35" si="4">$G$33*(J34+M34+P34+S34)</f>
         <v>0</v>
       </c>
-      <c r="U34" s="55"/>
+      <c r="U34" s="102"/>
     </row>
     <row r="35" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="93"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
+      <c r="A35" s="96"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
       <c r="F35" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G35" s="59"/>
+      <c r="G35" s="67"/>
       <c r="H35" s="51"/>
       <c r="I35" s="51"/>
       <c r="J35" s="51">
@@ -11177,28 +11177,28 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U35" s="55"/>
+      <c r="U35" s="102"/>
     </row>
     <row r="36" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="90">
+      <c r="A36" s="54">
         <v>2</v>
       </c>
-      <c r="B36" s="66" t="s">
+      <c r="B36" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="66" t="s">
+      <c r="C36" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="66" t="s">
+      <c r="D36" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="63" t="s">
+      <c r="E36" s="93" t="s">
         <v>17</v>
       </c>
       <c r="F36" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G36" s="60">
+      <c r="G36" s="82">
         <v>1000000</v>
       </c>
       <c r="H36" s="51"/>
@@ -11229,21 +11229,21 @@
         <f>$G$36*(J36+M36+P36+S36)</f>
         <v>0</v>
       </c>
-      <c r="U36" s="54">
+      <c r="U36" s="101">
         <f>SUM(T36:T38)-SUM(U51:U74)</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:27" s="18" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="91"/>
-      <c r="B37" s="67"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="64"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="94"/>
       <c r="F37" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="G37" s="61"/>
+      <c r="G37" s="83"/>
       <c r="H37" s="51"/>
       <c r="I37" s="51"/>
       <c r="J37" s="51">
@@ -11272,18 +11272,18 @@
         <f t="shared" ref="T37:T38" si="5">$G$36*(J37+M37+P37+S37)</f>
         <v>0</v>
       </c>
-      <c r="U37" s="55"/>
+      <c r="U37" s="102"/>
     </row>
     <row r="38" spans="1:27" s="18" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="91"/>
-      <c r="B38" s="67"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="68"/>
-      <c r="E38" s="65"/>
+      <c r="A38" s="55"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="95"/>
       <c r="F38" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G38" s="62"/>
+      <c r="G38" s="84"/>
       <c r="H38" s="51"/>
       <c r="I38" s="51"/>
       <c r="J38" s="51">
@@ -11312,24 +11312,24 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U38" s="55"/>
+      <c r="U38" s="102"/>
     </row>
     <row r="39" spans="1:27" s="18" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="91"/>
-      <c r="B39" s="67"/>
-      <c r="C39" s="98" t="s">
+      <c r="A39" s="55"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="D39" s="98" t="s">
+      <c r="D39" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="E39" s="66" t="s">
+      <c r="E39" s="57" t="s">
         <v>115</v>
       </c>
       <c r="F39" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G39" s="60">
+      <c r="G39" s="82">
         <v>1000000</v>
       </c>
       <c r="H39" s="51"/>
@@ -11360,21 +11360,21 @@
         <f>$G$36*(J39+M39+P39+S39)</f>
         <v>0</v>
       </c>
-      <c r="U39" s="54">
+      <c r="U39" s="101">
         <f t="shared" ref="U39" si="10">SUM(T39:T41)</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:27" s="18" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="91"/>
-      <c r="B40" s="67"/>
-      <c r="C40" s="99"/>
-      <c r="D40" s="99"/>
-      <c r="E40" s="67"/>
+      <c r="A40" s="55"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="58"/>
       <c r="F40" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="61"/>
+      <c r="G40" s="83"/>
       <c r="H40" s="51"/>
       <c r="I40" s="51"/>
       <c r="J40" s="51">
@@ -11403,18 +11403,18 @@
         <f t="shared" ref="T40:T41" si="11">$G$36*(J40+M40+P40+S40)</f>
         <v>0</v>
       </c>
-      <c r="U40" s="55"/>
+      <c r="U40" s="102"/>
     </row>
     <row r="41" spans="1:27" s="18" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="92"/>
-      <c r="B41" s="68"/>
-      <c r="C41" s="100"/>
-      <c r="D41" s="100"/>
-      <c r="E41" s="68"/>
+      <c r="A41" s="56"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="71"/>
+      <c r="D41" s="71"/>
+      <c r="E41" s="59"/>
       <c r="F41" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="62"/>
+      <c r="G41" s="84"/>
       <c r="H41" s="51"/>
       <c r="I41" s="51"/>
       <c r="J41" s="51">
@@ -11443,7 +11443,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U41" s="55"/>
+      <c r="U41" s="102"/>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="29"/>
@@ -11463,10 +11463,10 @@
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
-      <c r="R42" s="71" t="s">
+      <c r="R42" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="S42" s="72"/>
+      <c r="S42" s="61"/>
       <c r="T42" s="36">
         <f>T33+T36+T39</f>
         <v>0</v>
@@ -11497,10 +11497,10 @@
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
-      <c r="R43" s="71" t="s">
+      <c r="R43" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="S43" s="72"/>
+      <c r="S43" s="61"/>
       <c r="T43" s="36">
         <f>T34+T37+T40</f>
         <v>0</v>
@@ -11531,10 +11531,10 @@
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
-      <c r="R44" s="71" t="s">
+      <c r="R44" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="S44" s="72"/>
+      <c r="S44" s="61"/>
       <c r="T44" s="36">
         <f>T35+T38+T41</f>
         <v>0</v>
@@ -11565,10 +11565,10 @@
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
-      <c r="R45" s="71" t="s">
+      <c r="R45" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="S45" s="72"/>
+      <c r="S45" s="61"/>
       <c r="T45" s="36">
         <f>SUM(T42:T44)</f>
         <v>0</v>
@@ -11621,30 +11621,30 @@
       <c r="F47" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="G47" s="73" t="s">
+      <c r="G47" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="H47" s="70" t="s">
+      <c r="H47" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="I47" s="70"/>
-      <c r="J47" s="70"/>
-      <c r="K47" s="70" t="s">
+      <c r="I47" s="68"/>
+      <c r="J47" s="68"/>
+      <c r="K47" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="L47" s="70"/>
-      <c r="M47" s="70"/>
-      <c r="N47" s="70" t="s">
+      <c r="L47" s="68"/>
+      <c r="M47" s="68"/>
+      <c r="N47" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="O47" s="70"/>
-      <c r="P47" s="70"/>
-      <c r="Q47" s="70" t="s">
+      <c r="O47" s="68"/>
+      <c r="P47" s="68"/>
+      <c r="Q47" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="R47" s="70"/>
-      <c r="S47" s="70"/>
-      <c r="T47" s="69" t="s">
+      <c r="R47" s="68"/>
+      <c r="S47" s="68"/>
+      <c r="T47" s="98" t="s">
         <v>46</v>
       </c>
     </row>
@@ -11655,28 +11655,28 @@
       <c r="D48" s="77"/>
       <c r="E48" s="80"/>
       <c r="F48" s="77"/>
-      <c r="G48" s="73"/>
-      <c r="H48" s="95" t="s">
+      <c r="G48" s="62"/>
+      <c r="H48" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="I48" s="96"/>
-      <c r="J48" s="97"/>
-      <c r="K48" s="95" t="s">
+      <c r="I48" s="74"/>
+      <c r="J48" s="75"/>
+      <c r="K48" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="L48" s="96"/>
-      <c r="M48" s="97"/>
-      <c r="N48" s="95" t="s">
+      <c r="L48" s="74"/>
+      <c r="M48" s="75"/>
+      <c r="N48" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="O48" s="96"/>
-      <c r="P48" s="97"/>
-      <c r="Q48" s="95" t="s">
+      <c r="O48" s="74"/>
+      <c r="P48" s="75"/>
+      <c r="Q48" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="R48" s="96"/>
-      <c r="S48" s="97"/>
-      <c r="T48" s="69"/>
+      <c r="R48" s="74"/>
+      <c r="S48" s="75"/>
+      <c r="T48" s="98"/>
     </row>
     <row r="49" spans="1:27" s="17" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="77"/>
@@ -11685,7 +11685,7 @@
       <c r="D49" s="77"/>
       <c r="E49" s="80"/>
       <c r="F49" s="77"/>
-      <c r="G49" s="73"/>
+      <c r="G49" s="62"/>
       <c r="H49" s="37" t="s">
         <v>37</v>
       </c>
@@ -11722,7 +11722,7 @@
       <c r="S49" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="T49" s="69"/>
+      <c r="T49" s="98"/>
     </row>
     <row r="50" spans="1:27" s="39" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A50" s="78"/>
@@ -11775,25 +11775,25 @@
       </c>
     </row>
     <row r="51" spans="1:27" s="35" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="90">
+      <c r="A51" s="54">
         <v>1</v>
       </c>
-      <c r="B51" s="63" t="s">
+      <c r="B51" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="63" t="s">
+      <c r="C51" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="63" t="s">
+      <c r="D51" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="E51" s="58" t="s">
+      <c r="E51" s="63" t="s">
         <v>25</v>
       </c>
       <c r="F51" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G51" s="59">
+      <c r="G51" s="67">
         <v>1000000</v>
       </c>
       <c r="H51" s="51"/>
@@ -11824,21 +11824,21 @@
         <f>$G$51*(J51+M51+P51+S51)</f>
         <v>0</v>
       </c>
-      <c r="U51" s="54">
+      <c r="U51" s="101">
         <f>SUM(T51:T53)</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:27" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="91"/>
-      <c r="B52" s="64"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="58"/>
+      <c r="A52" s="55"/>
+      <c r="B52" s="94"/>
+      <c r="C52" s="94"/>
+      <c r="D52" s="94"/>
+      <c r="E52" s="63"/>
       <c r="F52" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="G52" s="59"/>
+      <c r="G52" s="67"/>
       <c r="H52" s="51"/>
       <c r="I52" s="51"/>
       <c r="J52" s="51">
@@ -11867,18 +11867,18 @@
         <f t="shared" ref="T52:T53" si="16">$G$51*(J52+M52+P52+S52)</f>
         <v>0</v>
       </c>
-      <c r="U52" s="55"/>
+      <c r="U52" s="102"/>
     </row>
     <row r="53" spans="1:27" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="91"/>
-      <c r="B53" s="64"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="58"/>
+      <c r="A53" s="55"/>
+      <c r="B53" s="94"/>
+      <c r="C53" s="94"/>
+      <c r="D53" s="94"/>
+      <c r="E53" s="63"/>
       <c r="F53" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G53" s="59"/>
+      <c r="G53" s="67"/>
       <c r="H53" s="51"/>
       <c r="I53" s="51"/>
       <c r="J53" s="51">
@@ -11907,20 +11907,20 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U53" s="55"/>
+      <c r="U53" s="102"/>
     </row>
     <row r="54" spans="1:27" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="91"/>
-      <c r="B54" s="64"/>
-      <c r="C54" s="64"/>
-      <c r="D54" s="64"/>
-      <c r="E54" s="57" t="s">
+      <c r="A54" s="55"/>
+      <c r="B54" s="94"/>
+      <c r="C54" s="94"/>
+      <c r="D54" s="94"/>
+      <c r="E54" s="66" t="s">
         <v>26</v>
       </c>
       <c r="F54" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G54" s="59">
+      <c r="G54" s="67">
         <v>1000000</v>
       </c>
       <c r="H54" s="51"/>
@@ -11951,21 +11951,21 @@
         <f>$G$54*(J54+M54+P54+S54)</f>
         <v>0</v>
       </c>
-      <c r="U54" s="54">
+      <c r="U54" s="101">
         <f>SUM(T54:T56)</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:27" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="91"/>
-      <c r="B55" s="64"/>
-      <c r="C55" s="64"/>
-      <c r="D55" s="64"/>
-      <c r="E55" s="57"/>
+      <c r="A55" s="55"/>
+      <c r="B55" s="94"/>
+      <c r="C55" s="94"/>
+      <c r="D55" s="94"/>
+      <c r="E55" s="66"/>
       <c r="F55" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="G55" s="59"/>
+      <c r="G55" s="67"/>
       <c r="H55" s="51"/>
       <c r="I55" s="51"/>
       <c r="J55" s="51">
@@ -11994,18 +11994,18 @@
         <f>$G$54*(J55+M55+P55+S55)</f>
         <v>0</v>
       </c>
-      <c r="U55" s="55"/>
+      <c r="U55" s="102"/>
     </row>
     <row r="56" spans="1:27" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="91"/>
-      <c r="B56" s="64"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="64"/>
-      <c r="E56" s="57"/>
+      <c r="A56" s="55"/>
+      <c r="B56" s="94"/>
+      <c r="C56" s="94"/>
+      <c r="D56" s="94"/>
+      <c r="E56" s="66"/>
       <c r="F56" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G56" s="59"/>
+      <c r="G56" s="67"/>
       <c r="H56" s="51"/>
       <c r="I56" s="51"/>
       <c r="J56" s="51">
@@ -12034,20 +12034,20 @@
         <f>$G$54*(J56+M56+P56+S56)</f>
         <v>0</v>
       </c>
-      <c r="U56" s="55"/>
+      <c r="U56" s="102"/>
     </row>
     <row r="57" spans="1:27" s="35" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="91"/>
-      <c r="B57" s="64"/>
-      <c r="C57" s="64"/>
-      <c r="D57" s="64"/>
-      <c r="E57" s="57" t="s">
+      <c r="A57" s="55"/>
+      <c r="B57" s="94"/>
+      <c r="C57" s="94"/>
+      <c r="D57" s="94"/>
+      <c r="E57" s="66" t="s">
         <v>99</v>
       </c>
       <c r="F57" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="G57" s="59">
+      <c r="G57" s="67">
         <v>1000000</v>
       </c>
       <c r="H57" s="51"/>
@@ -12078,21 +12078,21 @@
         <f>$G$57*(J57+M57+P57+S57)</f>
         <v>0</v>
       </c>
-      <c r="U57" s="54">
+      <c r="U57" s="101">
         <f>SUM(T57:T59)</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:27" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="91"/>
-      <c r="B58" s="64"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="64"/>
-      <c r="E58" s="57"/>
+      <c r="A58" s="55"/>
+      <c r="B58" s="94"/>
+      <c r="C58" s="94"/>
+      <c r="D58" s="94"/>
+      <c r="E58" s="66"/>
       <c r="F58" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="59"/>
+      <c r="G58" s="67"/>
       <c r="H58" s="51"/>
       <c r="I58" s="51"/>
       <c r="J58" s="51">
@@ -12121,18 +12121,18 @@
         <f t="shared" ref="T58:T59" si="21">$G$57*(J58+M58+P58+S58)</f>
         <v>0</v>
       </c>
-      <c r="U58" s="55"/>
+      <c r="U58" s="102"/>
     </row>
     <row r="59" spans="1:27" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="91"/>
-      <c r="B59" s="64"/>
-      <c r="C59" s="64"/>
-      <c r="D59" s="64"/>
-      <c r="E59" s="57"/>
+      <c r="A59" s="55"/>
+      <c r="B59" s="94"/>
+      <c r="C59" s="94"/>
+      <c r="D59" s="94"/>
+      <c r="E59" s="66"/>
       <c r="F59" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G59" s="59"/>
+      <c r="G59" s="67"/>
       <c r="H59" s="51"/>
       <c r="I59" s="51"/>
       <c r="J59" s="51">
@@ -12161,20 +12161,20 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="U59" s="55"/>
+      <c r="U59" s="102"/>
     </row>
     <row r="60" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="91"/>
-      <c r="B60" s="64"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="64"/>
-      <c r="E60" s="57" t="s">
+      <c r="A60" s="55"/>
+      <c r="B60" s="94"/>
+      <c r="C60" s="94"/>
+      <c r="D60" s="94"/>
+      <c r="E60" s="66" t="s">
         <v>27</v>
       </c>
       <c r="F60" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G60" s="59">
+      <c r="G60" s="67">
         <v>1000000</v>
       </c>
       <c r="H60" s="51"/>
@@ -12205,7 +12205,7 @@
         <f>$G$60*(J60+M60+P60+S60)</f>
         <v>0</v>
       </c>
-      <c r="U60" s="54">
+      <c r="U60" s="101">
         <f>SUM(T60:T62)</f>
         <v>0</v>
       </c>
@@ -12217,15 +12217,15 @@
       <c r="AA60" s="3"/>
     </row>
     <row r="61" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="91"/>
-      <c r="B61" s="64"/>
-      <c r="C61" s="64"/>
-      <c r="D61" s="64"/>
-      <c r="E61" s="57"/>
+      <c r="A61" s="55"/>
+      <c r="B61" s="94"/>
+      <c r="C61" s="94"/>
+      <c r="D61" s="94"/>
+      <c r="E61" s="66"/>
       <c r="F61" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="G61" s="59"/>
+      <c r="G61" s="67"/>
       <c r="H61" s="51"/>
       <c r="I61" s="51"/>
       <c r="J61" s="51">
@@ -12254,7 +12254,7 @@
         <f>$G$60*(J61+M61+P61+S61)</f>
         <v>0</v>
       </c>
-      <c r="U61" s="55"/>
+      <c r="U61" s="102"/>
       <c r="V61" s="3"/>
       <c r="W61" s="3"/>
       <c r="X61" s="3"/>
@@ -12263,15 +12263,15 @@
       <c r="AA61" s="3"/>
     </row>
     <row r="62" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="91"/>
-      <c r="B62" s="64"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="57"/>
+      <c r="A62" s="55"/>
+      <c r="B62" s="94"/>
+      <c r="C62" s="94"/>
+      <c r="D62" s="94"/>
+      <c r="E62" s="66"/>
       <c r="F62" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G62" s="59"/>
+      <c r="G62" s="67"/>
       <c r="H62" s="51"/>
       <c r="I62" s="51"/>
       <c r="J62" s="51">
@@ -12300,7 +12300,7 @@
         <f>$G$60*(J62+M62+P62+S62)</f>
         <v>0</v>
       </c>
-      <c r="U62" s="55"/>
+      <c r="U62" s="102"/>
       <c r="V62" s="3"/>
       <c r="W62" s="3"/>
       <c r="X62" s="3"/>
@@ -12309,17 +12309,17 @@
       <c r="AA62" s="3"/>
     </row>
     <row r="63" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="91"/>
-      <c r="B63" s="64"/>
-      <c r="C63" s="64"/>
-      <c r="D63" s="64"/>
-      <c r="E63" s="57" t="s">
+      <c r="A63" s="55"/>
+      <c r="B63" s="94"/>
+      <c r="C63" s="94"/>
+      <c r="D63" s="94"/>
+      <c r="E63" s="66" t="s">
         <v>28</v>
       </c>
       <c r="F63" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G63" s="59">
+      <c r="G63" s="67">
         <v>1000000</v>
       </c>
       <c r="H63" s="51"/>
@@ -12350,7 +12350,7 @@
         <f>$G$63*(J63+M63+P63+S63)</f>
         <v>0</v>
       </c>
-      <c r="U63" s="54">
+      <c r="U63" s="101">
         <f>SUM(T63:T65)</f>
         <v>0</v>
       </c>
@@ -12362,15 +12362,15 @@
       <c r="AA63" s="3"/>
     </row>
     <row r="64" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="91"/>
-      <c r="B64" s="64"/>
-      <c r="C64" s="64"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="57"/>
+      <c r="A64" s="55"/>
+      <c r="B64" s="94"/>
+      <c r="C64" s="94"/>
+      <c r="D64" s="94"/>
+      <c r="E64" s="66"/>
       <c r="F64" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="G64" s="59"/>
+      <c r="G64" s="67"/>
       <c r="H64" s="51"/>
       <c r="I64" s="51"/>
       <c r="J64" s="51">
@@ -12399,7 +12399,7 @@
         <f>$G$63*(J64+M64+P64+S64)</f>
         <v>0</v>
       </c>
-      <c r="U64" s="55"/>
+      <c r="U64" s="102"/>
       <c r="V64" s="3"/>
       <c r="W64" s="3"/>
       <c r="X64" s="3"/>
@@ -12408,15 +12408,15 @@
       <c r="AA64" s="3"/>
     </row>
     <row r="65" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="91"/>
-      <c r="B65" s="64"/>
-      <c r="C65" s="64"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="57"/>
+      <c r="A65" s="55"/>
+      <c r="B65" s="94"/>
+      <c r="C65" s="94"/>
+      <c r="D65" s="94"/>
+      <c r="E65" s="66"/>
       <c r="F65" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G65" s="59"/>
+      <c r="G65" s="67"/>
       <c r="H65" s="51"/>
       <c r="I65" s="51"/>
       <c r="J65" s="51">
@@ -12445,7 +12445,7 @@
         <f>$G$63*(J65+M65+P65+S65)</f>
         <v>0</v>
       </c>
-      <c r="U65" s="55"/>
+      <c r="U65" s="102"/>
       <c r="V65" s="3"/>
       <c r="W65" s="3"/>
       <c r="X65" s="3"/>
@@ -12454,17 +12454,17 @@
       <c r="AA65" s="3"/>
     </row>
     <row r="66" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="91"/>
-      <c r="B66" s="64"/>
-      <c r="C66" s="64"/>
-      <c r="D66" s="64"/>
-      <c r="E66" s="57" t="s">
+      <c r="A66" s="55"/>
+      <c r="B66" s="94"/>
+      <c r="C66" s="94"/>
+      <c r="D66" s="94"/>
+      <c r="E66" s="66" t="s">
         <v>29</v>
       </c>
       <c r="F66" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G66" s="59">
+      <c r="G66" s="67">
         <v>1000000</v>
       </c>
       <c r="H66" s="51"/>
@@ -12495,7 +12495,7 @@
         <f>$G$66*(J66+M66+P66+S66)</f>
         <v>0</v>
       </c>
-      <c r="U66" s="54">
+      <c r="U66" s="101">
         <f>SUM(T66:T68)</f>
         <v>0</v>
       </c>
@@ -12507,15 +12507,15 @@
       <c r="AA66" s="3"/>
     </row>
     <row r="67" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="91"/>
-      <c r="B67" s="64"/>
-      <c r="C67" s="64"/>
-      <c r="D67" s="64"/>
-      <c r="E67" s="57"/>
+      <c r="A67" s="55"/>
+      <c r="B67" s="94"/>
+      <c r="C67" s="94"/>
+      <c r="D67" s="94"/>
+      <c r="E67" s="66"/>
       <c r="F67" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="G67" s="59"/>
+      <c r="G67" s="67"/>
       <c r="H67" s="51"/>
       <c r="I67" s="51"/>
       <c r="J67" s="51">
@@ -12544,7 +12544,7 @@
         <f>$G$66*(J67+M67+P67+S67)</f>
         <v>0</v>
       </c>
-      <c r="U67" s="55"/>
+      <c r="U67" s="102"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
@@ -12553,15 +12553,15 @@
       <c r="AA67" s="3"/>
     </row>
     <row r="68" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="91"/>
-      <c r="B68" s="64"/>
-      <c r="C68" s="64"/>
-      <c r="D68" s="64"/>
-      <c r="E68" s="57"/>
+      <c r="A68" s="55"/>
+      <c r="B68" s="94"/>
+      <c r="C68" s="94"/>
+      <c r="D68" s="94"/>
+      <c r="E68" s="66"/>
       <c r="F68" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G68" s="59"/>
+      <c r="G68" s="67"/>
       <c r="H68" s="51"/>
       <c r="I68" s="51"/>
       <c r="J68" s="51">
@@ -12590,7 +12590,7 @@
         <f>$G$66*(J68+M68+P68+S68)</f>
         <v>0</v>
       </c>
-      <c r="U68" s="55"/>
+      <c r="U68" s="102"/>
       <c r="V68" s="3"/>
       <c r="W68" s="3"/>
       <c r="X68" s="3"/>
@@ -12599,17 +12599,17 @@
       <c r="AA68" s="3"/>
     </row>
     <row r="69" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="91"/>
-      <c r="B69" s="64"/>
-      <c r="C69" s="64"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="57" t="s">
+      <c r="A69" s="55"/>
+      <c r="B69" s="94"/>
+      <c r="C69" s="94"/>
+      <c r="D69" s="94"/>
+      <c r="E69" s="66" t="s">
         <v>30</v>
       </c>
       <c r="F69" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G69" s="59">
+      <c r="G69" s="67">
         <v>1000000</v>
       </c>
       <c r="H69" s="51"/>
@@ -12640,7 +12640,7 @@
         <f>$G$69*(J69+M69+P69+S69)</f>
         <v>0</v>
       </c>
-      <c r="U69" s="54">
+      <c r="U69" s="101">
         <f>SUM(T69:T71)</f>
         <v>0</v>
       </c>
@@ -12652,15 +12652,15 @@
       <c r="AA69" s="3"/>
     </row>
     <row r="70" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="91"/>
-      <c r="B70" s="64"/>
-      <c r="C70" s="64"/>
-      <c r="D70" s="64"/>
-      <c r="E70" s="57"/>
+      <c r="A70" s="55"/>
+      <c r="B70" s="94"/>
+      <c r="C70" s="94"/>
+      <c r="D70" s="94"/>
+      <c r="E70" s="66"/>
       <c r="F70" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="G70" s="59"/>
+      <c r="G70" s="67"/>
       <c r="H70" s="51"/>
       <c r="I70" s="51"/>
       <c r="J70" s="51">
@@ -12689,7 +12689,7 @@
         <f>$G$69*(J70+M70+P70+S70)</f>
         <v>0</v>
       </c>
-      <c r="U70" s="55"/>
+      <c r="U70" s="102"/>
       <c r="V70" s="3"/>
       <c r="W70" s="3"/>
       <c r="X70" s="3"/>
@@ -12698,15 +12698,15 @@
       <c r="AA70" s="3"/>
     </row>
     <row r="71" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="91"/>
-      <c r="B71" s="64"/>
-      <c r="C71" s="64"/>
-      <c r="D71" s="64"/>
-      <c r="E71" s="57"/>
+      <c r="A71" s="55"/>
+      <c r="B71" s="94"/>
+      <c r="C71" s="94"/>
+      <c r="D71" s="94"/>
+      <c r="E71" s="66"/>
       <c r="F71" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G71" s="59"/>
+      <c r="G71" s="67"/>
       <c r="H71" s="51"/>
       <c r="I71" s="51"/>
       <c r="J71" s="51">
@@ -12735,7 +12735,7 @@
         <f>$G$69*(J71+M71+P71+S71)</f>
         <v>0</v>
       </c>
-      <c r="U71" s="55"/>
+      <c r="U71" s="102"/>
       <c r="V71" s="3"/>
       <c r="W71" s="3"/>
       <c r="X71" s="3"/>
@@ -12744,17 +12744,17 @@
       <c r="AA71" s="3"/>
     </row>
     <row r="72" spans="1:27" s="18" customFormat="1" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="91"/>
-      <c r="B72" s="64"/>
-      <c r="C72" s="64"/>
-      <c r="D72" s="64"/>
-      <c r="E72" s="57" t="s">
+      <c r="A72" s="55"/>
+      <c r="B72" s="94"/>
+      <c r="C72" s="94"/>
+      <c r="D72" s="94"/>
+      <c r="E72" s="66" t="s">
         <v>31</v>
       </c>
       <c r="F72" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G72" s="59">
+      <c r="G72" s="67">
         <v>1000000</v>
       </c>
       <c r="H72" s="51"/>
@@ -12785,7 +12785,7 @@
         <f>$G$72*(J72+M72+P72+S72)</f>
         <v>0</v>
       </c>
-      <c r="U72" s="54">
+      <c r="U72" s="101">
         <f>SUM(T72:T74)</f>
         <v>0</v>
       </c>
@@ -12797,15 +12797,15 @@
       <c r="AA72" s="3"/>
     </row>
     <row r="73" spans="1:27" s="18" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="91"/>
-      <c r="B73" s="64"/>
-      <c r="C73" s="64"/>
-      <c r="D73" s="64"/>
-      <c r="E73" s="57"/>
+      <c r="A73" s="55"/>
+      <c r="B73" s="94"/>
+      <c r="C73" s="94"/>
+      <c r="D73" s="94"/>
+      <c r="E73" s="66"/>
       <c r="F73" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="G73" s="59"/>
+      <c r="G73" s="67"/>
       <c r="H73" s="51"/>
       <c r="I73" s="51"/>
       <c r="J73" s="51">
@@ -12834,7 +12834,7 @@
         <f t="shared" ref="T73:T74" si="22">$G$72*(J73+M73+P73+S73)</f>
         <v>0</v>
       </c>
-      <c r="U73" s="55"/>
+      <c r="U73" s="102"/>
       <c r="V73" s="3"/>
       <c r="W73" s="3"/>
       <c r="X73" s="3"/>
@@ -12843,15 +12843,15 @@
       <c r="AA73" s="3"/>
     </row>
     <row r="74" spans="1:27" s="18" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="92"/>
-      <c r="B74" s="65"/>
-      <c r="C74" s="65"/>
-      <c r="D74" s="65"/>
-      <c r="E74" s="57"/>
+      <c r="A74" s="56"/>
+      <c r="B74" s="95"/>
+      <c r="C74" s="95"/>
+      <c r="D74" s="95"/>
+      <c r="E74" s="66"/>
       <c r="F74" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G74" s="59"/>
+      <c r="G74" s="67"/>
       <c r="H74" s="51"/>
       <c r="I74" s="51"/>
       <c r="J74" s="51">
@@ -12880,7 +12880,7 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="U74" s="55"/>
+      <c r="U74" s="102"/>
       <c r="V74" s="3"/>
       <c r="W74" s="3"/>
       <c r="X74" s="3"/>
@@ -12949,17 +12949,17 @@
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
-      <c r="N77" s="101" t="s">
+      <c r="N77" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="O77" s="101"/>
-      <c r="P77" s="101"/>
-      <c r="Q77" s="101"/>
-      <c r="R77" s="101"/>
-      <c r="S77" s="73" t="s">
+      <c r="O77" s="72"/>
+      <c r="P77" s="72"/>
+      <c r="Q77" s="72"/>
+      <c r="R77" s="72"/>
+      <c r="S77" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="T77" s="73" t="s">
+      <c r="T77" s="62" t="s">
         <v>46</v>
       </c>
       <c r="U77" s="3"/>
@@ -12984,13 +12984,13 @@
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
       <c r="M78" s="5"/>
-      <c r="N78" s="101"/>
-      <c r="O78" s="101"/>
-      <c r="P78" s="101"/>
-      <c r="Q78" s="101"/>
-      <c r="R78" s="101"/>
-      <c r="S78" s="73"/>
-      <c r="T78" s="73"/>
+      <c r="N78" s="72"/>
+      <c r="O78" s="72"/>
+      <c r="P78" s="72"/>
+      <c r="Q78" s="72"/>
+      <c r="R78" s="72"/>
+      <c r="S78" s="62"/>
+      <c r="T78" s="62"/>
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
       <c r="W78" s="3"/>
@@ -13013,11 +13013,11 @@
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
       <c r="M79" s="5"/>
-      <c r="N79" s="101"/>
-      <c r="O79" s="101"/>
-      <c r="P79" s="101"/>
-      <c r="Q79" s="101"/>
-      <c r="R79" s="101"/>
+      <c r="N79" s="72"/>
+      <c r="O79" s="72"/>
+      <c r="P79" s="72"/>
+      <c r="Q79" s="72"/>
+      <c r="R79" s="72"/>
       <c r="S79" s="43"/>
       <c r="T79" s="45" t="s">
         <v>53</v>
@@ -13044,13 +13044,13 @@
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
       <c r="M80" s="5"/>
-      <c r="N80" s="58" t="s">
+      <c r="N80" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="O80" s="58"/>
-      <c r="P80" s="58"/>
-      <c r="Q80" s="58"/>
-      <c r="R80" s="58"/>
+      <c r="O80" s="63"/>
+      <c r="P80" s="63"/>
+      <c r="Q80" s="63"/>
+      <c r="R80" s="63"/>
       <c r="S80" s="44" t="s">
         <v>7</v>
       </c>
@@ -13073,11 +13073,11 @@
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
       <c r="M81" s="5"/>
-      <c r="N81" s="58"/>
-      <c r="O81" s="58"/>
-      <c r="P81" s="58"/>
-      <c r="Q81" s="58"/>
-      <c r="R81" s="58"/>
+      <c r="N81" s="63"/>
+      <c r="O81" s="63"/>
+      <c r="P81" s="63"/>
+      <c r="Q81" s="63"/>
+      <c r="R81" s="63"/>
       <c r="S81" s="44" t="s">
         <v>8</v>
       </c>
@@ -13100,11 +13100,11 @@
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
-      <c r="N82" s="58"/>
-      <c r="O82" s="58"/>
-      <c r="P82" s="58"/>
-      <c r="Q82" s="58"/>
-      <c r="R82" s="58"/>
+      <c r="N82" s="63"/>
+      <c r="O82" s="63"/>
+      <c r="P82" s="63"/>
+      <c r="Q82" s="63"/>
+      <c r="R82" s="63"/>
       <c r="S82" s="44" t="s">
         <v>9</v>
       </c>
@@ -13131,10 +13131,10 @@
       <c r="O83" s="5"/>
       <c r="P83" s="5"/>
       <c r="Q83" s="5"/>
-      <c r="R83" s="71" t="s">
+      <c r="R83" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="S83" s="72"/>
+      <c r="S83" s="61"/>
       <c r="T83" s="36">
         <f>T80</f>
         <v>0</v>
@@ -13165,10 +13165,10 @@
       <c r="O84" s="5"/>
       <c r="P84" s="5"/>
       <c r="Q84" s="5"/>
-      <c r="R84" s="71" t="s">
+      <c r="R84" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="S84" s="72"/>
+      <c r="S84" s="61"/>
       <c r="T84" s="36">
         <f t="shared" ref="T84:T85" si="24">T81</f>
         <v>0</v>
@@ -13199,10 +13199,10 @@
       <c r="O85" s="5"/>
       <c r="P85" s="5"/>
       <c r="Q85" s="5"/>
-      <c r="R85" s="71" t="s">
+      <c r="R85" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="S85" s="72"/>
+      <c r="S85" s="61"/>
       <c r="T85" s="36">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -13233,10 +13233,10 @@
       <c r="O86" s="5"/>
       <c r="P86" s="5"/>
       <c r="Q86" s="5"/>
-      <c r="R86" s="71" t="s">
+      <c r="R86" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="S86" s="72"/>
+      <c r="S86" s="61"/>
       <c r="T86" s="36">
         <f>SUM(T83:T85)</f>
         <v>0</v>
@@ -13284,17 +13284,17 @@
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
       <c r="M88" s="5"/>
-      <c r="N88" s="101" t="s">
+      <c r="N88" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="O88" s="101"/>
-      <c r="P88" s="101"/>
-      <c r="Q88" s="101"/>
-      <c r="R88" s="101"/>
-      <c r="S88" s="73" t="s">
+      <c r="O88" s="72"/>
+      <c r="P88" s="72"/>
+      <c r="Q88" s="72"/>
+      <c r="R88" s="72"/>
+      <c r="S88" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="T88" s="74" t="s">
+      <c r="T88" s="65" t="s">
         <v>46</v>
       </c>
       <c r="U88" s="3"/>
@@ -13319,13 +13319,13 @@
       <c r="K89" s="5"/>
       <c r="L89" s="5"/>
       <c r="M89" s="5"/>
-      <c r="N89" s="101"/>
-      <c r="O89" s="101"/>
-      <c r="P89" s="101"/>
-      <c r="Q89" s="101"/>
-      <c r="R89" s="101"/>
-      <c r="S89" s="73"/>
-      <c r="T89" s="75"/>
+      <c r="N89" s="72"/>
+      <c r="O89" s="72"/>
+      <c r="P89" s="72"/>
+      <c r="Q89" s="72"/>
+      <c r="R89" s="72"/>
+      <c r="S89" s="62"/>
+      <c r="T89" s="100"/>
       <c r="U89" s="3"/>
       <c r="V89" s="3"/>
       <c r="W89" s="3"/>
@@ -13348,11 +13348,11 @@
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
       <c r="M90" s="5"/>
-      <c r="N90" s="101"/>
-      <c r="O90" s="101"/>
-      <c r="P90" s="101"/>
-      <c r="Q90" s="101"/>
-      <c r="R90" s="101"/>
+      <c r="N90" s="72"/>
+      <c r="O90" s="72"/>
+      <c r="P90" s="72"/>
+      <c r="Q90" s="72"/>
+      <c r="R90" s="72"/>
       <c r="S90" s="43"/>
       <c r="T90" s="45" t="s">
         <v>54</v>
@@ -13379,13 +13379,13 @@
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
       <c r="M91" s="5"/>
-      <c r="N91" s="58" t="s">
+      <c r="N91" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="O91" s="58"/>
-      <c r="P91" s="58"/>
-      <c r="Q91" s="58"/>
-      <c r="R91" s="58"/>
+      <c r="O91" s="63"/>
+      <c r="P91" s="63"/>
+      <c r="Q91" s="63"/>
+      <c r="R91" s="63"/>
       <c r="S91" s="44" t="s">
         <v>7</v>
       </c>
@@ -13408,11 +13408,11 @@
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
       <c r="M92" s="5"/>
-      <c r="N92" s="58"/>
-      <c r="O92" s="58"/>
-      <c r="P92" s="58"/>
-      <c r="Q92" s="58"/>
-      <c r="R92" s="58"/>
+      <c r="N92" s="63"/>
+      <c r="O92" s="63"/>
+      <c r="P92" s="63"/>
+      <c r="Q92" s="63"/>
+      <c r="R92" s="63"/>
       <c r="S92" s="44" t="s">
         <v>8</v>
       </c>
@@ -13435,11 +13435,11 @@
       <c r="K93" s="5"/>
       <c r="L93" s="5"/>
       <c r="M93" s="5"/>
-      <c r="N93" s="58"/>
-      <c r="O93" s="58"/>
-      <c r="P93" s="58"/>
-      <c r="Q93" s="58"/>
-      <c r="R93" s="58"/>
+      <c r="N93" s="63"/>
+      <c r="O93" s="63"/>
+      <c r="P93" s="63"/>
+      <c r="Q93" s="63"/>
+      <c r="R93" s="63"/>
       <c r="S93" s="44" t="s">
         <v>9</v>
       </c>
@@ -13466,10 +13466,10 @@
       <c r="O94" s="5"/>
       <c r="P94" s="5"/>
       <c r="Q94" s="5"/>
-      <c r="R94" s="71" t="s">
+      <c r="R94" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="S94" s="72"/>
+      <c r="S94" s="61"/>
       <c r="T94" s="36">
         <f>T91</f>
         <v>0</v>
@@ -13500,10 +13500,10 @@
       <c r="O95" s="5"/>
       <c r="P95" s="5"/>
       <c r="Q95" s="5"/>
-      <c r="R95" s="71" t="s">
+      <c r="R95" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="S95" s="72"/>
+      <c r="S95" s="61"/>
       <c r="T95" s="36">
         <f t="shared" ref="T95:T96" si="25">T92</f>
         <v>0</v>
@@ -13534,10 +13534,10 @@
       <c r="O96" s="5"/>
       <c r="P96" s="5"/>
       <c r="Q96" s="5"/>
-      <c r="R96" s="71" t="s">
+      <c r="R96" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="S96" s="72"/>
+      <c r="S96" s="61"/>
       <c r="T96" s="36">
         <f t="shared" si="25"/>
         <v>0</v>
@@ -13568,10 +13568,10 @@
       <c r="O97" s="5"/>
       <c r="P97" s="5"/>
       <c r="Q97" s="5"/>
-      <c r="R97" s="71" t="s">
+      <c r="R97" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="S97" s="72"/>
+      <c r="S97" s="61"/>
       <c r="T97" s="36">
         <f>SUM(T94:T96)</f>
         <v>0</v>
@@ -13640,52 +13640,52 @@
       <c r="C100" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D100" s="86" t="s">
+      <c r="D100" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="E100" s="87"/>
-      <c r="F100" s="102" t="s">
+      <c r="E100" s="90"/>
+      <c r="F100" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="74"/>
-      <c r="H100" s="74"/>
-      <c r="I100" s="74"/>
-      <c r="J100" s="74"/>
-      <c r="K100" s="74"/>
-      <c r="L100" s="74"/>
-      <c r="M100" s="74"/>
-      <c r="N100" s="74"/>
-      <c r="O100" s="74"/>
+      <c r="G100" s="65"/>
+      <c r="H100" s="65"/>
+      <c r="I100" s="65"/>
+      <c r="J100" s="65"/>
+      <c r="K100" s="65"/>
+      <c r="L100" s="65"/>
+      <c r="M100" s="65"/>
+      <c r="N100" s="65"/>
+      <c r="O100" s="65"/>
       <c r="S100" s="30"/>
       <c r="T100" s="5"/>
     </row>
     <row r="101" spans="1:27" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="98">
+      <c r="A101" s="69">
         <v>1</v>
       </c>
-      <c r="B101" s="66" t="s">
+      <c r="B101" s="57" t="s">
         <v>112</v>
       </c>
       <c r="C101" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D101" s="88">
+      <c r="D101" s="91">
         <f>T42-T80-T91</f>
         <v>0</v>
       </c>
-      <c r="E101" s="89"/>
-      <c r="F101" s="58" t="s">
+      <c r="E101" s="92"/>
+      <c r="F101" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="G101" s="58"/>
-      <c r="H101" s="58"/>
-      <c r="I101" s="58"/>
-      <c r="J101" s="58"/>
-      <c r="K101" s="58"/>
-      <c r="L101" s="58"/>
-      <c r="M101" s="58"/>
-      <c r="N101" s="58"/>
-      <c r="O101" s="58"/>
+      <c r="G101" s="63"/>
+      <c r="H101" s="63"/>
+      <c r="I101" s="63"/>
+      <c r="J101" s="63"/>
+      <c r="K101" s="63"/>
+      <c r="L101" s="63"/>
+      <c r="M101" s="63"/>
+      <c r="N101" s="63"/>
+      <c r="O101" s="63"/>
       <c r="S101" s="30"/>
       <c r="T101" s="5"/>
       <c r="U101" s="1"/>
@@ -13697,54 +13697,54 @@
       <c r="AA101" s="1"/>
     </row>
     <row r="102" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="99"/>
-      <c r="B102" s="67"/>
+      <c r="A102" s="70"/>
+      <c r="B102" s="58"/>
       <c r="C102" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D102" s="88">
+      <c r="D102" s="91">
         <f>T43-T81-T92</f>
         <v>0</v>
       </c>
-      <c r="E102" s="89"/>
-      <c r="F102" s="58" t="s">
+      <c r="E102" s="92"/>
+      <c r="F102" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="G102" s="58"/>
-      <c r="H102" s="58"/>
-      <c r="I102" s="58"/>
-      <c r="J102" s="58"/>
-      <c r="K102" s="58"/>
-      <c r="L102" s="58"/>
-      <c r="M102" s="58"/>
-      <c r="N102" s="58"/>
-      <c r="O102" s="58"/>
+      <c r="G102" s="63"/>
+      <c r="H102" s="63"/>
+      <c r="I102" s="63"/>
+      <c r="J102" s="63"/>
+      <c r="K102" s="63"/>
+      <c r="L102" s="63"/>
+      <c r="M102" s="63"/>
+      <c r="N102" s="63"/>
+      <c r="O102" s="63"/>
       <c r="S102" s="30"/>
       <c r="T102" s="5"/>
     </row>
     <row r="103" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="100"/>
-      <c r="B103" s="68"/>
+      <c r="A103" s="71"/>
+      <c r="B103" s="59"/>
       <c r="C103" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D103" s="88">
+      <c r="D103" s="91">
         <f>T44-T82-T93</f>
         <v>0</v>
       </c>
-      <c r="E103" s="89"/>
-      <c r="F103" s="58" t="s">
+      <c r="E103" s="92"/>
+      <c r="F103" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="G103" s="58"/>
-      <c r="H103" s="58"/>
-      <c r="I103" s="58"/>
-      <c r="J103" s="58"/>
-      <c r="K103" s="58"/>
-      <c r="L103" s="58"/>
-      <c r="M103" s="58"/>
-      <c r="N103" s="58"/>
-      <c r="O103" s="58"/>
+      <c r="G103" s="63"/>
+      <c r="H103" s="63"/>
+      <c r="I103" s="63"/>
+      <c r="J103" s="63"/>
+      <c r="K103" s="63"/>
+      <c r="L103" s="63"/>
+      <c r="M103" s="63"/>
+      <c r="N103" s="63"/>
+      <c r="O103" s="63"/>
       <c r="S103" s="30"/>
       <c r="T103" s="5"/>
     </row>
@@ -13752,15 +13752,15 @@
       <c r="A104" s="49">
         <v>2</v>
       </c>
-      <c r="B104" s="94" t="s">
+      <c r="B104" s="97" t="s">
         <v>78</v>
       </c>
-      <c r="C104" s="94"/>
-      <c r="D104" s="84">
+      <c r="C104" s="97"/>
+      <c r="D104" s="87">
         <f>SUM(D101:E103)</f>
         <v>0</v>
       </c>
-      <c r="E104" s="85"/>
+      <c r="E104" s="88"/>
       <c r="I104" s="18"/>
       <c r="J104" s="18"/>
       <c r="K104" s="41"/>
@@ -13787,12 +13787,12 @@
       <c r="N105" s="30"/>
       <c r="O105" s="30"/>
       <c r="P105" s="30"/>
-      <c r="Q105" s="56" t="s">
+      <c r="Q105" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="R105" s="56"/>
-      <c r="S105" s="56"/>
-      <c r="T105" s="56"/>
+      <c r="R105" s="99"/>
+      <c r="S105" s="99"/>
+      <c r="T105" s="99"/>
     </row>
     <row r="106" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A106" s="28"/>
@@ -13811,12 +13811,12 @@
       <c r="N106" s="30"/>
       <c r="O106" s="30"/>
       <c r="P106" s="30"/>
-      <c r="Q106" s="56" t="s">
+      <c r="Q106" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="R106" s="56"/>
-      <c r="S106" s="56"/>
-      <c r="T106" s="56"/>
+      <c r="R106" s="99"/>
+      <c r="S106" s="99"/>
+      <c r="T106" s="99"/>
     </row>
     <row r="107" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A107" s="28"/>
@@ -13974,42 +13974,61 @@
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="R97:S97"/>
-    <mergeCell ref="S77:S78"/>
-    <mergeCell ref="N91:R93"/>
-    <mergeCell ref="F100:O100"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="F102:O102"/>
-    <mergeCell ref="F103:O103"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="G69:G71"/>
-    <mergeCell ref="G72:G74"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="E72:E74"/>
-    <mergeCell ref="F101:O101"/>
-    <mergeCell ref="N80:R82"/>
-    <mergeCell ref="N88:R90"/>
-    <mergeCell ref="N77:R79"/>
-    <mergeCell ref="R83:S83"/>
-    <mergeCell ref="R84:S84"/>
-    <mergeCell ref="R85:S85"/>
-    <mergeCell ref="R86:S86"/>
+    <mergeCell ref="U69:U71"/>
+    <mergeCell ref="U72:U74"/>
+    <mergeCell ref="U33:U35"/>
+    <mergeCell ref="U36:U38"/>
+    <mergeCell ref="U39:U41"/>
+    <mergeCell ref="U51:U53"/>
+    <mergeCell ref="U54:U56"/>
+    <mergeCell ref="U57:U59"/>
+    <mergeCell ref="U60:U62"/>
+    <mergeCell ref="U63:U65"/>
+    <mergeCell ref="U66:U68"/>
+    <mergeCell ref="Q105:T105"/>
+    <mergeCell ref="Q106:T106"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="T47:T49"/>
+    <mergeCell ref="Q47:S47"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="R94:S94"/>
+    <mergeCell ref="R95:S95"/>
+    <mergeCell ref="R96:S96"/>
+    <mergeCell ref="T77:T78"/>
+    <mergeCell ref="S88:S89"/>
+    <mergeCell ref="T88:T89"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="A3:T3"/>
+    <mergeCell ref="A4:T4"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D51:D74"/>
+    <mergeCell ref="C51:C74"/>
+    <mergeCell ref="B51:B74"/>
+    <mergeCell ref="A51:A74"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="T29:T31"/>
     <mergeCell ref="H30:J30"/>
     <mergeCell ref="A47:A50"/>
     <mergeCell ref="B47:B50"/>
@@ -14034,61 +14053,42 @@
     <mergeCell ref="C39:C41"/>
     <mergeCell ref="D39:D41"/>
     <mergeCell ref="E39:E41"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="A3:T3"/>
-    <mergeCell ref="A4:T4"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D51:D74"/>
-    <mergeCell ref="C51:C74"/>
-    <mergeCell ref="B51:B74"/>
-    <mergeCell ref="A51:A74"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="Q29:S29"/>
-    <mergeCell ref="T29:T31"/>
-    <mergeCell ref="Q105:T105"/>
-    <mergeCell ref="Q106:T106"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="T47:T49"/>
-    <mergeCell ref="Q47:S47"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="R94:S94"/>
-    <mergeCell ref="R95:S95"/>
-    <mergeCell ref="R96:S96"/>
-    <mergeCell ref="T77:T78"/>
-    <mergeCell ref="S88:S89"/>
-    <mergeCell ref="T88:T89"/>
-    <mergeCell ref="U69:U71"/>
-    <mergeCell ref="U72:U74"/>
-    <mergeCell ref="U33:U35"/>
-    <mergeCell ref="U36:U38"/>
-    <mergeCell ref="U39:U41"/>
-    <mergeCell ref="U51:U53"/>
-    <mergeCell ref="U54:U56"/>
-    <mergeCell ref="U57:U59"/>
-    <mergeCell ref="U60:U62"/>
-    <mergeCell ref="U63:U65"/>
-    <mergeCell ref="U66:U68"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="F102:O102"/>
+    <mergeCell ref="F103:O103"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="G69:G71"/>
+    <mergeCell ref="G72:G74"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="E72:E74"/>
+    <mergeCell ref="F101:O101"/>
+    <mergeCell ref="N80:R82"/>
+    <mergeCell ref="N88:R90"/>
+    <mergeCell ref="N77:R79"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="R84:S84"/>
+    <mergeCell ref="R85:S85"/>
+    <mergeCell ref="R86:S86"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="R97:S97"/>
+    <mergeCell ref="S77:S78"/>
+    <mergeCell ref="N91:R93"/>
+    <mergeCell ref="F100:O100"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="G54:G56"/>
   </mergeCells>
   <conditionalFormatting sqref="G51 G54 G57 G60 G63 G66 G69 G72">
     <cfRule type="cellIs" dxfId="1" priority="10" stopIfTrue="1" operator="equal">
@@ -14118,8 +14118,8 @@
   </sheetPr>
   <dimension ref="A1:AA113"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="U72" sqref="U51:U74"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A66" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="AE60" sqref="AE60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15254,52 +15254,52 @@
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:20" s="10" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="82"/>
-      <c r="T3" s="82"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="85"/>
     </row>
     <row r="4" spans="1:20" s="14" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="83"/>
-      <c r="T4" s="83"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="86"/>
     </row>
     <row r="5" spans="1:20" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
@@ -15789,30 +15789,30 @@
       <c r="F29" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="73" t="s">
+      <c r="G29" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="H29" s="70" t="s">
+      <c r="H29" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70" t="s">
+      <c r="I29" s="68"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="L29" s="70"/>
-      <c r="M29" s="70"/>
-      <c r="N29" s="70" t="s">
+      <c r="L29" s="68"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="O29" s="70"/>
-      <c r="P29" s="70"/>
-      <c r="Q29" s="70" t="s">
+      <c r="O29" s="68"/>
+      <c r="P29" s="68"/>
+      <c r="Q29" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="R29" s="70"/>
-      <c r="S29" s="70"/>
-      <c r="T29" s="69" t="s">
+      <c r="R29" s="68"/>
+      <c r="S29" s="68"/>
+      <c r="T29" s="98" t="s">
         <v>46</v>
       </c>
     </row>
@@ -15823,28 +15823,28 @@
       <c r="D30" s="77"/>
       <c r="E30" s="80"/>
       <c r="F30" s="77"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="95" t="s">
+      <c r="G30" s="62"/>
+      <c r="H30" s="73" t="s">
         <v>111</v>
       </c>
-      <c r="I30" s="96"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="95" t="s">
+      <c r="I30" s="74"/>
+      <c r="J30" s="75"/>
+      <c r="K30" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="L30" s="96"/>
-      <c r="M30" s="97"/>
-      <c r="N30" s="95" t="s">
+      <c r="L30" s="74"/>
+      <c r="M30" s="75"/>
+      <c r="N30" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="O30" s="96"/>
-      <c r="P30" s="97"/>
-      <c r="Q30" s="95" t="s">
+      <c r="O30" s="74"/>
+      <c r="P30" s="75"/>
+      <c r="Q30" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="R30" s="96"/>
-      <c r="S30" s="97"/>
-      <c r="T30" s="69"/>
+      <c r="R30" s="74"/>
+      <c r="S30" s="75"/>
+      <c r="T30" s="98"/>
     </row>
     <row r="31" spans="1:20" s="17" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="77"/>
@@ -15853,7 +15853,7 @@
       <c r="D31" s="77"/>
       <c r="E31" s="80"/>
       <c r="F31" s="77"/>
-      <c r="G31" s="73"/>
+      <c r="G31" s="62"/>
       <c r="H31" s="37" t="s">
         <v>37</v>
       </c>
@@ -15890,7 +15890,7 @@
       <c r="S31" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="T31" s="69"/>
+      <c r="T31" s="98"/>
     </row>
     <row r="32" spans="1:20" s="39" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="78"/>
@@ -15943,25 +15943,25 @@
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A33" s="93">
+      <c r="A33" s="96">
         <v>1</v>
       </c>
-      <c r="B33" s="58" t="s">
+      <c r="B33" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="57" t="s">
+      <c r="C33" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="58" t="s">
+      <c r="D33" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="E33" s="58" t="s">
+      <c r="E33" s="63" t="s">
         <v>16</v>
       </c>
       <c r="F33" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="59">
+      <c r="G33" s="67">
         <v>1000000</v>
       </c>
       <c r="H33" s="51"/>
@@ -15992,21 +15992,21 @@
         <f>$G$33*(J33+M33+P33+S33)</f>
         <v>0</v>
       </c>
-      <c r="U33" s="54">
+      <c r="U33" s="101">
         <f>SUM(T33:T35)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A34" s="93"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
+      <c r="A34" s="96"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
       <c r="F34" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="59"/>
+      <c r="G34" s="67"/>
       <c r="H34" s="51"/>
       <c r="I34" s="51"/>
       <c r="J34" s="51">
@@ -16035,18 +16035,18 @@
         <f t="shared" ref="T34:T35" si="4">$G$33*(J34+M34+P34+S34)</f>
         <v>0</v>
       </c>
-      <c r="U34" s="55"/>
+      <c r="U34" s="102"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A35" s="93"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
+      <c r="A35" s="96"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
       <c r="F35" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="G35" s="59"/>
+      <c r="G35" s="67"/>
       <c r="H35" s="51"/>
       <c r="I35" s="51"/>
       <c r="J35" s="51">
@@ -16075,28 +16075,28 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U35" s="55"/>
+      <c r="U35" s="102"/>
     </row>
     <row r="36" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="90">
+      <c r="A36" s="54">
         <v>2</v>
       </c>
-      <c r="B36" s="66" t="s">
+      <c r="B36" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="66" t="s">
+      <c r="C36" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="66" t="s">
+      <c r="D36" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="63" t="s">
+      <c r="E36" s="93" t="s">
         <v>17</v>
       </c>
       <c r="F36" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G36" s="60">
+      <c r="G36" s="82">
         <v>1000000</v>
       </c>
       <c r="H36" s="51"/>
@@ -16127,21 +16127,21 @@
         <f>$G$36*(J36+M36+P36+S36)</f>
         <v>0</v>
       </c>
-      <c r="U36" s="54">
+      <c r="U36" s="101">
         <f>SUM(T36:T38)-SUM(U51:U74)</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="91"/>
-      <c r="B37" s="67"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="64"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="94"/>
       <c r="F37" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="G37" s="61"/>
+      <c r="G37" s="83"/>
       <c r="H37" s="51"/>
       <c r="I37" s="51"/>
       <c r="J37" s="51">
@@ -16170,18 +16170,18 @@
         <f t="shared" ref="T37:T38" si="5">$G$36*(J37+M37+P37+S37)</f>
         <v>0</v>
       </c>
-      <c r="U37" s="55"/>
+      <c r="U37" s="102"/>
     </row>
     <row r="38" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="91"/>
-      <c r="B38" s="67"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="68"/>
-      <c r="E38" s="65"/>
+      <c r="A38" s="55"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="95"/>
       <c r="F38" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="G38" s="62"/>
+      <c r="G38" s="84"/>
       <c r="H38" s="51"/>
       <c r="I38" s="51"/>
       <c r="J38" s="51">
@@ -16210,24 +16210,24 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U38" s="55"/>
+      <c r="U38" s="102"/>
     </row>
     <row r="39" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="91"/>
-      <c r="B39" s="67"/>
-      <c r="C39" s="66" t="s">
+      <c r="A39" s="55"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="D39" s="98" t="s">
+      <c r="D39" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="E39" s="66" t="s">
+      <c r="E39" s="57" t="s">
         <v>115</v>
       </c>
       <c r="F39" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G39" s="60">
+      <c r="G39" s="82">
         <v>1000000</v>
       </c>
       <c r="H39" s="51"/>
@@ -16258,21 +16258,21 @@
         <f>$G$36*(J39+M39+P39+S39)</f>
         <v>0</v>
       </c>
-      <c r="U39" s="54">
+      <c r="U39" s="101">
         <f t="shared" ref="U39" si="6">SUM(T39:T41)</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="91"/>
-      <c r="B40" s="67"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="99"/>
-      <c r="E40" s="67"/>
+      <c r="A40" s="55"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="58"/>
       <c r="F40" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="61"/>
+      <c r="G40" s="83"/>
       <c r="H40" s="51"/>
       <c r="I40" s="51"/>
       <c r="J40" s="51">
@@ -16301,18 +16301,18 @@
         <f t="shared" ref="T40:T41" si="7">$G$36*(J40+M40+P40+S40)</f>
         <v>0</v>
       </c>
-      <c r="U40" s="55"/>
+      <c r="U40" s="102"/>
     </row>
     <row r="41" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="92"/>
-      <c r="B41" s="68"/>
-      <c r="C41" s="68"/>
-      <c r="D41" s="100"/>
-      <c r="E41" s="68"/>
+      <c r="A41" s="56"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="71"/>
+      <c r="E41" s="59"/>
       <c r="F41" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="62"/>
+      <c r="G41" s="84"/>
       <c r="H41" s="51"/>
       <c r="I41" s="51"/>
       <c r="J41" s="51">
@@ -16341,7 +16341,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U41" s="55"/>
+      <c r="U41" s="102"/>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="29"/>
@@ -16361,10 +16361,10 @@
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
-      <c r="R42" s="71" t="s">
+      <c r="R42" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="S42" s="72"/>
+      <c r="S42" s="61"/>
       <c r="T42" s="36">
         <f>T33+T36+T39</f>
         <v>0</v>
@@ -16395,10 +16395,10 @@
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
-      <c r="R43" s="71" t="s">
+      <c r="R43" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="S43" s="72"/>
+      <c r="S43" s="61"/>
       <c r="T43" s="36">
         <f>T34+T37+T40</f>
         <v>0</v>
@@ -16429,10 +16429,10 @@
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
-      <c r="R44" s="71" t="s">
+      <c r="R44" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="S44" s="72"/>
+      <c r="S44" s="61"/>
       <c r="T44" s="36">
         <f>T35+T38+T41</f>
         <v>0</v>
@@ -16463,10 +16463,10 @@
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
-      <c r="R45" s="71" t="s">
+      <c r="R45" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="S45" s="72"/>
+      <c r="S45" s="61"/>
       <c r="T45" s="36">
         <f>SUM(T42:T44)</f>
         <v>0</v>
@@ -16519,30 +16519,30 @@
       <c r="F47" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="G47" s="73" t="s">
+      <c r="G47" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="H47" s="70" t="s">
+      <c r="H47" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="I47" s="70"/>
-      <c r="J47" s="70"/>
-      <c r="K47" s="70" t="s">
+      <c r="I47" s="68"/>
+      <c r="J47" s="68"/>
+      <c r="K47" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="L47" s="70"/>
-      <c r="M47" s="70"/>
-      <c r="N47" s="70" t="s">
+      <c r="L47" s="68"/>
+      <c r="M47" s="68"/>
+      <c r="N47" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="O47" s="70"/>
-      <c r="P47" s="70"/>
-      <c r="Q47" s="70" t="s">
+      <c r="O47" s="68"/>
+      <c r="P47" s="68"/>
+      <c r="Q47" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="R47" s="70"/>
-      <c r="S47" s="70"/>
-      <c r="T47" s="69" t="s">
+      <c r="R47" s="68"/>
+      <c r="S47" s="68"/>
+      <c r="T47" s="98" t="s">
         <v>46</v>
       </c>
     </row>
@@ -16553,28 +16553,28 @@
       <c r="D48" s="77"/>
       <c r="E48" s="80"/>
       <c r="F48" s="77"/>
-      <c r="G48" s="73"/>
-      <c r="H48" s="95" t="s">
+      <c r="G48" s="62"/>
+      <c r="H48" s="73" t="s">
         <v>111</v>
       </c>
-      <c r="I48" s="96"/>
-      <c r="J48" s="97"/>
-      <c r="K48" s="95" t="s">
+      <c r="I48" s="74"/>
+      <c r="J48" s="75"/>
+      <c r="K48" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="L48" s="96"/>
-      <c r="M48" s="97"/>
-      <c r="N48" s="95" t="s">
+      <c r="L48" s="74"/>
+      <c r="M48" s="75"/>
+      <c r="N48" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="O48" s="96"/>
-      <c r="P48" s="97"/>
-      <c r="Q48" s="95" t="s">
+      <c r="O48" s="74"/>
+      <c r="P48" s="75"/>
+      <c r="Q48" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="R48" s="96"/>
-      <c r="S48" s="97"/>
-      <c r="T48" s="69"/>
+      <c r="R48" s="74"/>
+      <c r="S48" s="75"/>
+      <c r="T48" s="98"/>
     </row>
     <row r="49" spans="1:27" s="17" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="77"/>
@@ -16583,7 +16583,7 @@
       <c r="D49" s="77"/>
       <c r="E49" s="80"/>
       <c r="F49" s="77"/>
-      <c r="G49" s="73"/>
+      <c r="G49" s="62"/>
       <c r="H49" s="37" t="s">
         <v>37</v>
       </c>
@@ -16620,7 +16620,7 @@
       <c r="S49" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="T49" s="69"/>
+      <c r="T49" s="98"/>
     </row>
     <row r="50" spans="1:27" s="39" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A50" s="78"/>
@@ -16673,25 +16673,25 @@
       </c>
     </row>
     <row r="51" spans="1:27" s="35" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="90">
+      <c r="A51" s="54">
         <v>1</v>
       </c>
-      <c r="B51" s="63" t="s">
+      <c r="B51" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="63" t="s">
+      <c r="C51" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="63" t="s">
+      <c r="D51" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="E51" s="58" t="s">
+      <c r="E51" s="63" t="s">
         <v>25</v>
       </c>
       <c r="F51" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G51" s="59">
+      <c r="G51" s="67">
         <v>1000000</v>
       </c>
       <c r="H51" s="51"/>
@@ -16722,21 +16722,21 @@
         <f>$G$51*(J51+M51+P51+S51)</f>
         <v>0</v>
       </c>
-      <c r="U51" s="54">
+      <c r="U51" s="101">
         <f>SUM(T51:T53)</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:27" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="91"/>
-      <c r="B52" s="64"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="58"/>
+      <c r="A52" s="55"/>
+      <c r="B52" s="94"/>
+      <c r="C52" s="94"/>
+      <c r="D52" s="94"/>
+      <c r="E52" s="63"/>
       <c r="F52" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="G52" s="59"/>
+      <c r="G52" s="67"/>
       <c r="H52" s="51"/>
       <c r="I52" s="51"/>
       <c r="J52" s="51">
@@ -16765,18 +16765,18 @@
         <f t="shared" ref="T52:T53" si="12">$G$51*(J52+M52+P52+S52)</f>
         <v>0</v>
       </c>
-      <c r="U52" s="55"/>
+      <c r="U52" s="102"/>
     </row>
     <row r="53" spans="1:27" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="91"/>
-      <c r="B53" s="64"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="58"/>
+      <c r="A53" s="55"/>
+      <c r="B53" s="94"/>
+      <c r="C53" s="94"/>
+      <c r="D53" s="94"/>
+      <c r="E53" s="63"/>
       <c r="F53" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="G53" s="59"/>
+      <c r="G53" s="67"/>
       <c r="H53" s="51"/>
       <c r="I53" s="51"/>
       <c r="J53" s="51">
@@ -16805,20 +16805,20 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U53" s="55"/>
+      <c r="U53" s="102"/>
     </row>
     <row r="54" spans="1:27" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="91"/>
-      <c r="B54" s="64"/>
-      <c r="C54" s="64"/>
-      <c r="D54" s="64"/>
-      <c r="E54" s="57" t="s">
+      <c r="A54" s="55"/>
+      <c r="B54" s="94"/>
+      <c r="C54" s="94"/>
+      <c r="D54" s="94"/>
+      <c r="E54" s="66" t="s">
         <v>26</v>
       </c>
       <c r="F54" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G54" s="59">
+      <c r="G54" s="67">
         <v>1000000</v>
       </c>
       <c r="H54" s="51"/>
@@ -16849,21 +16849,21 @@
         <f>$G$54*(J54+M54+P54+S54)</f>
         <v>0</v>
       </c>
-      <c r="U54" s="54">
+      <c r="U54" s="101">
         <f>SUM(T54:T56)</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:27" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="91"/>
-      <c r="B55" s="64"/>
-      <c r="C55" s="64"/>
-      <c r="D55" s="64"/>
-      <c r="E55" s="57"/>
+      <c r="A55" s="55"/>
+      <c r="B55" s="94"/>
+      <c r="C55" s="94"/>
+      <c r="D55" s="94"/>
+      <c r="E55" s="66"/>
       <c r="F55" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="G55" s="59"/>
+      <c r="G55" s="67"/>
       <c r="H55" s="51"/>
       <c r="I55" s="51"/>
       <c r="J55" s="51">
@@ -16892,18 +16892,18 @@
         <f>$G$54*(J55+M55+P55+S55)</f>
         <v>0</v>
       </c>
-      <c r="U55" s="55"/>
+      <c r="U55" s="102"/>
     </row>
     <row r="56" spans="1:27" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="91"/>
-      <c r="B56" s="64"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="64"/>
-      <c r="E56" s="57"/>
+      <c r="A56" s="55"/>
+      <c r="B56" s="94"/>
+      <c r="C56" s="94"/>
+      <c r="D56" s="94"/>
+      <c r="E56" s="66"/>
       <c r="F56" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="G56" s="59"/>
+      <c r="G56" s="67"/>
       <c r="H56" s="51"/>
       <c r="I56" s="51"/>
       <c r="J56" s="51">
@@ -16932,20 +16932,20 @@
         <f>$G$54*(J56+M56+P56+S56)</f>
         <v>0</v>
       </c>
-      <c r="U56" s="55"/>
+      <c r="U56" s="102"/>
     </row>
     <row r="57" spans="1:27" s="35" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="91"/>
-      <c r="B57" s="64"/>
-      <c r="C57" s="64"/>
-      <c r="D57" s="64"/>
-      <c r="E57" s="57" t="s">
+      <c r="A57" s="55"/>
+      <c r="B57" s="94"/>
+      <c r="C57" s="94"/>
+      <c r="D57" s="94"/>
+      <c r="E57" s="66" t="s">
         <v>99</v>
       </c>
       <c r="F57" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G57" s="59">
+      <c r="G57" s="67">
         <v>1000000</v>
       </c>
       <c r="H57" s="51"/>
@@ -16976,21 +16976,21 @@
         <f>$G$57*(J57+M57+P57+S57)</f>
         <v>0</v>
       </c>
-      <c r="U57" s="54">
+      <c r="U57" s="101">
         <f>SUM(T57:T59)</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:27" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="91"/>
-      <c r="B58" s="64"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="64"/>
-      <c r="E58" s="57"/>
+      <c r="A58" s="55"/>
+      <c r="B58" s="94"/>
+      <c r="C58" s="94"/>
+      <c r="D58" s="94"/>
+      <c r="E58" s="66"/>
       <c r="F58" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="59"/>
+      <c r="G58" s="67"/>
       <c r="H58" s="51"/>
       <c r="I58" s="51"/>
       <c r="J58" s="51">
@@ -17019,18 +17019,18 @@
         <f t="shared" ref="T58:T59" si="13">$G$57*(J58+M58+P58+S58)</f>
         <v>0</v>
       </c>
-      <c r="U58" s="55"/>
+      <c r="U58" s="102"/>
     </row>
     <row r="59" spans="1:27" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="91"/>
-      <c r="B59" s="64"/>
-      <c r="C59" s="64"/>
-      <c r="D59" s="64"/>
-      <c r="E59" s="57"/>
+      <c r="A59" s="55"/>
+      <c r="B59" s="94"/>
+      <c r="C59" s="94"/>
+      <c r="D59" s="94"/>
+      <c r="E59" s="66"/>
       <c r="F59" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="G59" s="59"/>
+      <c r="G59" s="67"/>
       <c r="H59" s="51"/>
       <c r="I59" s="51"/>
       <c r="J59" s="51">
@@ -17059,20 +17059,20 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="U59" s="55"/>
+      <c r="U59" s="102"/>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A60" s="91"/>
-      <c r="B60" s="64"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="64"/>
-      <c r="E60" s="57" t="s">
+      <c r="A60" s="55"/>
+      <c r="B60" s="94"/>
+      <c r="C60" s="94"/>
+      <c r="D60" s="94"/>
+      <c r="E60" s="66" t="s">
         <v>27</v>
       </c>
       <c r="F60" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G60" s="59">
+      <c r="G60" s="67">
         <v>1000000</v>
       </c>
       <c r="H60" s="51"/>
@@ -17103,7 +17103,7 @@
         <f>$G$60*(J60+M60+P60+S60)</f>
         <v>0</v>
       </c>
-      <c r="U60" s="54">
+      <c r="U60" s="101">
         <f>SUM(T60:T62)</f>
         <v>0</v>
       </c>
@@ -17115,15 +17115,15 @@
       <c r="AA60" s="3"/>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A61" s="91"/>
-      <c r="B61" s="64"/>
-      <c r="C61" s="64"/>
-      <c r="D61" s="64"/>
-      <c r="E61" s="57"/>
+      <c r="A61" s="55"/>
+      <c r="B61" s="94"/>
+      <c r="C61" s="94"/>
+      <c r="D61" s="94"/>
+      <c r="E61" s="66"/>
       <c r="F61" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="G61" s="59"/>
+      <c r="G61" s="67"/>
       <c r="H61" s="51"/>
       <c r="I61" s="51"/>
       <c r="J61" s="51">
@@ -17152,7 +17152,7 @@
         <f>$G$60*(J61+M61+P61+S61)</f>
         <v>0</v>
       </c>
-      <c r="U61" s="55"/>
+      <c r="U61" s="102"/>
       <c r="V61" s="3"/>
       <c r="W61" s="3"/>
       <c r="X61" s="3"/>
@@ -17161,15 +17161,15 @@
       <c r="AA61" s="3"/>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A62" s="91"/>
-      <c r="B62" s="64"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="57"/>
+      <c r="A62" s="55"/>
+      <c r="B62" s="94"/>
+      <c r="C62" s="94"/>
+      <c r="D62" s="94"/>
+      <c r="E62" s="66"/>
       <c r="F62" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="G62" s="59"/>
+      <c r="G62" s="67"/>
       <c r="H62" s="51"/>
       <c r="I62" s="51"/>
       <c r="J62" s="51">
@@ -17198,7 +17198,7 @@
         <f>$G$60*(J62+M62+P62+S62)</f>
         <v>0</v>
       </c>
-      <c r="U62" s="55"/>
+      <c r="U62" s="102"/>
       <c r="V62" s="3"/>
       <c r="W62" s="3"/>
       <c r="X62" s="3"/>
@@ -17207,17 +17207,17 @@
       <c r="AA62" s="3"/>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A63" s="91"/>
-      <c r="B63" s="64"/>
-      <c r="C63" s="64"/>
-      <c r="D63" s="64"/>
-      <c r="E63" s="57" t="s">
+      <c r="A63" s="55"/>
+      <c r="B63" s="94"/>
+      <c r="C63" s="94"/>
+      <c r="D63" s="94"/>
+      <c r="E63" s="66" t="s">
         <v>28</v>
       </c>
       <c r="F63" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G63" s="59">
+      <c r="G63" s="67">
         <v>1000000</v>
       </c>
       <c r="H63" s="51"/>
@@ -17248,7 +17248,7 @@
         <f>$G$63*(J63+M63+P63+S63)</f>
         <v>0</v>
       </c>
-      <c r="U63" s="54">
+      <c r="U63" s="101">
         <f>SUM(T63:T65)</f>
         <v>0</v>
       </c>
@@ -17260,15 +17260,15 @@
       <c r="AA63" s="3"/>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A64" s="91"/>
-      <c r="B64" s="64"/>
-      <c r="C64" s="64"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="57"/>
+      <c r="A64" s="55"/>
+      <c r="B64" s="94"/>
+      <c r="C64" s="94"/>
+      <c r="D64" s="94"/>
+      <c r="E64" s="66"/>
       <c r="F64" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="G64" s="59"/>
+      <c r="G64" s="67"/>
       <c r="H64" s="51"/>
       <c r="I64" s="51"/>
       <c r="J64" s="51">
@@ -17297,7 +17297,7 @@
         <f>$G$63*(J64+M64+P64+S64)</f>
         <v>0</v>
       </c>
-      <c r="U64" s="55"/>
+      <c r="U64" s="102"/>
       <c r="V64" s="3"/>
       <c r="W64" s="3"/>
       <c r="X64" s="3"/>
@@ -17306,15 +17306,15 @@
       <c r="AA64" s="3"/>
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A65" s="91"/>
-      <c r="B65" s="64"/>
-      <c r="C65" s="64"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="57"/>
+      <c r="A65" s="55"/>
+      <c r="B65" s="94"/>
+      <c r="C65" s="94"/>
+      <c r="D65" s="94"/>
+      <c r="E65" s="66"/>
       <c r="F65" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="G65" s="59"/>
+      <c r="G65" s="67"/>
       <c r="H65" s="51"/>
       <c r="I65" s="51"/>
       <c r="J65" s="51">
@@ -17343,7 +17343,7 @@
         <f>$G$63*(J65+M65+P65+S65)</f>
         <v>0</v>
       </c>
-      <c r="U65" s="55"/>
+      <c r="U65" s="102"/>
       <c r="V65" s="3"/>
       <c r="W65" s="3"/>
       <c r="X65" s="3"/>
@@ -17352,17 +17352,17 @@
       <c r="AA65" s="3"/>
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A66" s="91"/>
-      <c r="B66" s="64"/>
-      <c r="C66" s="64"/>
-      <c r="D66" s="64"/>
-      <c r="E66" s="57" t="s">
+      <c r="A66" s="55"/>
+      <c r="B66" s="94"/>
+      <c r="C66" s="94"/>
+      <c r="D66" s="94"/>
+      <c r="E66" s="66" t="s">
         <v>29</v>
       </c>
       <c r="F66" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G66" s="59">
+      <c r="G66" s="67">
         <v>1000000</v>
       </c>
       <c r="H66" s="51"/>
@@ -17393,7 +17393,7 @@
         <f>$G$66*(J66+M66+P66+S66)</f>
         <v>0</v>
       </c>
-      <c r="U66" s="54">
+      <c r="U66" s="101">
         <f>SUM(T66:T68)</f>
         <v>0</v>
       </c>
@@ -17405,15 +17405,15 @@
       <c r="AA66" s="3"/>
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A67" s="91"/>
-      <c r="B67" s="64"/>
-      <c r="C67" s="64"/>
-      <c r="D67" s="64"/>
-      <c r="E67" s="57"/>
+      <c r="A67" s="55"/>
+      <c r="B67" s="94"/>
+      <c r="C67" s="94"/>
+      <c r="D67" s="94"/>
+      <c r="E67" s="66"/>
       <c r="F67" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="G67" s="59"/>
+      <c r="G67" s="67"/>
       <c r="H67" s="51"/>
       <c r="I67" s="51"/>
       <c r="J67" s="51">
@@ -17442,7 +17442,7 @@
         <f>$G$66*(J67+M67+P67+S67)</f>
         <v>0</v>
       </c>
-      <c r="U67" s="55"/>
+      <c r="U67" s="102"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
@@ -17451,15 +17451,15 @@
       <c r="AA67" s="3"/>
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A68" s="91"/>
-      <c r="B68" s="64"/>
-      <c r="C68" s="64"/>
-      <c r="D68" s="64"/>
-      <c r="E68" s="57"/>
+      <c r="A68" s="55"/>
+      <c r="B68" s="94"/>
+      <c r="C68" s="94"/>
+      <c r="D68" s="94"/>
+      <c r="E68" s="66"/>
       <c r="F68" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="G68" s="59"/>
+      <c r="G68" s="67"/>
       <c r="H68" s="51"/>
       <c r="I68" s="51"/>
       <c r="J68" s="51">
@@ -17488,7 +17488,7 @@
         <f>$G$66*(J68+M68+P68+S68)</f>
         <v>0</v>
       </c>
-      <c r="U68" s="55"/>
+      <c r="U68" s="102"/>
       <c r="V68" s="3"/>
       <c r="W68" s="3"/>
       <c r="X68" s="3"/>
@@ -17497,17 +17497,17 @@
       <c r="AA68" s="3"/>
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A69" s="91"/>
-      <c r="B69" s="64"/>
-      <c r="C69" s="64"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="57" t="s">
+      <c r="A69" s="55"/>
+      <c r="B69" s="94"/>
+      <c r="C69" s="94"/>
+      <c r="D69" s="94"/>
+      <c r="E69" s="66" t="s">
         <v>30</v>
       </c>
       <c r="F69" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G69" s="59">
+      <c r="G69" s="67">
         <v>1000000</v>
       </c>
       <c r="H69" s="51"/>
@@ -17538,7 +17538,7 @@
         <f>$G$69*(J69+M69+P69+S69)</f>
         <v>0</v>
       </c>
-      <c r="U69" s="54">
+      <c r="U69" s="101">
         <f>SUM(T69:T71)</f>
         <v>0</v>
       </c>
@@ -17550,15 +17550,15 @@
       <c r="AA69" s="3"/>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A70" s="91"/>
-      <c r="B70" s="64"/>
-      <c r="C70" s="64"/>
-      <c r="D70" s="64"/>
-      <c r="E70" s="57"/>
+      <c r="A70" s="55"/>
+      <c r="B70" s="94"/>
+      <c r="C70" s="94"/>
+      <c r="D70" s="94"/>
+      <c r="E70" s="66"/>
       <c r="F70" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="G70" s="59"/>
+      <c r="G70" s="67"/>
       <c r="H70" s="51"/>
       <c r="I70" s="51"/>
       <c r="J70" s="51">
@@ -17587,7 +17587,7 @@
         <f>$G$69*(J70+M70+P70+S70)</f>
         <v>0</v>
       </c>
-      <c r="U70" s="55"/>
+      <c r="U70" s="102"/>
       <c r="V70" s="3"/>
       <c r="W70" s="3"/>
       <c r="X70" s="3"/>
@@ -17596,15 +17596,15 @@
       <c r="AA70" s="3"/>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A71" s="91"/>
-      <c r="B71" s="64"/>
-      <c r="C71" s="64"/>
-      <c r="D71" s="64"/>
-      <c r="E71" s="57"/>
+      <c r="A71" s="55"/>
+      <c r="B71" s="94"/>
+      <c r="C71" s="94"/>
+      <c r="D71" s="94"/>
+      <c r="E71" s="66"/>
       <c r="F71" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="G71" s="59"/>
+      <c r="G71" s="67"/>
       <c r="H71" s="51"/>
       <c r="I71" s="51"/>
       <c r="J71" s="51">
@@ -17633,7 +17633,7 @@
         <f>$G$69*(J71+M71+P71+S71)</f>
         <v>0</v>
       </c>
-      <c r="U71" s="55"/>
+      <c r="U71" s="102"/>
       <c r="V71" s="3"/>
       <c r="W71" s="3"/>
       <c r="X71" s="3"/>
@@ -17642,17 +17642,17 @@
       <c r="AA71" s="3"/>
     </row>
     <row r="72" spans="1:27" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="91"/>
-      <c r="B72" s="64"/>
-      <c r="C72" s="64"/>
-      <c r="D72" s="64"/>
-      <c r="E72" s="57" t="s">
+      <c r="A72" s="55"/>
+      <c r="B72" s="94"/>
+      <c r="C72" s="94"/>
+      <c r="D72" s="94"/>
+      <c r="E72" s="66" t="s">
         <v>31</v>
       </c>
       <c r="F72" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G72" s="59">
+      <c r="G72" s="67">
         <v>1000000</v>
       </c>
       <c r="H72" s="51"/>
@@ -17683,7 +17683,7 @@
         <f>$G$72*(J72+M72+P72+S72)</f>
         <v>0</v>
       </c>
-      <c r="U72" s="54">
+      <c r="U72" s="101">
         <f>SUM(T72:T74)</f>
         <v>0</v>
       </c>
@@ -17695,15 +17695,15 @@
       <c r="AA72" s="3"/>
     </row>
     <row r="73" spans="1:27" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="91"/>
-      <c r="B73" s="64"/>
-      <c r="C73" s="64"/>
-      <c r="D73" s="64"/>
-      <c r="E73" s="57"/>
+      <c r="A73" s="55"/>
+      <c r="B73" s="94"/>
+      <c r="C73" s="94"/>
+      <c r="D73" s="94"/>
+      <c r="E73" s="66"/>
       <c r="F73" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="G73" s="59"/>
+      <c r="G73" s="67"/>
       <c r="H73" s="51"/>
       <c r="I73" s="51"/>
       <c r="J73" s="51">
@@ -17732,7 +17732,7 @@
         <f t="shared" ref="T73:T74" si="14">$G$72*(J73+M73+P73+S73)</f>
         <v>0</v>
       </c>
-      <c r="U73" s="55"/>
+      <c r="U73" s="102"/>
       <c r="V73" s="3"/>
       <c r="W73" s="3"/>
       <c r="X73" s="3"/>
@@ -17741,15 +17741,15 @@
       <c r="AA73" s="3"/>
     </row>
     <row r="74" spans="1:27" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="92"/>
-      <c r="B74" s="65"/>
-      <c r="C74" s="65"/>
-      <c r="D74" s="65"/>
-      <c r="E74" s="57"/>
+      <c r="A74" s="56"/>
+      <c r="B74" s="95"/>
+      <c r="C74" s="95"/>
+      <c r="D74" s="95"/>
+      <c r="E74" s="66"/>
       <c r="F74" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="G74" s="59"/>
+      <c r="G74" s="67"/>
       <c r="H74" s="51"/>
       <c r="I74" s="51"/>
       <c r="J74" s="51">
@@ -17778,7 +17778,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U74" s="55"/>
+      <c r="U74" s="102"/>
       <c r="V74" s="3"/>
       <c r="W74" s="3"/>
       <c r="X74" s="3"/>
@@ -17850,17 +17850,17 @@
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
-      <c r="N77" s="101" t="s">
+      <c r="N77" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="O77" s="101"/>
-      <c r="P77" s="101"/>
-      <c r="Q77" s="101"/>
-      <c r="R77" s="101"/>
-      <c r="S77" s="73" t="s">
+      <c r="O77" s="72"/>
+      <c r="P77" s="72"/>
+      <c r="Q77" s="72"/>
+      <c r="R77" s="72"/>
+      <c r="S77" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="T77" s="73" t="s">
+      <c r="T77" s="62" t="s">
         <v>46</v>
       </c>
       <c r="U77" s="3"/>
@@ -17885,13 +17885,13 @@
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
       <c r="M78" s="5"/>
-      <c r="N78" s="101"/>
-      <c r="O78" s="101"/>
-      <c r="P78" s="101"/>
-      <c r="Q78" s="101"/>
-      <c r="R78" s="101"/>
-      <c r="S78" s="73"/>
-      <c r="T78" s="73"/>
+      <c r="N78" s="72"/>
+      <c r="O78" s="72"/>
+      <c r="P78" s="72"/>
+      <c r="Q78" s="72"/>
+      <c r="R78" s="72"/>
+      <c r="S78" s="62"/>
+      <c r="T78" s="62"/>
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
       <c r="W78" s="3"/>
@@ -17914,11 +17914,11 @@
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
       <c r="M79" s="5"/>
-      <c r="N79" s="101"/>
-      <c r="O79" s="101"/>
-      <c r="P79" s="101"/>
-      <c r="Q79" s="101"/>
-      <c r="R79" s="101"/>
+      <c r="N79" s="72"/>
+      <c r="O79" s="72"/>
+      <c r="P79" s="72"/>
+      <c r="Q79" s="72"/>
+      <c r="R79" s="72"/>
       <c r="S79" s="52"/>
       <c r="T79" s="45" t="s">
         <v>53</v>
@@ -17945,13 +17945,13 @@
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
       <c r="M80" s="5"/>
-      <c r="N80" s="58" t="s">
+      <c r="N80" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="O80" s="58"/>
-      <c r="P80" s="58"/>
-      <c r="Q80" s="58"/>
-      <c r="R80" s="58"/>
+      <c r="O80" s="63"/>
+      <c r="P80" s="63"/>
+      <c r="Q80" s="63"/>
+      <c r="R80" s="63"/>
       <c r="S80" s="53" t="s">
         <v>7</v>
       </c>
@@ -17974,11 +17974,11 @@
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
       <c r="M81" s="5"/>
-      <c r="N81" s="58"/>
-      <c r="O81" s="58"/>
-      <c r="P81" s="58"/>
-      <c r="Q81" s="58"/>
-      <c r="R81" s="58"/>
+      <c r="N81" s="63"/>
+      <c r="O81" s="63"/>
+      <c r="P81" s="63"/>
+      <c r="Q81" s="63"/>
+      <c r="R81" s="63"/>
       <c r="S81" s="53" t="s">
         <v>8</v>
       </c>
@@ -18001,11 +18001,11 @@
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
-      <c r="N82" s="58"/>
-      <c r="O82" s="58"/>
-      <c r="P82" s="58"/>
-      <c r="Q82" s="58"/>
-      <c r="R82" s="58"/>
+      <c r="N82" s="63"/>
+      <c r="O82" s="63"/>
+      <c r="P82" s="63"/>
+      <c r="Q82" s="63"/>
+      <c r="R82" s="63"/>
       <c r="S82" s="53" t="s">
         <v>9</v>
       </c>
@@ -18032,10 +18032,10 @@
       <c r="O83" s="5"/>
       <c r="P83" s="5"/>
       <c r="Q83" s="5"/>
-      <c r="R83" s="71" t="s">
+      <c r="R83" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="S83" s="72"/>
+      <c r="S83" s="61"/>
       <c r="T83" s="36">
         <f>T80</f>
         <v>0</v>
@@ -18066,10 +18066,10 @@
       <c r="O84" s="5"/>
       <c r="P84" s="5"/>
       <c r="Q84" s="5"/>
-      <c r="R84" s="71" t="s">
+      <c r="R84" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="S84" s="72"/>
+      <c r="S84" s="61"/>
       <c r="T84" s="36">
         <f t="shared" ref="T84:T85" si="16">T81</f>
         <v>0</v>
@@ -18100,10 +18100,10 @@
       <c r="O85" s="5"/>
       <c r="P85" s="5"/>
       <c r="Q85" s="5"/>
-      <c r="R85" s="71" t="s">
+      <c r="R85" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="S85" s="72"/>
+      <c r="S85" s="61"/>
       <c r="T85" s="36">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -18134,10 +18134,10 @@
       <c r="O86" s="5"/>
       <c r="P86" s="5"/>
       <c r="Q86" s="5"/>
-      <c r="R86" s="71" t="s">
+      <c r="R86" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="S86" s="72"/>
+      <c r="S86" s="61"/>
       <c r="T86" s="36">
         <f>SUM(T83:T85)</f>
         <v>0</v>
@@ -18186,17 +18186,17 @@
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
       <c r="M88" s="5"/>
-      <c r="N88" s="101" t="s">
+      <c r="N88" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="O88" s="101"/>
-      <c r="P88" s="101"/>
-      <c r="Q88" s="101"/>
-      <c r="R88" s="101"/>
-      <c r="S88" s="73" t="s">
+      <c r="O88" s="72"/>
+      <c r="P88" s="72"/>
+      <c r="Q88" s="72"/>
+      <c r="R88" s="72"/>
+      <c r="S88" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="T88" s="74" t="s">
+      <c r="T88" s="65" t="s">
         <v>46</v>
       </c>
       <c r="U88" s="3"/>
@@ -18221,13 +18221,13 @@
       <c r="K89" s="5"/>
       <c r="L89" s="5"/>
       <c r="M89" s="5"/>
-      <c r="N89" s="101"/>
-      <c r="O89" s="101"/>
-      <c r="P89" s="101"/>
-      <c r="Q89" s="101"/>
-      <c r="R89" s="101"/>
-      <c r="S89" s="73"/>
-      <c r="T89" s="75"/>
+      <c r="N89" s="72"/>
+      <c r="O89" s="72"/>
+      <c r="P89" s="72"/>
+      <c r="Q89" s="72"/>
+      <c r="R89" s="72"/>
+      <c r="S89" s="62"/>
+      <c r="T89" s="100"/>
       <c r="U89" s="3"/>
       <c r="V89" s="3"/>
       <c r="W89" s="3"/>
@@ -18250,11 +18250,11 @@
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
       <c r="M90" s="5"/>
-      <c r="N90" s="101"/>
-      <c r="O90" s="101"/>
-      <c r="P90" s="101"/>
-      <c r="Q90" s="101"/>
-      <c r="R90" s="101"/>
+      <c r="N90" s="72"/>
+      <c r="O90" s="72"/>
+      <c r="P90" s="72"/>
+      <c r="Q90" s="72"/>
+      <c r="R90" s="72"/>
       <c r="S90" s="52"/>
       <c r="T90" s="45" t="s">
         <v>54</v>
@@ -18281,13 +18281,13 @@
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
       <c r="M91" s="5"/>
-      <c r="N91" s="58" t="s">
+      <c r="N91" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="O91" s="58"/>
-      <c r="P91" s="58"/>
-      <c r="Q91" s="58"/>
-      <c r="R91" s="58"/>
+      <c r="O91" s="63"/>
+      <c r="P91" s="63"/>
+      <c r="Q91" s="63"/>
+      <c r="R91" s="63"/>
       <c r="S91" s="53" t="s">
         <v>7</v>
       </c>
@@ -18310,11 +18310,11 @@
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
       <c r="M92" s="5"/>
-      <c r="N92" s="58"/>
-      <c r="O92" s="58"/>
-      <c r="P92" s="58"/>
-      <c r="Q92" s="58"/>
-      <c r="R92" s="58"/>
+      <c r="N92" s="63"/>
+      <c r="O92" s="63"/>
+      <c r="P92" s="63"/>
+      <c r="Q92" s="63"/>
+      <c r="R92" s="63"/>
       <c r="S92" s="53" t="s">
         <v>8</v>
       </c>
@@ -18337,11 +18337,11 @@
       <c r="K93" s="5"/>
       <c r="L93" s="5"/>
       <c r="M93" s="5"/>
-      <c r="N93" s="58"/>
-      <c r="O93" s="58"/>
-      <c r="P93" s="58"/>
-      <c r="Q93" s="58"/>
-      <c r="R93" s="58"/>
+      <c r="N93" s="63"/>
+      <c r="O93" s="63"/>
+      <c r="P93" s="63"/>
+      <c r="Q93" s="63"/>
+      <c r="R93" s="63"/>
       <c r="S93" s="53" t="s">
         <v>9</v>
       </c>
@@ -18368,10 +18368,10 @@
       <c r="O94" s="5"/>
       <c r="P94" s="5"/>
       <c r="Q94" s="5"/>
-      <c r="R94" s="71" t="s">
+      <c r="R94" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="S94" s="72"/>
+      <c r="S94" s="61"/>
       <c r="T94" s="36">
         <f>T91</f>
         <v>0</v>
@@ -18402,10 +18402,10 @@
       <c r="O95" s="5"/>
       <c r="P95" s="5"/>
       <c r="Q95" s="5"/>
-      <c r="R95" s="71" t="s">
+      <c r="R95" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="S95" s="72"/>
+      <c r="S95" s="61"/>
       <c r="T95" s="36">
         <f t="shared" ref="T95:T96" si="17">T92</f>
         <v>0</v>
@@ -18436,10 +18436,10 @@
       <c r="O96" s="5"/>
       <c r="P96" s="5"/>
       <c r="Q96" s="5"/>
-      <c r="R96" s="71" t="s">
+      <c r="R96" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="S96" s="72"/>
+      <c r="S96" s="61"/>
       <c r="T96" s="36">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18470,10 +18470,10 @@
       <c r="O97" s="5"/>
       <c r="P97" s="5"/>
       <c r="Q97" s="5"/>
-      <c r="R97" s="71" t="s">
+      <c r="R97" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="S97" s="72"/>
+      <c r="S97" s="61"/>
       <c r="T97" s="36">
         <f>SUM(T94:T96)</f>
         <v>0</v>
@@ -18538,22 +18538,22 @@
       <c r="C100" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="D100" s="86" t="s">
+      <c r="D100" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="E100" s="87"/>
-      <c r="F100" s="102" t="s">
+      <c r="E100" s="90"/>
+      <c r="F100" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="74"/>
-      <c r="H100" s="74"/>
-      <c r="I100" s="74"/>
-      <c r="J100" s="74"/>
-      <c r="K100" s="74"/>
-      <c r="L100" s="74"/>
-      <c r="M100" s="74"/>
-      <c r="N100" s="74"/>
-      <c r="O100" s="74"/>
+      <c r="G100" s="65"/>
+      <c r="H100" s="65"/>
+      <c r="I100" s="65"/>
+      <c r="J100" s="65"/>
+      <c r="K100" s="65"/>
+      <c r="L100" s="65"/>
+      <c r="M100" s="65"/>
+      <c r="N100" s="65"/>
+      <c r="O100" s="65"/>
       <c r="P100" s="18"/>
       <c r="Q100" s="18"/>
       <c r="R100" s="18"/>
@@ -18561,32 +18561,32 @@
       <c r="T100" s="5"/>
     </row>
     <row r="101" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="98">
+      <c r="A101" s="69">
         <v>1</v>
       </c>
-      <c r="B101" s="66" t="s">
+      <c r="B101" s="57" t="s">
         <v>112</v>
       </c>
       <c r="C101" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D101" s="88">
+      <c r="D101" s="91">
         <f>T42-T80-T91</f>
         <v>0</v>
       </c>
-      <c r="E101" s="89"/>
-      <c r="F101" s="58" t="s">
+      <c r="E101" s="92"/>
+      <c r="F101" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="G101" s="58"/>
-      <c r="H101" s="58"/>
-      <c r="I101" s="58"/>
-      <c r="J101" s="58"/>
-      <c r="K101" s="58"/>
-      <c r="L101" s="58"/>
-      <c r="M101" s="58"/>
-      <c r="N101" s="58"/>
-      <c r="O101" s="58"/>
+      <c r="G101" s="63"/>
+      <c r="H101" s="63"/>
+      <c r="I101" s="63"/>
+      <c r="J101" s="63"/>
+      <c r="K101" s="63"/>
+      <c r="L101" s="63"/>
+      <c r="M101" s="63"/>
+      <c r="N101" s="63"/>
+      <c r="O101" s="63"/>
       <c r="P101" s="18"/>
       <c r="Q101" s="18"/>
       <c r="R101" s="18"/>
@@ -18594,54 +18594,54 @@
       <c r="T101" s="5"/>
     </row>
     <row r="102" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="99"/>
-      <c r="B102" s="67"/>
+      <c r="A102" s="70"/>
+      <c r="B102" s="58"/>
       <c r="C102" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D102" s="88">
+      <c r="D102" s="91">
         <f>T43-T81-T92</f>
         <v>0</v>
       </c>
-      <c r="E102" s="89"/>
-      <c r="F102" s="58" t="s">
+      <c r="E102" s="92"/>
+      <c r="F102" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="G102" s="58"/>
-      <c r="H102" s="58"/>
-      <c r="I102" s="58"/>
-      <c r="J102" s="58"/>
-      <c r="K102" s="58"/>
-      <c r="L102" s="58"/>
-      <c r="M102" s="58"/>
-      <c r="N102" s="58"/>
-      <c r="O102" s="58"/>
+      <c r="G102" s="63"/>
+      <c r="H102" s="63"/>
+      <c r="I102" s="63"/>
+      <c r="J102" s="63"/>
+      <c r="K102" s="63"/>
+      <c r="L102" s="63"/>
+      <c r="M102" s="63"/>
+      <c r="N102" s="63"/>
+      <c r="O102" s="63"/>
       <c r="S102" s="30"/>
       <c r="T102" s="5"/>
     </row>
     <row r="103" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="100"/>
-      <c r="B103" s="68"/>
+      <c r="A103" s="71"/>
+      <c r="B103" s="59"/>
       <c r="C103" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D103" s="88">
+      <c r="D103" s="91">
         <f>T44-T82-T93</f>
         <v>0</v>
       </c>
-      <c r="E103" s="89"/>
-      <c r="F103" s="58" t="s">
+      <c r="E103" s="92"/>
+      <c r="F103" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="G103" s="58"/>
-      <c r="H103" s="58"/>
-      <c r="I103" s="58"/>
-      <c r="J103" s="58"/>
-      <c r="K103" s="58"/>
-      <c r="L103" s="58"/>
-      <c r="M103" s="58"/>
-      <c r="N103" s="58"/>
-      <c r="O103" s="58"/>
+      <c r="G103" s="63"/>
+      <c r="H103" s="63"/>
+      <c r="I103" s="63"/>
+      <c r="J103" s="63"/>
+      <c r="K103" s="63"/>
+      <c r="L103" s="63"/>
+      <c r="M103" s="63"/>
+      <c r="N103" s="63"/>
+      <c r="O103" s="63"/>
       <c r="S103" s="30"/>
       <c r="T103" s="5"/>
     </row>
@@ -18649,15 +18649,15 @@
       <c r="A104" s="49">
         <v>2</v>
       </c>
-      <c r="B104" s="94" t="s">
+      <c r="B104" s="97" t="s">
         <v>78</v>
       </c>
-      <c r="C104" s="94"/>
-      <c r="D104" s="84">
+      <c r="C104" s="97"/>
+      <c r="D104" s="87">
         <f>SUM(D101:E103)</f>
         <v>0</v>
       </c>
-      <c r="E104" s="85"/>
+      <c r="E104" s="88"/>
       <c r="I104" s="18"/>
       <c r="J104" s="18"/>
       <c r="K104" s="41"/>
@@ -18684,12 +18684,12 @@
       <c r="N105" s="30"/>
       <c r="O105" s="30"/>
       <c r="P105" s="30"/>
-      <c r="Q105" s="56" t="s">
+      <c r="Q105" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="R105" s="56"/>
-      <c r="S105" s="56"/>
-      <c r="T105" s="56"/>
+      <c r="R105" s="99"/>
+      <c r="S105" s="99"/>
+      <c r="T105" s="99"/>
     </row>
     <row r="106" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A106" s="28"/>
@@ -18708,12 +18708,12 @@
       <c r="N106" s="30"/>
       <c r="O106" s="30"/>
       <c r="P106" s="30"/>
-      <c r="Q106" s="56" t="s">
+      <c r="Q106" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="R106" s="56"/>
-      <c r="S106" s="56"/>
-      <c r="T106" s="56"/>
+      <c r="R106" s="99"/>
+      <c r="S106" s="99"/>
+      <c r="T106" s="99"/>
     </row>
     <row r="107" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A107" s="28"/>
@@ -18871,34 +18871,75 @@
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="Q105:T105"/>
-    <mergeCell ref="Q106:T106"/>
-    <mergeCell ref="R96:S96"/>
-    <mergeCell ref="R97:S97"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="F100:O100"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="F101:O101"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="F102:O102"/>
-    <mergeCell ref="N88:R90"/>
-    <mergeCell ref="S88:S89"/>
-    <mergeCell ref="T88:T89"/>
-    <mergeCell ref="N91:R93"/>
-    <mergeCell ref="R94:S94"/>
-    <mergeCell ref="R95:S95"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="F103:O103"/>
-    <mergeCell ref="T77:T78"/>
-    <mergeCell ref="N80:R82"/>
-    <mergeCell ref="R83:S83"/>
-    <mergeCell ref="R84:S84"/>
-    <mergeCell ref="R85:S85"/>
-    <mergeCell ref="R86:S86"/>
+    <mergeCell ref="U69:U71"/>
+    <mergeCell ref="U72:U74"/>
+    <mergeCell ref="U33:U35"/>
+    <mergeCell ref="U36:U38"/>
+    <mergeCell ref="U39:U41"/>
+    <mergeCell ref="U51:U53"/>
+    <mergeCell ref="U54:U56"/>
+    <mergeCell ref="U57:U59"/>
+    <mergeCell ref="U60:U62"/>
+    <mergeCell ref="U63:U65"/>
+    <mergeCell ref="U66:U68"/>
+    <mergeCell ref="T29:T31"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="A3:T3"/>
+    <mergeCell ref="A4:T4"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="D47:D50"/>
+    <mergeCell ref="E47:E50"/>
+    <mergeCell ref="F47:F50"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="Q47:S47"/>
+    <mergeCell ref="T47:T49"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="Q48:S48"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="G63:G65"/>
     <mergeCell ref="E69:E71"/>
     <mergeCell ref="G69:G71"/>
     <mergeCell ref="E72:E74"/>
@@ -18917,75 +18958,34 @@
     <mergeCell ref="G54:G56"/>
     <mergeCell ref="E57:E59"/>
     <mergeCell ref="G57:G59"/>
-    <mergeCell ref="T47:T49"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="Q48:S48"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="D47:D50"/>
-    <mergeCell ref="E47:E50"/>
-    <mergeCell ref="F47:F50"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="Q47:S47"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="Q29:S29"/>
-    <mergeCell ref="T29:T31"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="A3:T3"/>
-    <mergeCell ref="A4:T4"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="F29:F32"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="U69:U71"/>
-    <mergeCell ref="U72:U74"/>
-    <mergeCell ref="U33:U35"/>
-    <mergeCell ref="U36:U38"/>
-    <mergeCell ref="U39:U41"/>
-    <mergeCell ref="U51:U53"/>
-    <mergeCell ref="U54:U56"/>
-    <mergeCell ref="U57:U59"/>
-    <mergeCell ref="U60:U62"/>
-    <mergeCell ref="U63:U65"/>
-    <mergeCell ref="U66:U68"/>
+    <mergeCell ref="N88:R90"/>
+    <mergeCell ref="S88:S89"/>
+    <mergeCell ref="T88:T89"/>
+    <mergeCell ref="N91:R93"/>
+    <mergeCell ref="R94:S94"/>
+    <mergeCell ref="R95:S95"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="F103:O103"/>
+    <mergeCell ref="T77:T78"/>
+    <mergeCell ref="N80:R82"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="R84:S84"/>
+    <mergeCell ref="R85:S85"/>
+    <mergeCell ref="R86:S86"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="Q105:T105"/>
+    <mergeCell ref="Q106:T106"/>
+    <mergeCell ref="R96:S96"/>
+    <mergeCell ref="R97:S97"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="F100:O100"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="F101:O101"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="F102:O102"/>
   </mergeCells>
   <conditionalFormatting sqref="G51 G54 G57 G60 G63 G66 G69 G72">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">

--- a/core/core-api/src/main/resources/excel-templates/DAM.xlsx
+++ b/core/core-api/src/main/resources/excel-templates/DAM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075" tabRatio="846"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075" tabRatio="846" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BM ca ngày" sheetId="24" r:id="rId1"/>
@@ -1247,7 +1247,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>(SUM_SPECIFIC__)</t>
+          <t>(SUM_SPECIFIC_4__)</t>
         </r>
       </text>
     </comment>
@@ -1597,7 +1597,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>(SUM_SPECIFIC__)</t>
+          <t>(SUM_SPECIFIC_5__)</t>
         </r>
       </text>
     </comment>
@@ -1947,7 +1947,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>(SUM_SPECIFIC__)</t>
+          <t>(SUM_SPECIFIC_6__)</t>
         </r>
       </text>
     </comment>
@@ -2297,7 +2297,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>(SUM_SPECIFIC__)</t>
+          <t>(SUM_SPECIFIC_7__)</t>
         </r>
       </text>
     </comment>
@@ -2647,7 +2647,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>(SUM_SPECIFIC__)</t>
+          <t>(SUM_SPECIFIC_8__)</t>
         </r>
       </text>
     </comment>
@@ -2997,7 +2997,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>(SUM_SPECIFIC__)</t>
+          <t>(SUM_SPECIFIC_9__)</t>
         </r>
       </text>
     </comment>
@@ -3347,7 +3347,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>(SUM_SPECIFIC__)</t>
+          <t>(SUM_SPECIFIC_10__)</t>
         </r>
       </text>
     </comment>
@@ -3697,7 +3697,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>(SUM_SPECIFIC__)</t>
+          <t>(SUM_SPECIFIC_11__)</t>
         </r>
       </text>
     </comment>
@@ -5199,7 +5199,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>(SUM_SPECIFIC__)</t>
+          <t>(SUM_SPECIFIC_4__)</t>
         </r>
       </text>
     </comment>
@@ -5549,7 +5549,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>(SUM_SPECIFIC__)</t>
+          <t>(SUM_SPECIFIC_5__)</t>
         </r>
       </text>
     </comment>
@@ -5899,7 +5899,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>(SUM_SPECIFIC__)</t>
+          <t>(SUM_SPECIFIC_6__)</t>
         </r>
       </text>
     </comment>
@@ -6249,7 +6249,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>(SUM_SPECIFIC__)</t>
+          <t>(SUM_SPECIFIC_7__)</t>
         </r>
       </text>
     </comment>
@@ -6599,7 +6599,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>(SUM_SPECIFIC__)</t>
+          <t>(SUM_SPECIFIC_8__)</t>
         </r>
       </text>
     </comment>
@@ -6949,7 +6949,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>(SUM_SPECIFIC__)</t>
+          <t>(SUM_SPECIFIC_9__)</t>
         </r>
       </text>
     </comment>
@@ -7299,7 +7299,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>(SUM_SPECIFIC__)</t>
+          <t>(SUM_SPECIFIC_10__)</t>
         </r>
       </text>
     </comment>
@@ -7649,7 +7649,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>(SUM_SPECIFIC__)</t>
+          <t>(SUM_SPECIFIC_11__)</t>
         </r>
       </text>
     </comment>
@@ -8748,14 +8748,41 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -8766,6 +8793,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -8775,43 +8808,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8831,15 +8831,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8866,13 +8857,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8880,19 +8871,28 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9220,8 +9220,8 @@
   </sheetPr>
   <dimension ref="A1:AA113"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="E21" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="Q51" sqref="Q51:R74"/>
+    <sheetView view="pageBreakPreview" topLeftCell="E20" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="U51" sqref="U51:U74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10356,52 +10356,52 @@
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:20" s="10" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="82"/>
+      <c r="T3" s="82"/>
     </row>
     <row r="4" spans="1:20" s="14" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="86"/>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="86"/>
-      <c r="S4" s="86"/>
-      <c r="T4" s="86"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
+      <c r="T4" s="83"/>
     </row>
     <row r="5" spans="1:20" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
@@ -10891,30 +10891,30 @@
       <c r="F29" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="62" t="s">
+      <c r="G29" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="H29" s="68" t="s">
+      <c r="H29" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="I29" s="68"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="68" t="s">
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="L29" s="68"/>
-      <c r="M29" s="68"/>
-      <c r="N29" s="68" t="s">
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="O29" s="68"/>
-      <c r="P29" s="68"/>
-      <c r="Q29" s="68" t="s">
+      <c r="O29" s="70"/>
+      <c r="P29" s="70"/>
+      <c r="Q29" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="R29" s="68"/>
-      <c r="S29" s="68"/>
-      <c r="T29" s="98" t="s">
+      <c r="R29" s="70"/>
+      <c r="S29" s="70"/>
+      <c r="T29" s="69" t="s">
         <v>46</v>
       </c>
     </row>
@@ -10925,28 +10925,28 @@
       <c r="D30" s="77"/>
       <c r="E30" s="80"/>
       <c r="F30" s="77"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="73" t="s">
+      <c r="G30" s="73"/>
+      <c r="H30" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="I30" s="74"/>
-      <c r="J30" s="75"/>
-      <c r="K30" s="73" t="s">
+      <c r="I30" s="96"/>
+      <c r="J30" s="97"/>
+      <c r="K30" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="L30" s="74"/>
-      <c r="M30" s="75"/>
-      <c r="N30" s="73" t="s">
+      <c r="L30" s="96"/>
+      <c r="M30" s="97"/>
+      <c r="N30" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="O30" s="74"/>
-      <c r="P30" s="75"/>
-      <c r="Q30" s="73" t="s">
+      <c r="O30" s="96"/>
+      <c r="P30" s="97"/>
+      <c r="Q30" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="R30" s="74"/>
-      <c r="S30" s="75"/>
-      <c r="T30" s="98"/>
+      <c r="R30" s="96"/>
+      <c r="S30" s="97"/>
+      <c r="T30" s="69"/>
     </row>
     <row r="31" spans="1:20" s="4" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="77"/>
@@ -10955,7 +10955,7 @@
       <c r="D31" s="77"/>
       <c r="E31" s="80"/>
       <c r="F31" s="77"/>
-      <c r="G31" s="62"/>
+      <c r="G31" s="73"/>
       <c r="H31" s="37" t="s">
         <v>37</v>
       </c>
@@ -10992,7 +10992,7 @@
       <c r="S31" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="T31" s="98"/>
+      <c r="T31" s="69"/>
     </row>
     <row r="32" spans="1:20" s="39" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="78"/>
@@ -11045,25 +11045,25 @@
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A33" s="96">
+      <c r="A33" s="93">
         <v>1</v>
       </c>
-      <c r="B33" s="63" t="s">
+      <c r="B33" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="66" t="s">
+      <c r="C33" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="63" t="s">
+      <c r="D33" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="E33" s="63" t="s">
+      <c r="E33" s="58" t="s">
         <v>16</v>
       </c>
       <c r="F33" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="67">
+      <c r="G33" s="59">
         <v>1000000</v>
       </c>
       <c r="H33" s="51"/>
@@ -11094,21 +11094,21 @@
         <f>$G$33*(J33+M33+P33+S33)</f>
         <v>0</v>
       </c>
-      <c r="U33" s="101">
+      <c r="U33" s="54">
         <f>SUM(T33:T35)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="96"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
+      <c r="A34" s="93"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
       <c r="F34" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="67"/>
+      <c r="G34" s="59"/>
       <c r="H34" s="51"/>
       <c r="I34" s="51"/>
       <c r="J34" s="51">
@@ -11137,18 +11137,18 @@
         <f t="shared" ref="T34:T35" si="4">$G$33*(J34+M34+P34+S34)</f>
         <v>0</v>
       </c>
-      <c r="U34" s="102"/>
+      <c r="U34" s="55"/>
     </row>
     <row r="35" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="96"/>
-      <c r="B35" s="63"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
+      <c r="A35" s="93"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
       <c r="F35" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G35" s="67"/>
+      <c r="G35" s="59"/>
       <c r="H35" s="51"/>
       <c r="I35" s="51"/>
       <c r="J35" s="51">
@@ -11177,28 +11177,28 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U35" s="102"/>
+      <c r="U35" s="55"/>
     </row>
     <row r="36" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="54">
+      <c r="A36" s="90">
         <v>2</v>
       </c>
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="57" t="s">
+      <c r="C36" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="57" t="s">
+      <c r="D36" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="93" t="s">
+      <c r="E36" s="63" t="s">
         <v>17</v>
       </c>
       <c r="F36" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G36" s="82">
+      <c r="G36" s="60">
         <v>1000000</v>
       </c>
       <c r="H36" s="51"/>
@@ -11229,21 +11229,21 @@
         <f>$G$36*(J36+M36+P36+S36)</f>
         <v>0</v>
       </c>
-      <c r="U36" s="101">
+      <c r="U36" s="54">
         <f>SUM(T36:T38)-SUM(U51:U74)</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:27" s="18" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="94"/>
+      <c r="A37" s="91"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="64"/>
       <c r="F37" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="G37" s="83"/>
+      <c r="G37" s="61"/>
       <c r="H37" s="51"/>
       <c r="I37" s="51"/>
       <c r="J37" s="51">
@@ -11272,18 +11272,18 @@
         <f t="shared" ref="T37:T38" si="5">$G$36*(J37+M37+P37+S37)</f>
         <v>0</v>
       </c>
-      <c r="U37" s="102"/>
+      <c r="U37" s="55"/>
     </row>
     <row r="38" spans="1:27" s="18" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="55"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="95"/>
+      <c r="A38" s="91"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="65"/>
       <c r="F38" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G38" s="84"/>
+      <c r="G38" s="62"/>
       <c r="H38" s="51"/>
       <c r="I38" s="51"/>
       <c r="J38" s="51">
@@ -11312,24 +11312,24 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U38" s="102"/>
+      <c r="U38" s="55"/>
     </row>
     <row r="39" spans="1:27" s="18" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="55"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="69" t="s">
+      <c r="A39" s="91"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="98" t="s">
         <v>113</v>
       </c>
-      <c r="D39" s="69" t="s">
+      <c r="D39" s="98" t="s">
         <v>114</v>
       </c>
-      <c r="E39" s="57" t="s">
+      <c r="E39" s="66" t="s">
         <v>115</v>
       </c>
       <c r="F39" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G39" s="82">
+      <c r="G39" s="60">
         <v>1000000</v>
       </c>
       <c r="H39" s="51"/>
@@ -11360,21 +11360,21 @@
         <f>$G$36*(J39+M39+P39+S39)</f>
         <v>0</v>
       </c>
-      <c r="U39" s="101">
+      <c r="U39" s="54">
         <f t="shared" ref="U39" si="10">SUM(T39:T41)</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:27" s="18" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="55"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="58"/>
+      <c r="A40" s="91"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="67"/>
       <c r="F40" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="83"/>
+      <c r="G40" s="61"/>
       <c r="H40" s="51"/>
       <c r="I40" s="51"/>
       <c r="J40" s="51">
@@ -11403,18 +11403,18 @@
         <f t="shared" ref="T40:T41" si="11">$G$36*(J40+M40+P40+S40)</f>
         <v>0</v>
       </c>
-      <c r="U40" s="102"/>
+      <c r="U40" s="55"/>
     </row>
     <row r="41" spans="1:27" s="18" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="56"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="71"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="59"/>
+      <c r="A41" s="92"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="100"/>
+      <c r="E41" s="68"/>
       <c r="F41" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="84"/>
+      <c r="G41" s="62"/>
       <c r="H41" s="51"/>
       <c r="I41" s="51"/>
       <c r="J41" s="51">
@@ -11443,7 +11443,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U41" s="102"/>
+      <c r="U41" s="55"/>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="29"/>
@@ -11463,10 +11463,10 @@
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
-      <c r="R42" s="60" t="s">
+      <c r="R42" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="S42" s="61"/>
+      <c r="S42" s="72"/>
       <c r="T42" s="36">
         <f>T33+T36+T39</f>
         <v>0</v>
@@ -11497,10 +11497,10 @@
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
-      <c r="R43" s="60" t="s">
+      <c r="R43" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="S43" s="61"/>
+      <c r="S43" s="72"/>
       <c r="T43" s="36">
         <f>T34+T37+T40</f>
         <v>0</v>
@@ -11531,10 +11531,10 @@
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
-      <c r="R44" s="60" t="s">
+      <c r="R44" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="S44" s="61"/>
+      <c r="S44" s="72"/>
       <c r="T44" s="36">
         <f>T35+T38+T41</f>
         <v>0</v>
@@ -11565,10 +11565,10 @@
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
-      <c r="R45" s="60" t="s">
+      <c r="R45" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="S45" s="61"/>
+      <c r="S45" s="72"/>
       <c r="T45" s="36">
         <f>SUM(T42:T44)</f>
         <v>0</v>
@@ -11621,30 +11621,30 @@
       <c r="F47" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="G47" s="62" t="s">
+      <c r="G47" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="H47" s="68" t="s">
+      <c r="H47" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="I47" s="68"/>
-      <c r="J47" s="68"/>
-      <c r="K47" s="68" t="s">
+      <c r="I47" s="70"/>
+      <c r="J47" s="70"/>
+      <c r="K47" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="L47" s="68"/>
-      <c r="M47" s="68"/>
-      <c r="N47" s="68" t="s">
+      <c r="L47" s="70"/>
+      <c r="M47" s="70"/>
+      <c r="N47" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="O47" s="68"/>
-      <c r="P47" s="68"/>
-      <c r="Q47" s="68" t="s">
+      <c r="O47" s="70"/>
+      <c r="P47" s="70"/>
+      <c r="Q47" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="R47" s="68"/>
-      <c r="S47" s="68"/>
-      <c r="T47" s="98" t="s">
+      <c r="R47" s="70"/>
+      <c r="S47" s="70"/>
+      <c r="T47" s="69" t="s">
         <v>46</v>
       </c>
     </row>
@@ -11655,28 +11655,28 @@
       <c r="D48" s="77"/>
       <c r="E48" s="80"/>
       <c r="F48" s="77"/>
-      <c r="G48" s="62"/>
-      <c r="H48" s="73" t="s">
+      <c r="G48" s="73"/>
+      <c r="H48" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="I48" s="74"/>
-      <c r="J48" s="75"/>
-      <c r="K48" s="73" t="s">
+      <c r="I48" s="96"/>
+      <c r="J48" s="97"/>
+      <c r="K48" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="L48" s="74"/>
-      <c r="M48" s="75"/>
-      <c r="N48" s="73" t="s">
+      <c r="L48" s="96"/>
+      <c r="M48" s="97"/>
+      <c r="N48" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="O48" s="74"/>
-      <c r="P48" s="75"/>
-      <c r="Q48" s="73" t="s">
+      <c r="O48" s="96"/>
+      <c r="P48" s="97"/>
+      <c r="Q48" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="R48" s="74"/>
-      <c r="S48" s="75"/>
-      <c r="T48" s="98"/>
+      <c r="R48" s="96"/>
+      <c r="S48" s="97"/>
+      <c r="T48" s="69"/>
     </row>
     <row r="49" spans="1:27" s="17" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="77"/>
@@ -11685,7 +11685,7 @@
       <c r="D49" s="77"/>
       <c r="E49" s="80"/>
       <c r="F49" s="77"/>
-      <c r="G49" s="62"/>
+      <c r="G49" s="73"/>
       <c r="H49" s="37" t="s">
         <v>37</v>
       </c>
@@ -11722,7 +11722,7 @@
       <c r="S49" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="T49" s="98"/>
+      <c r="T49" s="69"/>
     </row>
     <row r="50" spans="1:27" s="39" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A50" s="78"/>
@@ -11775,25 +11775,25 @@
       </c>
     </row>
     <row r="51" spans="1:27" s="35" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="54">
+      <c r="A51" s="90">
         <v>1</v>
       </c>
-      <c r="B51" s="93" t="s">
+      <c r="B51" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="93" t="s">
+      <c r="C51" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="93" t="s">
+      <c r="D51" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="E51" s="63" t="s">
+      <c r="E51" s="58" t="s">
         <v>25</v>
       </c>
       <c r="F51" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G51" s="67">
+      <c r="G51" s="59">
         <v>1000000</v>
       </c>
       <c r="H51" s="51"/>
@@ -11824,21 +11824,21 @@
         <f>$G$51*(J51+M51+P51+S51)</f>
         <v>0</v>
       </c>
-      <c r="U51" s="101">
+      <c r="U51" s="54">
         <f>SUM(T51:T53)</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:27" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="55"/>
-      <c r="B52" s="94"/>
-      <c r="C52" s="94"/>
-      <c r="D52" s="94"/>
-      <c r="E52" s="63"/>
+      <c r="A52" s="91"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="58"/>
       <c r="F52" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="G52" s="67"/>
+      <c r="G52" s="59"/>
       <c r="H52" s="51"/>
       <c r="I52" s="51"/>
       <c r="J52" s="51">
@@ -11867,18 +11867,18 @@
         <f t="shared" ref="T52:T53" si="16">$G$51*(J52+M52+P52+S52)</f>
         <v>0</v>
       </c>
-      <c r="U52" s="102"/>
+      <c r="U52" s="55"/>
     </row>
     <row r="53" spans="1:27" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="55"/>
-      <c r="B53" s="94"/>
-      <c r="C53" s="94"/>
-      <c r="D53" s="94"/>
-      <c r="E53" s="63"/>
+      <c r="A53" s="91"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="64"/>
+      <c r="E53" s="58"/>
       <c r="F53" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G53" s="67"/>
+      <c r="G53" s="59"/>
       <c r="H53" s="51"/>
       <c r="I53" s="51"/>
       <c r="J53" s="51">
@@ -11907,20 +11907,20 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U53" s="102"/>
+      <c r="U53" s="55"/>
     </row>
     <row r="54" spans="1:27" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="55"/>
-      <c r="B54" s="94"/>
-      <c r="C54" s="94"/>
-      <c r="D54" s="94"/>
-      <c r="E54" s="66" t="s">
+      <c r="A54" s="91"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="57" t="s">
         <v>26</v>
       </c>
       <c r="F54" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G54" s="67">
+      <c r="G54" s="59">
         <v>1000000</v>
       </c>
       <c r="H54" s="51"/>
@@ -11951,21 +11951,21 @@
         <f>$G$54*(J54+M54+P54+S54)</f>
         <v>0</v>
       </c>
-      <c r="U54" s="101">
+      <c r="U54" s="54">
         <f>SUM(T54:T56)</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:27" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="55"/>
-      <c r="B55" s="94"/>
-      <c r="C55" s="94"/>
-      <c r="D55" s="94"/>
-      <c r="E55" s="66"/>
+      <c r="A55" s="91"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="57"/>
       <c r="F55" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="G55" s="67"/>
+      <c r="G55" s="59"/>
       <c r="H55" s="51"/>
       <c r="I55" s="51"/>
       <c r="J55" s="51">
@@ -11994,18 +11994,18 @@
         <f>$G$54*(J55+M55+P55+S55)</f>
         <v>0</v>
       </c>
-      <c r="U55" s="102"/>
+      <c r="U55" s="55"/>
     </row>
     <row r="56" spans="1:27" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="55"/>
-      <c r="B56" s="94"/>
-      <c r="C56" s="94"/>
-      <c r="D56" s="94"/>
-      <c r="E56" s="66"/>
+      <c r="A56" s="91"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="57"/>
       <c r="F56" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G56" s="67"/>
+      <c r="G56" s="59"/>
       <c r="H56" s="51"/>
       <c r="I56" s="51"/>
       <c r="J56" s="51">
@@ -12034,20 +12034,20 @@
         <f>$G$54*(J56+M56+P56+S56)</f>
         <v>0</v>
       </c>
-      <c r="U56" s="102"/>
+      <c r="U56" s="55"/>
     </row>
     <row r="57" spans="1:27" s="35" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="55"/>
-      <c r="B57" s="94"/>
-      <c r="C57" s="94"/>
-      <c r="D57" s="94"/>
-      <c r="E57" s="66" t="s">
+      <c r="A57" s="91"/>
+      <c r="B57" s="64"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="64"/>
+      <c r="E57" s="57" t="s">
         <v>99</v>
       </c>
       <c r="F57" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="G57" s="67">
+      <c r="G57" s="59">
         <v>1000000</v>
       </c>
       <c r="H57" s="51"/>
@@ -12078,21 +12078,21 @@
         <f>$G$57*(J57+M57+P57+S57)</f>
         <v>0</v>
       </c>
-      <c r="U57" s="101">
+      <c r="U57" s="54">
         <f>SUM(T57:T59)</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:27" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="55"/>
-      <c r="B58" s="94"/>
-      <c r="C58" s="94"/>
-      <c r="D58" s="94"/>
-      <c r="E58" s="66"/>
+      <c r="A58" s="91"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="57"/>
       <c r="F58" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="67"/>
+      <c r="G58" s="59"/>
       <c r="H58" s="51"/>
       <c r="I58" s="51"/>
       <c r="J58" s="51">
@@ -12121,18 +12121,18 @@
         <f t="shared" ref="T58:T59" si="21">$G$57*(J58+M58+P58+S58)</f>
         <v>0</v>
       </c>
-      <c r="U58" s="102"/>
+      <c r="U58" s="55"/>
     </row>
     <row r="59" spans="1:27" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="55"/>
-      <c r="B59" s="94"/>
-      <c r="C59" s="94"/>
-      <c r="D59" s="94"/>
-      <c r="E59" s="66"/>
+      <c r="A59" s="91"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="64"/>
+      <c r="E59" s="57"/>
       <c r="F59" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G59" s="67"/>
+      <c r="G59" s="59"/>
       <c r="H59" s="51"/>
       <c r="I59" s="51"/>
       <c r="J59" s="51">
@@ -12161,20 +12161,20 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="U59" s="102"/>
+      <c r="U59" s="55"/>
     </row>
     <row r="60" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="55"/>
-      <c r="B60" s="94"/>
-      <c r="C60" s="94"/>
-      <c r="D60" s="94"/>
-      <c r="E60" s="66" t="s">
+      <c r="A60" s="91"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="57" t="s">
         <v>27</v>
       </c>
       <c r="F60" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G60" s="67">
+      <c r="G60" s="59">
         <v>1000000</v>
       </c>
       <c r="H60" s="51"/>
@@ -12205,7 +12205,7 @@
         <f>$G$60*(J60+M60+P60+S60)</f>
         <v>0</v>
       </c>
-      <c r="U60" s="101">
+      <c r="U60" s="54">
         <f>SUM(T60:T62)</f>
         <v>0</v>
       </c>
@@ -12217,15 +12217,15 @@
       <c r="AA60" s="3"/>
     </row>
     <row r="61" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="55"/>
-      <c r="B61" s="94"/>
-      <c r="C61" s="94"/>
-      <c r="D61" s="94"/>
-      <c r="E61" s="66"/>
+      <c r="A61" s="91"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="64"/>
+      <c r="E61" s="57"/>
       <c r="F61" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="G61" s="67"/>
+      <c r="G61" s="59"/>
       <c r="H61" s="51"/>
       <c r="I61" s="51"/>
       <c r="J61" s="51">
@@ -12254,7 +12254,7 @@
         <f>$G$60*(J61+M61+P61+S61)</f>
         <v>0</v>
       </c>
-      <c r="U61" s="102"/>
+      <c r="U61" s="55"/>
       <c r="V61" s="3"/>
       <c r="W61" s="3"/>
       <c r="X61" s="3"/>
@@ -12263,15 +12263,15 @@
       <c r="AA61" s="3"/>
     </row>
     <row r="62" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="55"/>
-      <c r="B62" s="94"/>
-      <c r="C62" s="94"/>
-      <c r="D62" s="94"/>
-      <c r="E62" s="66"/>
+      <c r="A62" s="91"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="57"/>
       <c r="F62" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G62" s="67"/>
+      <c r="G62" s="59"/>
       <c r="H62" s="51"/>
       <c r="I62" s="51"/>
       <c r="J62" s="51">
@@ -12300,7 +12300,7 @@
         <f>$G$60*(J62+M62+P62+S62)</f>
         <v>0</v>
       </c>
-      <c r="U62" s="102"/>
+      <c r="U62" s="55"/>
       <c r="V62" s="3"/>
       <c r="W62" s="3"/>
       <c r="X62" s="3"/>
@@ -12309,17 +12309,17 @@
       <c r="AA62" s="3"/>
     </row>
     <row r="63" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="55"/>
-      <c r="B63" s="94"/>
-      <c r="C63" s="94"/>
-      <c r="D63" s="94"/>
-      <c r="E63" s="66" t="s">
+      <c r="A63" s="91"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="57" t="s">
         <v>28</v>
       </c>
       <c r="F63" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G63" s="67">
+      <c r="G63" s="59">
         <v>1000000</v>
       </c>
       <c r="H63" s="51"/>
@@ -12350,7 +12350,7 @@
         <f>$G$63*(J63+M63+P63+S63)</f>
         <v>0</v>
       </c>
-      <c r="U63" s="101">
+      <c r="U63" s="54">
         <f>SUM(T63:T65)</f>
         <v>0</v>
       </c>
@@ -12362,15 +12362,15 @@
       <c r="AA63" s="3"/>
     </row>
     <row r="64" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="55"/>
-      <c r="B64" s="94"/>
-      <c r="C64" s="94"/>
-      <c r="D64" s="94"/>
-      <c r="E64" s="66"/>
+      <c r="A64" s="91"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="57"/>
       <c r="F64" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="G64" s="67"/>
+      <c r="G64" s="59"/>
       <c r="H64" s="51"/>
       <c r="I64" s="51"/>
       <c r="J64" s="51">
@@ -12399,7 +12399,7 @@
         <f>$G$63*(J64+M64+P64+S64)</f>
         <v>0</v>
       </c>
-      <c r="U64" s="102"/>
+      <c r="U64" s="55"/>
       <c r="V64" s="3"/>
       <c r="W64" s="3"/>
       <c r="X64" s="3"/>
@@ -12408,15 +12408,15 @@
       <c r="AA64" s="3"/>
     </row>
     <row r="65" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="55"/>
-      <c r="B65" s="94"/>
-      <c r="C65" s="94"/>
-      <c r="D65" s="94"/>
-      <c r="E65" s="66"/>
+      <c r="A65" s="91"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="64"/>
+      <c r="D65" s="64"/>
+      <c r="E65" s="57"/>
       <c r="F65" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G65" s="67"/>
+      <c r="G65" s="59"/>
       <c r="H65" s="51"/>
       <c r="I65" s="51"/>
       <c r="J65" s="51">
@@ -12445,7 +12445,7 @@
         <f>$G$63*(J65+M65+P65+S65)</f>
         <v>0</v>
       </c>
-      <c r="U65" s="102"/>
+      <c r="U65" s="55"/>
       <c r="V65" s="3"/>
       <c r="W65" s="3"/>
       <c r="X65" s="3"/>
@@ -12454,17 +12454,17 @@
       <c r="AA65" s="3"/>
     </row>
     <row r="66" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="55"/>
-      <c r="B66" s="94"/>
-      <c r="C66" s="94"/>
-      <c r="D66" s="94"/>
-      <c r="E66" s="66" t="s">
+      <c r="A66" s="91"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="57" t="s">
         <v>29</v>
       </c>
       <c r="F66" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G66" s="67">
+      <c r="G66" s="59">
         <v>1000000</v>
       </c>
       <c r="H66" s="51"/>
@@ -12495,7 +12495,7 @@
         <f>$G$66*(J66+M66+P66+S66)</f>
         <v>0</v>
       </c>
-      <c r="U66" s="101">
+      <c r="U66" s="54">
         <f>SUM(T66:T68)</f>
         <v>0</v>
       </c>
@@ -12507,15 +12507,15 @@
       <c r="AA66" s="3"/>
     </row>
     <row r="67" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="55"/>
-      <c r="B67" s="94"/>
-      <c r="C67" s="94"/>
-      <c r="D67" s="94"/>
-      <c r="E67" s="66"/>
+      <c r="A67" s="91"/>
+      <c r="B67" s="64"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="57"/>
       <c r="F67" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="G67" s="67"/>
+      <c r="G67" s="59"/>
       <c r="H67" s="51"/>
       <c r="I67" s="51"/>
       <c r="J67" s="51">
@@ -12544,7 +12544,7 @@
         <f>$G$66*(J67+M67+P67+S67)</f>
         <v>0</v>
       </c>
-      <c r="U67" s="102"/>
+      <c r="U67" s="55"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
@@ -12553,15 +12553,15 @@
       <c r="AA67" s="3"/>
     </row>
     <row r="68" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="55"/>
-      <c r="B68" s="94"/>
-      <c r="C68" s="94"/>
-      <c r="D68" s="94"/>
-      <c r="E68" s="66"/>
+      <c r="A68" s="91"/>
+      <c r="B68" s="64"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="57"/>
       <c r="F68" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G68" s="67"/>
+      <c r="G68" s="59"/>
       <c r="H68" s="51"/>
       <c r="I68" s="51"/>
       <c r="J68" s="51">
@@ -12590,7 +12590,7 @@
         <f>$G$66*(J68+M68+P68+S68)</f>
         <v>0</v>
       </c>
-      <c r="U68" s="102"/>
+      <c r="U68" s="55"/>
       <c r="V68" s="3"/>
       <c r="W68" s="3"/>
       <c r="X68" s="3"/>
@@ -12599,17 +12599,17 @@
       <c r="AA68" s="3"/>
     </row>
     <row r="69" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="55"/>
-      <c r="B69" s="94"/>
-      <c r="C69" s="94"/>
-      <c r="D69" s="94"/>
-      <c r="E69" s="66" t="s">
+      <c r="A69" s="91"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="57" t="s">
         <v>30</v>
       </c>
       <c r="F69" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G69" s="67">
+      <c r="G69" s="59">
         <v>1000000</v>
       </c>
       <c r="H69" s="51"/>
@@ -12640,7 +12640,7 @@
         <f>$G$69*(J69+M69+P69+S69)</f>
         <v>0</v>
       </c>
-      <c r="U69" s="101">
+      <c r="U69" s="54">
         <f>SUM(T69:T71)</f>
         <v>0</v>
       </c>
@@ -12652,15 +12652,15 @@
       <c r="AA69" s="3"/>
     </row>
     <row r="70" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="55"/>
-      <c r="B70" s="94"/>
-      <c r="C70" s="94"/>
-      <c r="D70" s="94"/>
-      <c r="E70" s="66"/>
+      <c r="A70" s="91"/>
+      <c r="B70" s="64"/>
+      <c r="C70" s="64"/>
+      <c r="D70" s="64"/>
+      <c r="E70" s="57"/>
       <c r="F70" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="G70" s="67"/>
+      <c r="G70" s="59"/>
       <c r="H70" s="51"/>
       <c r="I70" s="51"/>
       <c r="J70" s="51">
@@ -12689,7 +12689,7 @@
         <f>$G$69*(J70+M70+P70+S70)</f>
         <v>0</v>
       </c>
-      <c r="U70" s="102"/>
+      <c r="U70" s="55"/>
       <c r="V70" s="3"/>
       <c r="W70" s="3"/>
       <c r="X70" s="3"/>
@@ -12698,15 +12698,15 @@
       <c r="AA70" s="3"/>
     </row>
     <row r="71" spans="1:27" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="55"/>
-      <c r="B71" s="94"/>
-      <c r="C71" s="94"/>
-      <c r="D71" s="94"/>
-      <c r="E71" s="66"/>
+      <c r="A71" s="91"/>
+      <c r="B71" s="64"/>
+      <c r="C71" s="64"/>
+      <c r="D71" s="64"/>
+      <c r="E71" s="57"/>
       <c r="F71" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G71" s="67"/>
+      <c r="G71" s="59"/>
       <c r="H71" s="51"/>
       <c r="I71" s="51"/>
       <c r="J71" s="51">
@@ -12735,7 +12735,7 @@
         <f>$G$69*(J71+M71+P71+S71)</f>
         <v>0</v>
       </c>
-      <c r="U71" s="102"/>
+      <c r="U71" s="55"/>
       <c r="V71" s="3"/>
       <c r="W71" s="3"/>
       <c r="X71" s="3"/>
@@ -12744,17 +12744,17 @@
       <c r="AA71" s="3"/>
     </row>
     <row r="72" spans="1:27" s="18" customFormat="1" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="55"/>
-      <c r="B72" s="94"/>
-      <c r="C72" s="94"/>
-      <c r="D72" s="94"/>
-      <c r="E72" s="66" t="s">
+      <c r="A72" s="91"/>
+      <c r="B72" s="64"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="64"/>
+      <c r="E72" s="57" t="s">
         <v>31</v>
       </c>
       <c r="F72" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G72" s="67">
+      <c r="G72" s="59">
         <v>1000000</v>
       </c>
       <c r="H72" s="51"/>
@@ -12785,7 +12785,7 @@
         <f>$G$72*(J72+M72+P72+S72)</f>
         <v>0</v>
       </c>
-      <c r="U72" s="101">
+      <c r="U72" s="54">
         <f>SUM(T72:T74)</f>
         <v>0</v>
       </c>
@@ -12797,15 +12797,15 @@
       <c r="AA72" s="3"/>
     </row>
     <row r="73" spans="1:27" s="18" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="55"/>
-      <c r="B73" s="94"/>
-      <c r="C73" s="94"/>
-      <c r="D73" s="94"/>
-      <c r="E73" s="66"/>
+      <c r="A73" s="91"/>
+      <c r="B73" s="64"/>
+      <c r="C73" s="64"/>
+      <c r="D73" s="64"/>
+      <c r="E73" s="57"/>
       <c r="F73" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="G73" s="67"/>
+      <c r="G73" s="59"/>
       <c r="H73" s="51"/>
       <c r="I73" s="51"/>
       <c r="J73" s="51">
@@ -12834,7 +12834,7 @@
         <f t="shared" ref="T73:T74" si="22">$G$72*(J73+M73+P73+S73)</f>
         <v>0</v>
       </c>
-      <c r="U73" s="102"/>
+      <c r="U73" s="55"/>
       <c r="V73" s="3"/>
       <c r="W73" s="3"/>
       <c r="X73" s="3"/>
@@ -12843,15 +12843,15 @@
       <c r="AA73" s="3"/>
     </row>
     <row r="74" spans="1:27" s="18" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="56"/>
-      <c r="B74" s="95"/>
-      <c r="C74" s="95"/>
-      <c r="D74" s="95"/>
-      <c r="E74" s="66"/>
+      <c r="A74" s="92"/>
+      <c r="B74" s="65"/>
+      <c r="C74" s="65"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="57"/>
       <c r="F74" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G74" s="67"/>
+      <c r="G74" s="59"/>
       <c r="H74" s="51"/>
       <c r="I74" s="51"/>
       <c r="J74" s="51">
@@ -12880,7 +12880,7 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="U74" s="102"/>
+      <c r="U74" s="55"/>
       <c r="V74" s="3"/>
       <c r="W74" s="3"/>
       <c r="X74" s="3"/>
@@ -12949,17 +12949,17 @@
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
-      <c r="N77" s="72" t="s">
+      <c r="N77" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="O77" s="72"/>
-      <c r="P77" s="72"/>
-      <c r="Q77" s="72"/>
-      <c r="R77" s="72"/>
-      <c r="S77" s="62" t="s">
+      <c r="O77" s="101"/>
+      <c r="P77" s="101"/>
+      <c r="Q77" s="101"/>
+      <c r="R77" s="101"/>
+      <c r="S77" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="T77" s="62" t="s">
+      <c r="T77" s="73" t="s">
         <v>46</v>
       </c>
       <c r="U77" s="3"/>
@@ -12984,13 +12984,13 @@
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
       <c r="M78" s="5"/>
-      <c r="N78" s="72"/>
-      <c r="O78" s="72"/>
-      <c r="P78" s="72"/>
-      <c r="Q78" s="72"/>
-      <c r="R78" s="72"/>
-      <c r="S78" s="62"/>
-      <c r="T78" s="62"/>
+      <c r="N78" s="101"/>
+      <c r="O78" s="101"/>
+      <c r="P78" s="101"/>
+      <c r="Q78" s="101"/>
+      <c r="R78" s="101"/>
+      <c r="S78" s="73"/>
+      <c r="T78" s="73"/>
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
       <c r="W78" s="3"/>
@@ -13013,11 +13013,11 @@
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
       <c r="M79" s="5"/>
-      <c r="N79" s="72"/>
-      <c r="O79" s="72"/>
-      <c r="P79" s="72"/>
-      <c r="Q79" s="72"/>
-      <c r="R79" s="72"/>
+      <c r="N79" s="101"/>
+      <c r="O79" s="101"/>
+      <c r="P79" s="101"/>
+      <c r="Q79" s="101"/>
+      <c r="R79" s="101"/>
       <c r="S79" s="43"/>
       <c r="T79" s="45" t="s">
         <v>53</v>
@@ -13044,13 +13044,13 @@
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
       <c r="M80" s="5"/>
-      <c r="N80" s="63" t="s">
+      <c r="N80" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="O80" s="63"/>
-      <c r="P80" s="63"/>
-      <c r="Q80" s="63"/>
-      <c r="R80" s="63"/>
+      <c r="O80" s="58"/>
+      <c r="P80" s="58"/>
+      <c r="Q80" s="58"/>
+      <c r="R80" s="58"/>
       <c r="S80" s="44" t="s">
         <v>7</v>
       </c>
@@ -13073,11 +13073,11 @@
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
       <c r="M81" s="5"/>
-      <c r="N81" s="63"/>
-      <c r="O81" s="63"/>
-      <c r="P81" s="63"/>
-      <c r="Q81" s="63"/>
-      <c r="R81" s="63"/>
+      <c r="N81" s="58"/>
+      <c r="O81" s="58"/>
+      <c r="P81" s="58"/>
+      <c r="Q81" s="58"/>
+      <c r="R81" s="58"/>
       <c r="S81" s="44" t="s">
         <v>8</v>
       </c>
@@ -13100,11 +13100,11 @@
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
-      <c r="N82" s="63"/>
-      <c r="O82" s="63"/>
-      <c r="P82" s="63"/>
-      <c r="Q82" s="63"/>
-      <c r="R82" s="63"/>
+      <c r="N82" s="58"/>
+      <c r="O82" s="58"/>
+      <c r="P82" s="58"/>
+      <c r="Q82" s="58"/>
+      <c r="R82" s="58"/>
       <c r="S82" s="44" t="s">
         <v>9</v>
       </c>
@@ -13131,10 +13131,10 @@
       <c r="O83" s="5"/>
       <c r="P83" s="5"/>
       <c r="Q83" s="5"/>
-      <c r="R83" s="60" t="s">
+      <c r="R83" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="S83" s="61"/>
+      <c r="S83" s="72"/>
       <c r="T83" s="36">
         <f>T80</f>
         <v>0</v>
@@ -13165,10 +13165,10 @@
       <c r="O84" s="5"/>
       <c r="P84" s="5"/>
       <c r="Q84" s="5"/>
-      <c r="R84" s="60" t="s">
+      <c r="R84" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="S84" s="61"/>
+      <c r="S84" s="72"/>
       <c r="T84" s="36">
         <f t="shared" ref="T84:T85" si="24">T81</f>
         <v>0</v>
@@ -13199,10 +13199,10 @@
       <c r="O85" s="5"/>
       <c r="P85" s="5"/>
       <c r="Q85" s="5"/>
-      <c r="R85" s="60" t="s">
+      <c r="R85" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="S85" s="61"/>
+      <c r="S85" s="72"/>
       <c r="T85" s="36">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -13233,10 +13233,10 @@
       <c r="O86" s="5"/>
       <c r="P86" s="5"/>
       <c r="Q86" s="5"/>
-      <c r="R86" s="60" t="s">
+      <c r="R86" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="S86" s="61"/>
+      <c r="S86" s="72"/>
       <c r="T86" s="36">
         <f>SUM(T83:T85)</f>
         <v>0</v>
@@ -13284,17 +13284,17 @@
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
       <c r="M88" s="5"/>
-      <c r="N88" s="72" t="s">
+      <c r="N88" s="101" t="s">
         <v>109</v>
       </c>
-      <c r="O88" s="72"/>
-      <c r="P88" s="72"/>
-      <c r="Q88" s="72"/>
-      <c r="R88" s="72"/>
-      <c r="S88" s="62" t="s">
+      <c r="O88" s="101"/>
+      <c r="P88" s="101"/>
+      <c r="Q88" s="101"/>
+      <c r="R88" s="101"/>
+      <c r="S88" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="T88" s="65" t="s">
+      <c r="T88" s="74" t="s">
         <v>46</v>
       </c>
       <c r="U88" s="3"/>
@@ -13319,13 +13319,13 @@
       <c r="K89" s="5"/>
       <c r="L89" s="5"/>
       <c r="M89" s="5"/>
-      <c r="N89" s="72"/>
-      <c r="O89" s="72"/>
-      <c r="P89" s="72"/>
-      <c r="Q89" s="72"/>
-      <c r="R89" s="72"/>
-      <c r="S89" s="62"/>
-      <c r="T89" s="100"/>
+      <c r="N89" s="101"/>
+      <c r="O89" s="101"/>
+      <c r="P89" s="101"/>
+      <c r="Q89" s="101"/>
+      <c r="R89" s="101"/>
+      <c r="S89" s="73"/>
+      <c r="T89" s="75"/>
       <c r="U89" s="3"/>
       <c r="V89" s="3"/>
       <c r="W89" s="3"/>
@@ -13348,11 +13348,11 @@
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
       <c r="M90" s="5"/>
-      <c r="N90" s="72"/>
-      <c r="O90" s="72"/>
-      <c r="P90" s="72"/>
-      <c r="Q90" s="72"/>
-      <c r="R90" s="72"/>
+      <c r="N90" s="101"/>
+      <c r="O90" s="101"/>
+      <c r="P90" s="101"/>
+      <c r="Q90" s="101"/>
+      <c r="R90" s="101"/>
       <c r="S90" s="43"/>
       <c r="T90" s="45" t="s">
         <v>54</v>
@@ -13379,13 +13379,13 @@
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
       <c r="M91" s="5"/>
-      <c r="N91" s="63" t="s">
+      <c r="N91" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="O91" s="63"/>
-      <c r="P91" s="63"/>
-      <c r="Q91" s="63"/>
-      <c r="R91" s="63"/>
+      <c r="O91" s="58"/>
+      <c r="P91" s="58"/>
+      <c r="Q91" s="58"/>
+      <c r="R91" s="58"/>
       <c r="S91" s="44" t="s">
         <v>7</v>
       </c>
@@ -13408,11 +13408,11 @@
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
       <c r="M92" s="5"/>
-      <c r="N92" s="63"/>
-      <c r="O92" s="63"/>
-      <c r="P92" s="63"/>
-      <c r="Q92" s="63"/>
-      <c r="R92" s="63"/>
+      <c r="N92" s="58"/>
+      <c r="O92" s="58"/>
+      <c r="P92" s="58"/>
+      <c r="Q92" s="58"/>
+      <c r="R92" s="58"/>
       <c r="S92" s="44" t="s">
         <v>8</v>
       </c>
@@ -13435,11 +13435,11 @@
       <c r="K93" s="5"/>
       <c r="L93" s="5"/>
       <c r="M93" s="5"/>
-      <c r="N93" s="63"/>
-      <c r="O93" s="63"/>
-      <c r="P93" s="63"/>
-      <c r="Q93" s="63"/>
-      <c r="R93" s="63"/>
+      <c r="N93" s="58"/>
+      <c r="O93" s="58"/>
+      <c r="P93" s="58"/>
+      <c r="Q93" s="58"/>
+      <c r="R93" s="58"/>
       <c r="S93" s="44" t="s">
         <v>9</v>
       </c>
@@ -13466,10 +13466,10 @@
       <c r="O94" s="5"/>
       <c r="P94" s="5"/>
       <c r="Q94" s="5"/>
-      <c r="R94" s="60" t="s">
+      <c r="R94" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="S94" s="61"/>
+      <c r="S94" s="72"/>
       <c r="T94" s="36">
         <f>T91</f>
         <v>0</v>
@@ -13500,10 +13500,10 @@
       <c r="O95" s="5"/>
       <c r="P95" s="5"/>
       <c r="Q95" s="5"/>
-      <c r="R95" s="60" t="s">
+      <c r="R95" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="S95" s="61"/>
+      <c r="S95" s="72"/>
       <c r="T95" s="36">
         <f t="shared" ref="T95:T96" si="25">T92</f>
         <v>0</v>
@@ -13534,10 +13534,10 @@
       <c r="O96" s="5"/>
       <c r="P96" s="5"/>
       <c r="Q96" s="5"/>
-      <c r="R96" s="60" t="s">
+      <c r="R96" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="S96" s="61"/>
+      <c r="S96" s="72"/>
       <c r="T96" s="36">
         <f t="shared" si="25"/>
         <v>0</v>
@@ -13568,10 +13568,10 @@
       <c r="O97" s="5"/>
       <c r="P97" s="5"/>
       <c r="Q97" s="5"/>
-      <c r="R97" s="60" t="s">
+      <c r="R97" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="S97" s="61"/>
+      <c r="S97" s="72"/>
       <c r="T97" s="36">
         <f>SUM(T94:T96)</f>
         <v>0</v>
@@ -13640,52 +13640,52 @@
       <c r="C100" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D100" s="89" t="s">
+      <c r="D100" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="E100" s="90"/>
-      <c r="F100" s="64" t="s">
+      <c r="E100" s="87"/>
+      <c r="F100" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="65"/>
-      <c r="H100" s="65"/>
-      <c r="I100" s="65"/>
-      <c r="J100" s="65"/>
-      <c r="K100" s="65"/>
-      <c r="L100" s="65"/>
-      <c r="M100" s="65"/>
-      <c r="N100" s="65"/>
-      <c r="O100" s="65"/>
+      <c r="G100" s="74"/>
+      <c r="H100" s="74"/>
+      <c r="I100" s="74"/>
+      <c r="J100" s="74"/>
+      <c r="K100" s="74"/>
+      <c r="L100" s="74"/>
+      <c r="M100" s="74"/>
+      <c r="N100" s="74"/>
+      <c r="O100" s="74"/>
       <c r="S100" s="30"/>
       <c r="T100" s="5"/>
     </row>
     <row r="101" spans="1:27" s="18" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="69">
+      <c r="A101" s="98">
         <v>1</v>
       </c>
-      <c r="B101" s="57" t="s">
+      <c r="B101" s="66" t="s">
         <v>112</v>
       </c>
       <c r="C101" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D101" s="91">
+      <c r="D101" s="88">
         <f>T42-T80-T91</f>
         <v>0</v>
       </c>
-      <c r="E101" s="92"/>
-      <c r="F101" s="63" t="s">
+      <c r="E101" s="89"/>
+      <c r="F101" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="G101" s="63"/>
-      <c r="H101" s="63"/>
-      <c r="I101" s="63"/>
-      <c r="J101" s="63"/>
-      <c r="K101" s="63"/>
-      <c r="L101" s="63"/>
-      <c r="M101" s="63"/>
-      <c r="N101" s="63"/>
-      <c r="O101" s="63"/>
+      <c r="G101" s="58"/>
+      <c r="H101" s="58"/>
+      <c r="I101" s="58"/>
+      <c r="J101" s="58"/>
+      <c r="K101" s="58"/>
+      <c r="L101" s="58"/>
+      <c r="M101" s="58"/>
+      <c r="N101" s="58"/>
+      <c r="O101" s="58"/>
       <c r="S101" s="30"/>
       <c r="T101" s="5"/>
       <c r="U101" s="1"/>
@@ -13697,54 +13697,54 @@
       <c r="AA101" s="1"/>
     </row>
     <row r="102" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="70"/>
-      <c r="B102" s="58"/>
+      <c r="A102" s="99"/>
+      <c r="B102" s="67"/>
       <c r="C102" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D102" s="91">
+      <c r="D102" s="88">
         <f>T43-T81-T92</f>
         <v>0</v>
       </c>
-      <c r="E102" s="92"/>
-      <c r="F102" s="63" t="s">
+      <c r="E102" s="89"/>
+      <c r="F102" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="G102" s="63"/>
-      <c r="H102" s="63"/>
-      <c r="I102" s="63"/>
-      <c r="J102" s="63"/>
-      <c r="K102" s="63"/>
-      <c r="L102" s="63"/>
-      <c r="M102" s="63"/>
-      <c r="N102" s="63"/>
-      <c r="O102" s="63"/>
+      <c r="G102" s="58"/>
+      <c r="H102" s="58"/>
+      <c r="I102" s="58"/>
+      <c r="J102" s="58"/>
+      <c r="K102" s="58"/>
+      <c r="L102" s="58"/>
+      <c r="M102" s="58"/>
+      <c r="N102" s="58"/>
+      <c r="O102" s="58"/>
       <c r="S102" s="30"/>
       <c r="T102" s="5"/>
     </row>
     <row r="103" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="71"/>
-      <c r="B103" s="59"/>
+      <c r="A103" s="100"/>
+      <c r="B103" s="68"/>
       <c r="C103" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D103" s="91">
+      <c r="D103" s="88">
         <f>T44-T82-T93</f>
         <v>0</v>
       </c>
-      <c r="E103" s="92"/>
-      <c r="F103" s="63" t="s">
+      <c r="E103" s="89"/>
+      <c r="F103" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="G103" s="63"/>
-      <c r="H103" s="63"/>
-      <c r="I103" s="63"/>
-      <c r="J103" s="63"/>
-      <c r="K103" s="63"/>
-      <c r="L103" s="63"/>
-      <c r="M103" s="63"/>
-      <c r="N103" s="63"/>
-      <c r="O103" s="63"/>
+      <c r="G103" s="58"/>
+      <c r="H103" s="58"/>
+      <c r="I103" s="58"/>
+      <c r="J103" s="58"/>
+      <c r="K103" s="58"/>
+      <c r="L103" s="58"/>
+      <c r="M103" s="58"/>
+      <c r="N103" s="58"/>
+      <c r="O103" s="58"/>
       <c r="S103" s="30"/>
       <c r="T103" s="5"/>
     </row>
@@ -13752,15 +13752,15 @@
       <c r="A104" s="49">
         <v>2</v>
       </c>
-      <c r="B104" s="97" t="s">
+      <c r="B104" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="C104" s="97"/>
-      <c r="D104" s="87">
+      <c r="C104" s="94"/>
+      <c r="D104" s="84">
         <f>SUM(D101:E103)</f>
         <v>0</v>
       </c>
-      <c r="E104" s="88"/>
+      <c r="E104" s="85"/>
       <c r="I104" s="18"/>
       <c r="J104" s="18"/>
       <c r="K104" s="41"/>
@@ -13787,12 +13787,12 @@
       <c r="N105" s="30"/>
       <c r="O105" s="30"/>
       <c r="P105" s="30"/>
-      <c r="Q105" s="99" t="s">
+      <c r="Q105" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="R105" s="99"/>
-      <c r="S105" s="99"/>
-      <c r="T105" s="99"/>
+      <c r="R105" s="56"/>
+      <c r="S105" s="56"/>
+      <c r="T105" s="56"/>
     </row>
     <row r="106" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A106" s="28"/>
@@ -13811,12 +13811,12 @@
       <c r="N106" s="30"/>
       <c r="O106" s="30"/>
       <c r="P106" s="30"/>
-      <c r="Q106" s="99" t="s">
+      <c r="Q106" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="R106" s="99"/>
-      <c r="S106" s="99"/>
-      <c r="T106" s="99"/>
+      <c r="R106" s="56"/>
+      <c r="S106" s="56"/>
+      <c r="T106" s="56"/>
     </row>
     <row r="107" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A107" s="28"/>
@@ -13974,37 +13974,66 @@
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="U69:U71"/>
-    <mergeCell ref="U72:U74"/>
-    <mergeCell ref="U33:U35"/>
-    <mergeCell ref="U36:U38"/>
-    <mergeCell ref="U39:U41"/>
-    <mergeCell ref="U51:U53"/>
-    <mergeCell ref="U54:U56"/>
-    <mergeCell ref="U57:U59"/>
-    <mergeCell ref="U60:U62"/>
-    <mergeCell ref="U63:U65"/>
-    <mergeCell ref="U66:U68"/>
-    <mergeCell ref="Q105:T105"/>
-    <mergeCell ref="Q106:T106"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="T47:T49"/>
-    <mergeCell ref="Q47:S47"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="R94:S94"/>
-    <mergeCell ref="R95:S95"/>
-    <mergeCell ref="R96:S96"/>
-    <mergeCell ref="T77:T78"/>
-    <mergeCell ref="S88:S89"/>
-    <mergeCell ref="T88:T89"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="R97:S97"/>
+    <mergeCell ref="S77:S78"/>
+    <mergeCell ref="N91:R93"/>
+    <mergeCell ref="F100:O100"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="F102:O102"/>
+    <mergeCell ref="F103:O103"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="G69:G71"/>
+    <mergeCell ref="G72:G74"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="E72:E74"/>
+    <mergeCell ref="F101:O101"/>
+    <mergeCell ref="N80:R82"/>
+    <mergeCell ref="N88:R90"/>
+    <mergeCell ref="N77:R79"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="R84:S84"/>
+    <mergeCell ref="R85:S85"/>
+    <mergeCell ref="R86:S86"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="D47:D50"/>
+    <mergeCell ref="E47:E50"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="Q48:S48"/>
+    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="F47:F50"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
     <mergeCell ref="A29:A32"/>
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="C29:C32"/>
@@ -14029,66 +14058,37 @@
     <mergeCell ref="N29:P29"/>
     <mergeCell ref="Q29:S29"/>
     <mergeCell ref="T29:T31"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="D47:D50"/>
-    <mergeCell ref="E47:E50"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="Q48:S48"/>
-    <mergeCell ref="F29:F32"/>
-    <mergeCell ref="F47:F50"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="F102:O102"/>
-    <mergeCell ref="F103:O103"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="G69:G71"/>
-    <mergeCell ref="G72:G74"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="E72:E74"/>
-    <mergeCell ref="F101:O101"/>
-    <mergeCell ref="N80:R82"/>
-    <mergeCell ref="N88:R90"/>
-    <mergeCell ref="N77:R79"/>
-    <mergeCell ref="R83:S83"/>
-    <mergeCell ref="R84:S84"/>
-    <mergeCell ref="R85:S85"/>
-    <mergeCell ref="R86:S86"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="R97:S97"/>
-    <mergeCell ref="S77:S78"/>
-    <mergeCell ref="N91:R93"/>
-    <mergeCell ref="F100:O100"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="Q105:T105"/>
+    <mergeCell ref="Q106:T106"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="T47:T49"/>
+    <mergeCell ref="Q47:S47"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="R94:S94"/>
+    <mergeCell ref="R95:S95"/>
+    <mergeCell ref="R96:S96"/>
+    <mergeCell ref="T77:T78"/>
+    <mergeCell ref="S88:S89"/>
+    <mergeCell ref="T88:T89"/>
+    <mergeCell ref="U69:U71"/>
+    <mergeCell ref="U72:U74"/>
+    <mergeCell ref="U33:U35"/>
+    <mergeCell ref="U36:U38"/>
+    <mergeCell ref="U39:U41"/>
+    <mergeCell ref="U51:U53"/>
+    <mergeCell ref="U54:U56"/>
+    <mergeCell ref="U57:U59"/>
+    <mergeCell ref="U60:U62"/>
+    <mergeCell ref="U63:U65"/>
+    <mergeCell ref="U66:U68"/>
   </mergeCells>
   <conditionalFormatting sqref="G51 G54 G57 G60 G63 G66 G69 G72">
     <cfRule type="cellIs" dxfId="1" priority="10" stopIfTrue="1" operator="equal">
@@ -14118,8 +14118,8 @@
   </sheetPr>
   <dimension ref="A1:AA113"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A66" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="AE60" sqref="AE60"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="U63" sqref="U63:U65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15254,52 +15254,52 @@
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:20" s="10" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="82"/>
+      <c r="T3" s="82"/>
     </row>
     <row r="4" spans="1:20" s="14" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="86"/>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="86"/>
-      <c r="S4" s="86"/>
-      <c r="T4" s="86"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
+      <c r="T4" s="83"/>
     </row>
     <row r="5" spans="1:20" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
@@ -15789,30 +15789,30 @@
       <c r="F29" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="62" t="s">
+      <c r="G29" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="H29" s="68" t="s">
+      <c r="H29" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="I29" s="68"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="68" t="s">
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="L29" s="68"/>
-      <c r="M29" s="68"/>
-      <c r="N29" s="68" t="s">
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="O29" s="68"/>
-      <c r="P29" s="68"/>
-      <c r="Q29" s="68" t="s">
+      <c r="O29" s="70"/>
+      <c r="P29" s="70"/>
+      <c r="Q29" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="R29" s="68"/>
-      <c r="S29" s="68"/>
-      <c r="T29" s="98" t="s">
+      <c r="R29" s="70"/>
+      <c r="S29" s="70"/>
+      <c r="T29" s="69" t="s">
         <v>46</v>
       </c>
     </row>
@@ -15823,28 +15823,28 @@
       <c r="D30" s="77"/>
       <c r="E30" s="80"/>
       <c r="F30" s="77"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="73" t="s">
+      <c r="G30" s="73"/>
+      <c r="H30" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="I30" s="74"/>
-      <c r="J30" s="75"/>
-      <c r="K30" s="73" t="s">
+      <c r="I30" s="96"/>
+      <c r="J30" s="97"/>
+      <c r="K30" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="L30" s="74"/>
-      <c r="M30" s="75"/>
-      <c r="N30" s="73" t="s">
+      <c r="L30" s="96"/>
+      <c r="M30" s="97"/>
+      <c r="N30" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="O30" s="74"/>
-      <c r="P30" s="75"/>
-      <c r="Q30" s="73" t="s">
+      <c r="O30" s="96"/>
+      <c r="P30" s="97"/>
+      <c r="Q30" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="R30" s="74"/>
-      <c r="S30" s="75"/>
-      <c r="T30" s="98"/>
+      <c r="R30" s="96"/>
+      <c r="S30" s="97"/>
+      <c r="T30" s="69"/>
     </row>
     <row r="31" spans="1:20" s="17" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="77"/>
@@ -15853,7 +15853,7 @@
       <c r="D31" s="77"/>
       <c r="E31" s="80"/>
       <c r="F31" s="77"/>
-      <c r="G31" s="62"/>
+      <c r="G31" s="73"/>
       <c r="H31" s="37" t="s">
         <v>37</v>
       </c>
@@ -15890,7 +15890,7 @@
       <c r="S31" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="T31" s="98"/>
+      <c r="T31" s="69"/>
     </row>
     <row r="32" spans="1:20" s="39" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="78"/>
@@ -15943,25 +15943,25 @@
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A33" s="96">
+      <c r="A33" s="93">
         <v>1</v>
       </c>
-      <c r="B33" s="63" t="s">
+      <c r="B33" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="66" t="s">
+      <c r="C33" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="63" t="s">
+      <c r="D33" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="E33" s="63" t="s">
+      <c r="E33" s="58" t="s">
         <v>16</v>
       </c>
       <c r="F33" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="67">
+      <c r="G33" s="59">
         <v>1000000</v>
       </c>
       <c r="H33" s="51"/>
@@ -15992,21 +15992,21 @@
         <f>$G$33*(J33+M33+P33+S33)</f>
         <v>0</v>
       </c>
-      <c r="U33" s="101">
+      <c r="U33" s="54">
         <f>SUM(T33:T35)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A34" s="96"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
+      <c r="A34" s="93"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
       <c r="F34" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="67"/>
+      <c r="G34" s="59"/>
       <c r="H34" s="51"/>
       <c r="I34" s="51"/>
       <c r="J34" s="51">
@@ -16035,18 +16035,18 @@
         <f t="shared" ref="T34:T35" si="4">$G$33*(J34+M34+P34+S34)</f>
         <v>0</v>
       </c>
-      <c r="U34" s="102"/>
+      <c r="U34" s="55"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A35" s="96"/>
-      <c r="B35" s="63"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
+      <c r="A35" s="93"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
       <c r="F35" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="G35" s="67"/>
+      <c r="G35" s="59"/>
       <c r="H35" s="51"/>
       <c r="I35" s="51"/>
       <c r="J35" s="51">
@@ -16075,28 +16075,28 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U35" s="102"/>
+      <c r="U35" s="55"/>
     </row>
     <row r="36" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="54">
+      <c r="A36" s="90">
         <v>2</v>
       </c>
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="57" t="s">
+      <c r="C36" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="57" t="s">
+      <c r="D36" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="93" t="s">
+      <c r="E36" s="63" t="s">
         <v>17</v>
       </c>
       <c r="F36" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G36" s="82">
+      <c r="G36" s="60">
         <v>1000000</v>
       </c>
       <c r="H36" s="51"/>
@@ -16127,21 +16127,21 @@
         <f>$G$36*(J36+M36+P36+S36)</f>
         <v>0</v>
       </c>
-      <c r="U36" s="101">
+      <c r="U36" s="54">
         <f>SUM(T36:T38)-SUM(U51:U74)</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="94"/>
+      <c r="A37" s="91"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="64"/>
       <c r="F37" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="G37" s="83"/>
+      <c r="G37" s="61"/>
       <c r="H37" s="51"/>
       <c r="I37" s="51"/>
       <c r="J37" s="51">
@@ -16170,18 +16170,18 @@
         <f t="shared" ref="T37:T38" si="5">$G$36*(J37+M37+P37+S37)</f>
         <v>0</v>
       </c>
-      <c r="U37" s="102"/>
+      <c r="U37" s="55"/>
     </row>
     <row r="38" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="55"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="95"/>
+      <c r="A38" s="91"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="65"/>
       <c r="F38" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="G38" s="84"/>
+      <c r="G38" s="62"/>
       <c r="H38" s="51"/>
       <c r="I38" s="51"/>
       <c r="J38" s="51">
@@ -16210,24 +16210,24 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U38" s="102"/>
+      <c r="U38" s="55"/>
     </row>
     <row r="39" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="55"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="57" t="s">
+      <c r="A39" s="91"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="D39" s="69" t="s">
+      <c r="D39" s="98" t="s">
         <v>114</v>
       </c>
-      <c r="E39" s="57" t="s">
+      <c r="E39" s="66" t="s">
         <v>115</v>
       </c>
       <c r="F39" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G39" s="82">
+      <c r="G39" s="60">
         <v>1000000</v>
       </c>
       <c r="H39" s="51"/>
@@ -16258,21 +16258,21 @@
         <f>$G$36*(J39+M39+P39+S39)</f>
         <v>0</v>
       </c>
-      <c r="U39" s="101">
+      <c r="U39" s="54">
         <f t="shared" ref="U39" si="6">SUM(T39:T41)</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="55"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="58"/>
+      <c r="A40" s="91"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="67"/>
       <c r="F40" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="83"/>
+      <c r="G40" s="61"/>
       <c r="H40" s="51"/>
       <c r="I40" s="51"/>
       <c r="J40" s="51">
@@ -16301,18 +16301,18 @@
         <f t="shared" ref="T40:T41" si="7">$G$36*(J40+M40+P40+S40)</f>
         <v>0</v>
       </c>
-      <c r="U40" s="102"/>
+      <c r="U40" s="55"/>
     </row>
     <row r="41" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="56"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="59"/>
+      <c r="A41" s="92"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="100"/>
+      <c r="E41" s="68"/>
       <c r="F41" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="84"/>
+      <c r="G41" s="62"/>
       <c r="H41" s="51"/>
       <c r="I41" s="51"/>
       <c r="J41" s="51">
@@ -16341,7 +16341,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U41" s="102"/>
+      <c r="U41" s="55"/>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="29"/>
@@ -16361,10 +16361,10 @@
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
-      <c r="R42" s="60" t="s">
+      <c r="R42" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="S42" s="61"/>
+      <c r="S42" s="72"/>
       <c r="T42" s="36">
         <f>T33+T36+T39</f>
         <v>0</v>
@@ -16395,10 +16395,10 @@
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
-      <c r="R43" s="60" t="s">
+      <c r="R43" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="S43" s="61"/>
+      <c r="S43" s="72"/>
       <c r="T43" s="36">
         <f>T34+T37+T40</f>
         <v>0</v>
@@ -16429,10 +16429,10 @@
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
-      <c r="R44" s="60" t="s">
+      <c r="R44" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="S44" s="61"/>
+      <c r="S44" s="72"/>
       <c r="T44" s="36">
         <f>T35+T38+T41</f>
         <v>0</v>
@@ -16463,10 +16463,10 @@
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
-      <c r="R45" s="60" t="s">
+      <c r="R45" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="S45" s="61"/>
+      <c r="S45" s="72"/>
       <c r="T45" s="36">
         <f>SUM(T42:T44)</f>
         <v>0</v>
@@ -16519,30 +16519,30 @@
       <c r="F47" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="G47" s="62" t="s">
+      <c r="G47" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="H47" s="68" t="s">
+      <c r="H47" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="I47" s="68"/>
-      <c r="J47" s="68"/>
-      <c r="K47" s="68" t="s">
+      <c r="I47" s="70"/>
+      <c r="J47" s="70"/>
+      <c r="K47" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="L47" s="68"/>
-      <c r="M47" s="68"/>
-      <c r="N47" s="68" t="s">
+      <c r="L47" s="70"/>
+      <c r="M47" s="70"/>
+      <c r="N47" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="O47" s="68"/>
-      <c r="P47" s="68"/>
-      <c r="Q47" s="68" t="s">
+      <c r="O47" s="70"/>
+      <c r="P47" s="70"/>
+      <c r="Q47" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="R47" s="68"/>
-      <c r="S47" s="68"/>
-      <c r="T47" s="98" t="s">
+      <c r="R47" s="70"/>
+      <c r="S47" s="70"/>
+      <c r="T47" s="69" t="s">
         <v>46</v>
       </c>
     </row>
@@ -16553,28 +16553,28 @@
       <c r="D48" s="77"/>
       <c r="E48" s="80"/>
       <c r="F48" s="77"/>
-      <c r="G48" s="62"/>
-      <c r="H48" s="73" t="s">
+      <c r="G48" s="73"/>
+      <c r="H48" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="I48" s="74"/>
-      <c r="J48" s="75"/>
-      <c r="K48" s="73" t="s">
+      <c r="I48" s="96"/>
+      <c r="J48" s="97"/>
+      <c r="K48" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="L48" s="74"/>
-      <c r="M48" s="75"/>
-      <c r="N48" s="73" t="s">
+      <c r="L48" s="96"/>
+      <c r="M48" s="97"/>
+      <c r="N48" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="O48" s="74"/>
-      <c r="P48" s="75"/>
-      <c r="Q48" s="73" t="s">
+      <c r="O48" s="96"/>
+      <c r="P48" s="97"/>
+      <c r="Q48" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="R48" s="74"/>
-      <c r="S48" s="75"/>
-      <c r="T48" s="98"/>
+      <c r="R48" s="96"/>
+      <c r="S48" s="97"/>
+      <c r="T48" s="69"/>
     </row>
     <row r="49" spans="1:27" s="17" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="77"/>
@@ -16583,7 +16583,7 @@
       <c r="D49" s="77"/>
       <c r="E49" s="80"/>
       <c r="F49" s="77"/>
-      <c r="G49" s="62"/>
+      <c r="G49" s="73"/>
       <c r="H49" s="37" t="s">
         <v>37</v>
       </c>
@@ -16620,7 +16620,7 @@
       <c r="S49" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="T49" s="98"/>
+      <c r="T49" s="69"/>
     </row>
     <row r="50" spans="1:27" s="39" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A50" s="78"/>
@@ -16673,25 +16673,25 @@
       </c>
     </row>
     <row r="51" spans="1:27" s="35" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="54">
+      <c r="A51" s="90">
         <v>1</v>
       </c>
-      <c r="B51" s="93" t="s">
+      <c r="B51" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="93" t="s">
+      <c r="C51" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="93" t="s">
+      <c r="D51" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="E51" s="63" t="s">
+      <c r="E51" s="58" t="s">
         <v>25</v>
       </c>
       <c r="F51" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G51" s="67">
+      <c r="G51" s="59">
         <v>1000000</v>
       </c>
       <c r="H51" s="51"/>
@@ -16722,21 +16722,21 @@
         <f>$G$51*(J51+M51+P51+S51)</f>
         <v>0</v>
       </c>
-      <c r="U51" s="101">
+      <c r="U51" s="54">
         <f>SUM(T51:T53)</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:27" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="55"/>
-      <c r="B52" s="94"/>
-      <c r="C52" s="94"/>
-      <c r="D52" s="94"/>
-      <c r="E52" s="63"/>
+      <c r="A52" s="91"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="58"/>
       <c r="F52" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="G52" s="67"/>
+      <c r="G52" s="59"/>
       <c r="H52" s="51"/>
       <c r="I52" s="51"/>
       <c r="J52" s="51">
@@ -16765,18 +16765,18 @@
         <f t="shared" ref="T52:T53" si="12">$G$51*(J52+M52+P52+S52)</f>
         <v>0</v>
       </c>
-      <c r="U52" s="102"/>
+      <c r="U52" s="55"/>
     </row>
     <row r="53" spans="1:27" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="55"/>
-      <c r="B53" s="94"/>
-      <c r="C53" s="94"/>
-      <c r="D53" s="94"/>
-      <c r="E53" s="63"/>
+      <c r="A53" s="91"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="64"/>
+      <c r="E53" s="58"/>
       <c r="F53" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="G53" s="67"/>
+      <c r="G53" s="59"/>
       <c r="H53" s="51"/>
       <c r="I53" s="51"/>
       <c r="J53" s="51">
@@ -16805,20 +16805,20 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U53" s="102"/>
+      <c r="U53" s="55"/>
     </row>
     <row r="54" spans="1:27" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="55"/>
-      <c r="B54" s="94"/>
-      <c r="C54" s="94"/>
-      <c r="D54" s="94"/>
-      <c r="E54" s="66" t="s">
+      <c r="A54" s="91"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="57" t="s">
         <v>26</v>
       </c>
       <c r="F54" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G54" s="67">
+      <c r="G54" s="59">
         <v>1000000</v>
       </c>
       <c r="H54" s="51"/>
@@ -16849,21 +16849,21 @@
         <f>$G$54*(J54+M54+P54+S54)</f>
         <v>0</v>
       </c>
-      <c r="U54" s="101">
+      <c r="U54" s="54">
         <f>SUM(T54:T56)</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:27" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="55"/>
-      <c r="B55" s="94"/>
-      <c r="C55" s="94"/>
-      <c r="D55" s="94"/>
-      <c r="E55" s="66"/>
+      <c r="A55" s="91"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="57"/>
       <c r="F55" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="G55" s="67"/>
+      <c r="G55" s="59"/>
       <c r="H55" s="51"/>
       <c r="I55" s="51"/>
       <c r="J55" s="51">
@@ -16892,18 +16892,18 @@
         <f>$G$54*(J55+M55+P55+S55)</f>
         <v>0</v>
       </c>
-      <c r="U55" s="102"/>
+      <c r="U55" s="55"/>
     </row>
     <row r="56" spans="1:27" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="55"/>
-      <c r="B56" s="94"/>
-      <c r="C56" s="94"/>
-      <c r="D56" s="94"/>
-      <c r="E56" s="66"/>
+      <c r="A56" s="91"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="57"/>
       <c r="F56" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="G56" s="67"/>
+      <c r="G56" s="59"/>
       <c r="H56" s="51"/>
       <c r="I56" s="51"/>
       <c r="J56" s="51">
@@ -16932,20 +16932,20 @@
         <f>$G$54*(J56+M56+P56+S56)</f>
         <v>0</v>
       </c>
-      <c r="U56" s="102"/>
+      <c r="U56" s="55"/>
     </row>
     <row r="57" spans="1:27" s="35" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="55"/>
-      <c r="B57" s="94"/>
-      <c r="C57" s="94"/>
-      <c r="D57" s="94"/>
-      <c r="E57" s="66" t="s">
+      <c r="A57" s="91"/>
+      <c r="B57" s="64"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="64"/>
+      <c r="E57" s="57" t="s">
         <v>99</v>
       </c>
       <c r="F57" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G57" s="67">
+      <c r="G57" s="59">
         <v>1000000</v>
       </c>
       <c r="H57" s="51"/>
@@ -16976,21 +16976,21 @@
         <f>$G$57*(J57+M57+P57+S57)</f>
         <v>0</v>
       </c>
-      <c r="U57" s="101">
+      <c r="U57" s="54">
         <f>SUM(T57:T59)</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:27" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="55"/>
-      <c r="B58" s="94"/>
-      <c r="C58" s="94"/>
-      <c r="D58" s="94"/>
-      <c r="E58" s="66"/>
+      <c r="A58" s="91"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="57"/>
       <c r="F58" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="67"/>
+      <c r="G58" s="59"/>
       <c r="H58" s="51"/>
       <c r="I58" s="51"/>
       <c r="J58" s="51">
@@ -17019,18 +17019,18 @@
         <f t="shared" ref="T58:T59" si="13">$G$57*(J58+M58+P58+S58)</f>
         <v>0</v>
       </c>
-      <c r="U58" s="102"/>
+      <c r="U58" s="55"/>
     </row>
     <row r="59" spans="1:27" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="55"/>
-      <c r="B59" s="94"/>
-      <c r="C59" s="94"/>
-      <c r="D59" s="94"/>
-      <c r="E59" s="66"/>
+      <c r="A59" s="91"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="64"/>
+      <c r="E59" s="57"/>
       <c r="F59" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="G59" s="67"/>
+      <c r="G59" s="59"/>
       <c r="H59" s="51"/>
       <c r="I59" s="51"/>
       <c r="J59" s="51">
@@ -17059,20 +17059,20 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="U59" s="102"/>
+      <c r="U59" s="55"/>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A60" s="55"/>
-      <c r="B60" s="94"/>
-      <c r="C60" s="94"/>
-      <c r="D60" s="94"/>
-      <c r="E60" s="66" t="s">
+      <c r="A60" s="91"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="57" t="s">
         <v>27</v>
       </c>
       <c r="F60" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G60" s="67">
+      <c r="G60" s="59">
         <v>1000000</v>
       </c>
       <c r="H60" s="51"/>
@@ -17103,7 +17103,7 @@
         <f>$G$60*(J60+M60+P60+S60)</f>
         <v>0</v>
       </c>
-      <c r="U60" s="101">
+      <c r="U60" s="54">
         <f>SUM(T60:T62)</f>
         <v>0</v>
       </c>
@@ -17115,15 +17115,15 @@
       <c r="AA60" s="3"/>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A61" s="55"/>
-      <c r="B61" s="94"/>
-      <c r="C61" s="94"/>
-      <c r="D61" s="94"/>
-      <c r="E61" s="66"/>
+      <c r="A61" s="91"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="64"/>
+      <c r="E61" s="57"/>
       <c r="F61" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="G61" s="67"/>
+      <c r="G61" s="59"/>
       <c r="H61" s="51"/>
       <c r="I61" s="51"/>
       <c r="J61" s="51">
@@ -17152,7 +17152,7 @@
         <f>$G$60*(J61+M61+P61+S61)</f>
         <v>0</v>
       </c>
-      <c r="U61" s="102"/>
+      <c r="U61" s="55"/>
       <c r="V61" s="3"/>
       <c r="W61" s="3"/>
       <c r="X61" s="3"/>
@@ -17161,15 +17161,15 @@
       <c r="AA61" s="3"/>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A62" s="55"/>
-      <c r="B62" s="94"/>
-      <c r="C62" s="94"/>
-      <c r="D62" s="94"/>
-      <c r="E62" s="66"/>
+      <c r="A62" s="91"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="57"/>
       <c r="F62" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="G62" s="67"/>
+      <c r="G62" s="59"/>
       <c r="H62" s="51"/>
       <c r="I62" s="51"/>
       <c r="J62" s="51">
@@ -17198,7 +17198,7 @@
         <f>$G$60*(J62+M62+P62+S62)</f>
         <v>0</v>
       </c>
-      <c r="U62" s="102"/>
+      <c r="U62" s="55"/>
       <c r="V62" s="3"/>
       <c r="W62" s="3"/>
       <c r="X62" s="3"/>
@@ -17207,17 +17207,17 @@
       <c r="AA62" s="3"/>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A63" s="55"/>
-      <c r="B63" s="94"/>
-      <c r="C63" s="94"/>
-      <c r="D63" s="94"/>
-      <c r="E63" s="66" t="s">
+      <c r="A63" s="91"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="57" t="s">
         <v>28</v>
       </c>
       <c r="F63" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G63" s="67">
+      <c r="G63" s="59">
         <v>1000000</v>
       </c>
       <c r="H63" s="51"/>
@@ -17248,7 +17248,7 @@
         <f>$G$63*(J63+M63+P63+S63)</f>
         <v>0</v>
       </c>
-      <c r="U63" s="101">
+      <c r="U63" s="54">
         <f>SUM(T63:T65)</f>
         <v>0</v>
       </c>
@@ -17260,15 +17260,15 @@
       <c r="AA63" s="3"/>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A64" s="55"/>
-      <c r="B64" s="94"/>
-      <c r="C64" s="94"/>
-      <c r="D64" s="94"/>
-      <c r="E64" s="66"/>
+      <c r="A64" s="91"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="57"/>
       <c r="F64" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="G64" s="67"/>
+      <c r="G64" s="59"/>
       <c r="H64" s="51"/>
       <c r="I64" s="51"/>
       <c r="J64" s="51">
@@ -17297,7 +17297,7 @@
         <f>$G$63*(J64+M64+P64+S64)</f>
         <v>0</v>
       </c>
-      <c r="U64" s="102"/>
+      <c r="U64" s="55"/>
       <c r="V64" s="3"/>
       <c r="W64" s="3"/>
       <c r="X64" s="3"/>
@@ -17306,15 +17306,15 @@
       <c r="AA64" s="3"/>
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A65" s="55"/>
-      <c r="B65" s="94"/>
-      <c r="C65" s="94"/>
-      <c r="D65" s="94"/>
-      <c r="E65" s="66"/>
+      <c r="A65" s="91"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="64"/>
+      <c r="D65" s="64"/>
+      <c r="E65" s="57"/>
       <c r="F65" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="G65" s="67"/>
+      <c r="G65" s="59"/>
       <c r="H65" s="51"/>
       <c r="I65" s="51"/>
       <c r="J65" s="51">
@@ -17343,7 +17343,7 @@
         <f>$G$63*(J65+M65+P65+S65)</f>
         <v>0</v>
       </c>
-      <c r="U65" s="102"/>
+      <c r="U65" s="55"/>
       <c r="V65" s="3"/>
       <c r="W65" s="3"/>
       <c r="X65" s="3"/>
@@ -17352,17 +17352,17 @@
       <c r="AA65" s="3"/>
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A66" s="55"/>
-      <c r="B66" s="94"/>
-      <c r="C66" s="94"/>
-      <c r="D66" s="94"/>
-      <c r="E66" s="66" t="s">
+      <c r="A66" s="91"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="57" t="s">
         <v>29</v>
       </c>
       <c r="F66" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G66" s="67">
+      <c r="G66" s="59">
         <v>1000000</v>
       </c>
       <c r="H66" s="51"/>
@@ -17393,7 +17393,7 @@
         <f>$G$66*(J66+M66+P66+S66)</f>
         <v>0</v>
       </c>
-      <c r="U66" s="101">
+      <c r="U66" s="54">
         <f>SUM(T66:T68)</f>
         <v>0</v>
       </c>
@@ -17405,15 +17405,15 @@
       <c r="AA66" s="3"/>
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A67" s="55"/>
-      <c r="B67" s="94"/>
-      <c r="C67" s="94"/>
-      <c r="D67" s="94"/>
-      <c r="E67" s="66"/>
+      <c r="A67" s="91"/>
+      <c r="B67" s="64"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="57"/>
       <c r="F67" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="G67" s="67"/>
+      <c r="G67" s="59"/>
       <c r="H67" s="51"/>
       <c r="I67" s="51"/>
       <c r="J67" s="51">
@@ -17442,7 +17442,7 @@
         <f>$G$66*(J67+M67+P67+S67)</f>
         <v>0</v>
       </c>
-      <c r="U67" s="102"/>
+      <c r="U67" s="55"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
@@ -17451,15 +17451,15 @@
       <c r="AA67" s="3"/>
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A68" s="55"/>
-      <c r="B68" s="94"/>
-      <c r="C68" s="94"/>
-      <c r="D68" s="94"/>
-      <c r="E68" s="66"/>
+      <c r="A68" s="91"/>
+      <c r="B68" s="64"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="57"/>
       <c r="F68" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="G68" s="67"/>
+      <c r="G68" s="59"/>
       <c r="H68" s="51"/>
       <c r="I68" s="51"/>
       <c r="J68" s="51">
@@ -17488,7 +17488,7 @@
         <f>$G$66*(J68+M68+P68+S68)</f>
         <v>0</v>
       </c>
-      <c r="U68" s="102"/>
+      <c r="U68" s="55"/>
       <c r="V68" s="3"/>
       <c r="W68" s="3"/>
       <c r="X68" s="3"/>
@@ -17497,17 +17497,17 @@
       <c r="AA68" s="3"/>
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A69" s="55"/>
-      <c r="B69" s="94"/>
-      <c r="C69" s="94"/>
-      <c r="D69" s="94"/>
-      <c r="E69" s="66" t="s">
+      <c r="A69" s="91"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="57" t="s">
         <v>30</v>
       </c>
       <c r="F69" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G69" s="67">
+      <c r="G69" s="59">
         <v>1000000</v>
       </c>
       <c r="H69" s="51"/>
@@ -17538,7 +17538,7 @@
         <f>$G$69*(J69+M69+P69+S69)</f>
         <v>0</v>
       </c>
-      <c r="U69" s="101">
+      <c r="U69" s="54">
         <f>SUM(T69:T71)</f>
         <v>0</v>
       </c>
@@ -17550,15 +17550,15 @@
       <c r="AA69" s="3"/>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A70" s="55"/>
-      <c r="B70" s="94"/>
-      <c r="C70" s="94"/>
-      <c r="D70" s="94"/>
-      <c r="E70" s="66"/>
+      <c r="A70" s="91"/>
+      <c r="B70" s="64"/>
+      <c r="C70" s="64"/>
+      <c r="D70" s="64"/>
+      <c r="E70" s="57"/>
       <c r="F70" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="G70" s="67"/>
+      <c r="G70" s="59"/>
       <c r="H70" s="51"/>
       <c r="I70" s="51"/>
       <c r="J70" s="51">
@@ -17587,7 +17587,7 @@
         <f>$G$69*(J70+M70+P70+S70)</f>
         <v>0</v>
       </c>
-      <c r="U70" s="102"/>
+      <c r="U70" s="55"/>
       <c r="V70" s="3"/>
       <c r="W70" s="3"/>
       <c r="X70" s="3"/>
@@ -17596,15 +17596,15 @@
       <c r="AA70" s="3"/>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A71" s="55"/>
-      <c r="B71" s="94"/>
-      <c r="C71" s="94"/>
-      <c r="D71" s="94"/>
-      <c r="E71" s="66"/>
+      <c r="A71" s="91"/>
+      <c r="B71" s="64"/>
+      <c r="C71" s="64"/>
+      <c r="D71" s="64"/>
+      <c r="E71" s="57"/>
       <c r="F71" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="G71" s="67"/>
+      <c r="G71" s="59"/>
       <c r="H71" s="51"/>
       <c r="I71" s="51"/>
       <c r="J71" s="51">
@@ -17633,7 +17633,7 @@
         <f>$G$69*(J71+M71+P71+S71)</f>
         <v>0</v>
       </c>
-      <c r="U71" s="102"/>
+      <c r="U71" s="55"/>
       <c r="V71" s="3"/>
       <c r="W71" s="3"/>
       <c r="X71" s="3"/>
@@ -17642,17 +17642,17 @@
       <c r="AA71" s="3"/>
     </row>
     <row r="72" spans="1:27" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="55"/>
-      <c r="B72" s="94"/>
-      <c r="C72" s="94"/>
-      <c r="D72" s="94"/>
-      <c r="E72" s="66" t="s">
+      <c r="A72" s="91"/>
+      <c r="B72" s="64"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="64"/>
+      <c r="E72" s="57" t="s">
         <v>31</v>
       </c>
       <c r="F72" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G72" s="67">
+      <c r="G72" s="59">
         <v>1000000</v>
       </c>
       <c r="H72" s="51"/>
@@ -17683,7 +17683,7 @@
         <f>$G$72*(J72+M72+P72+S72)</f>
         <v>0</v>
       </c>
-      <c r="U72" s="101">
+      <c r="U72" s="54">
         <f>SUM(T72:T74)</f>
         <v>0</v>
       </c>
@@ -17695,15 +17695,15 @@
       <c r="AA72" s="3"/>
     </row>
     <row r="73" spans="1:27" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="55"/>
-      <c r="B73" s="94"/>
-      <c r="C73" s="94"/>
-      <c r="D73" s="94"/>
-      <c r="E73" s="66"/>
+      <c r="A73" s="91"/>
+      <c r="B73" s="64"/>
+      <c r="C73" s="64"/>
+      <c r="D73" s="64"/>
+      <c r="E73" s="57"/>
       <c r="F73" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="G73" s="67"/>
+      <c r="G73" s="59"/>
       <c r="H73" s="51"/>
       <c r="I73" s="51"/>
       <c r="J73" s="51">
@@ -17732,7 +17732,7 @@
         <f t="shared" ref="T73:T74" si="14">$G$72*(J73+M73+P73+S73)</f>
         <v>0</v>
       </c>
-      <c r="U73" s="102"/>
+      <c r="U73" s="55"/>
       <c r="V73" s="3"/>
       <c r="W73" s="3"/>
       <c r="X73" s="3"/>
@@ -17741,15 +17741,15 @@
       <c r="AA73" s="3"/>
     </row>
     <row r="74" spans="1:27" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="56"/>
-      <c r="B74" s="95"/>
-      <c r="C74" s="95"/>
-      <c r="D74" s="95"/>
-      <c r="E74" s="66"/>
+      <c r="A74" s="92"/>
+      <c r="B74" s="65"/>
+      <c r="C74" s="65"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="57"/>
       <c r="F74" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="G74" s="67"/>
+      <c r="G74" s="59"/>
       <c r="H74" s="51"/>
       <c r="I74" s="51"/>
       <c r="J74" s="51">
@@ -17778,7 +17778,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U74" s="102"/>
+      <c r="U74" s="55"/>
       <c r="V74" s="3"/>
       <c r="W74" s="3"/>
       <c r="X74" s="3"/>
@@ -17850,17 +17850,17 @@
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
-      <c r="N77" s="72" t="s">
+      <c r="N77" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="O77" s="72"/>
-      <c r="P77" s="72"/>
-      <c r="Q77" s="72"/>
-      <c r="R77" s="72"/>
-      <c r="S77" s="62" t="s">
+      <c r="O77" s="101"/>
+      <c r="P77" s="101"/>
+      <c r="Q77" s="101"/>
+      <c r="R77" s="101"/>
+      <c r="S77" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="T77" s="62" t="s">
+      <c r="T77" s="73" t="s">
         <v>46</v>
       </c>
       <c r="U77" s="3"/>
@@ -17885,13 +17885,13 @@
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
       <c r="M78" s="5"/>
-      <c r="N78" s="72"/>
-      <c r="O78" s="72"/>
-      <c r="P78" s="72"/>
-      <c r="Q78" s="72"/>
-      <c r="R78" s="72"/>
-      <c r="S78" s="62"/>
-      <c r="T78" s="62"/>
+      <c r="N78" s="101"/>
+      <c r="O78" s="101"/>
+      <c r="P78" s="101"/>
+      <c r="Q78" s="101"/>
+      <c r="R78" s="101"/>
+      <c r="S78" s="73"/>
+      <c r="T78" s="73"/>
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
       <c r="W78" s="3"/>
@@ -17914,11 +17914,11 @@
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
       <c r="M79" s="5"/>
-      <c r="N79" s="72"/>
-      <c r="O79" s="72"/>
-      <c r="P79" s="72"/>
-      <c r="Q79" s="72"/>
-      <c r="R79" s="72"/>
+      <c r="N79" s="101"/>
+      <c r="O79" s="101"/>
+      <c r="P79" s="101"/>
+      <c r="Q79" s="101"/>
+      <c r="R79" s="101"/>
       <c r="S79" s="52"/>
       <c r="T79" s="45" t="s">
         <v>53</v>
@@ -17945,13 +17945,13 @@
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
       <c r="M80" s="5"/>
-      <c r="N80" s="63" t="s">
+      <c r="N80" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="O80" s="63"/>
-      <c r="P80" s="63"/>
-      <c r="Q80" s="63"/>
-      <c r="R80" s="63"/>
+      <c r="O80" s="58"/>
+      <c r="P80" s="58"/>
+      <c r="Q80" s="58"/>
+      <c r="R80" s="58"/>
       <c r="S80" s="53" t="s">
         <v>7</v>
       </c>
@@ -17974,11 +17974,11 @@
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
       <c r="M81" s="5"/>
-      <c r="N81" s="63"/>
-      <c r="O81" s="63"/>
-      <c r="P81" s="63"/>
-      <c r="Q81" s="63"/>
-      <c r="R81" s="63"/>
+      <c r="N81" s="58"/>
+      <c r="O81" s="58"/>
+      <c r="P81" s="58"/>
+      <c r="Q81" s="58"/>
+      <c r="R81" s="58"/>
       <c r="S81" s="53" t="s">
         <v>8</v>
       </c>
@@ -18001,11 +18001,11 @@
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
-      <c r="N82" s="63"/>
-      <c r="O82" s="63"/>
-      <c r="P82" s="63"/>
-      <c r="Q82" s="63"/>
-      <c r="R82" s="63"/>
+      <c r="N82" s="58"/>
+      <c r="O82" s="58"/>
+      <c r="P82" s="58"/>
+      <c r="Q82" s="58"/>
+      <c r="R82" s="58"/>
       <c r="S82" s="53" t="s">
         <v>9</v>
       </c>
@@ -18032,10 +18032,10 @@
       <c r="O83" s="5"/>
       <c r="P83" s="5"/>
       <c r="Q83" s="5"/>
-      <c r="R83" s="60" t="s">
+      <c r="R83" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="S83" s="61"/>
+      <c r="S83" s="72"/>
       <c r="T83" s="36">
         <f>T80</f>
         <v>0</v>
@@ -18066,10 +18066,10 @@
       <c r="O84" s="5"/>
       <c r="P84" s="5"/>
       <c r="Q84" s="5"/>
-      <c r="R84" s="60" t="s">
+      <c r="R84" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="S84" s="61"/>
+      <c r="S84" s="72"/>
       <c r="T84" s="36">
         <f t="shared" ref="T84:T85" si="16">T81</f>
         <v>0</v>
@@ -18100,10 +18100,10 @@
       <c r="O85" s="5"/>
       <c r="P85" s="5"/>
       <c r="Q85" s="5"/>
-      <c r="R85" s="60" t="s">
+      <c r="R85" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="S85" s="61"/>
+      <c r="S85" s="72"/>
       <c r="T85" s="36">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -18134,10 +18134,10 @@
       <c r="O86" s="5"/>
       <c r="P86" s="5"/>
       <c r="Q86" s="5"/>
-      <c r="R86" s="60" t="s">
+      <c r="R86" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="S86" s="61"/>
+      <c r="S86" s="72"/>
       <c r="T86" s="36">
         <f>SUM(T83:T85)</f>
         <v>0</v>
@@ -18186,17 +18186,17 @@
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
       <c r="M88" s="5"/>
-      <c r="N88" s="72" t="s">
+      <c r="N88" s="101" t="s">
         <v>109</v>
       </c>
-      <c r="O88" s="72"/>
-      <c r="P88" s="72"/>
-      <c r="Q88" s="72"/>
-      <c r="R88" s="72"/>
-      <c r="S88" s="62" t="s">
+      <c r="O88" s="101"/>
+      <c r="P88" s="101"/>
+      <c r="Q88" s="101"/>
+      <c r="R88" s="101"/>
+      <c r="S88" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="T88" s="65" t="s">
+      <c r="T88" s="74" t="s">
         <v>46</v>
       </c>
       <c r="U88" s="3"/>
@@ -18221,13 +18221,13 @@
       <c r="K89" s="5"/>
       <c r="L89" s="5"/>
       <c r="M89" s="5"/>
-      <c r="N89" s="72"/>
-      <c r="O89" s="72"/>
-      <c r="P89" s="72"/>
-      <c r="Q89" s="72"/>
-      <c r="R89" s="72"/>
-      <c r="S89" s="62"/>
-      <c r="T89" s="100"/>
+      <c r="N89" s="101"/>
+      <c r="O89" s="101"/>
+      <c r="P89" s="101"/>
+      <c r="Q89" s="101"/>
+      <c r="R89" s="101"/>
+      <c r="S89" s="73"/>
+      <c r="T89" s="75"/>
       <c r="U89" s="3"/>
       <c r="V89" s="3"/>
       <c r="W89" s="3"/>
@@ -18250,11 +18250,11 @@
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
       <c r="M90" s="5"/>
-      <c r="N90" s="72"/>
-      <c r="O90" s="72"/>
-      <c r="P90" s="72"/>
-      <c r="Q90" s="72"/>
-      <c r="R90" s="72"/>
+      <c r="N90" s="101"/>
+      <c r="O90" s="101"/>
+      <c r="P90" s="101"/>
+      <c r="Q90" s="101"/>
+      <c r="R90" s="101"/>
       <c r="S90" s="52"/>
       <c r="T90" s="45" t="s">
         <v>54</v>
@@ -18281,13 +18281,13 @@
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
       <c r="M91" s="5"/>
-      <c r="N91" s="63" t="s">
+      <c r="N91" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="O91" s="63"/>
-      <c r="P91" s="63"/>
-      <c r="Q91" s="63"/>
-      <c r="R91" s="63"/>
+      <c r="O91" s="58"/>
+      <c r="P91" s="58"/>
+      <c r="Q91" s="58"/>
+      <c r="R91" s="58"/>
       <c r="S91" s="53" t="s">
         <v>7</v>
       </c>
@@ -18310,11 +18310,11 @@
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
       <c r="M92" s="5"/>
-      <c r="N92" s="63"/>
-      <c r="O92" s="63"/>
-      <c r="P92" s="63"/>
-      <c r="Q92" s="63"/>
-      <c r="R92" s="63"/>
+      <c r="N92" s="58"/>
+      <c r="O92" s="58"/>
+      <c r="P92" s="58"/>
+      <c r="Q92" s="58"/>
+      <c r="R92" s="58"/>
       <c r="S92" s="53" t="s">
         <v>8</v>
       </c>
@@ -18337,11 +18337,11 @@
       <c r="K93" s="5"/>
       <c r="L93" s="5"/>
       <c r="M93" s="5"/>
-      <c r="N93" s="63"/>
-      <c r="O93" s="63"/>
-      <c r="P93" s="63"/>
-      <c r="Q93" s="63"/>
-      <c r="R93" s="63"/>
+      <c r="N93" s="58"/>
+      <c r="O93" s="58"/>
+      <c r="P93" s="58"/>
+      <c r="Q93" s="58"/>
+      <c r="R93" s="58"/>
       <c r="S93" s="53" t="s">
         <v>9</v>
       </c>
@@ -18368,10 +18368,10 @@
       <c r="O94" s="5"/>
       <c r="P94" s="5"/>
       <c r="Q94" s="5"/>
-      <c r="R94" s="60" t="s">
+      <c r="R94" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="S94" s="61"/>
+      <c r="S94" s="72"/>
       <c r="T94" s="36">
         <f>T91</f>
         <v>0</v>
@@ -18402,10 +18402,10 @@
       <c r="O95" s="5"/>
       <c r="P95" s="5"/>
       <c r="Q95" s="5"/>
-      <c r="R95" s="60" t="s">
+      <c r="R95" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="S95" s="61"/>
+      <c r="S95" s="72"/>
       <c r="T95" s="36">
         <f t="shared" ref="T95:T96" si="17">T92</f>
         <v>0</v>
@@ -18436,10 +18436,10 @@
       <c r="O96" s="5"/>
       <c r="P96" s="5"/>
       <c r="Q96" s="5"/>
-      <c r="R96" s="60" t="s">
+      <c r="R96" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="S96" s="61"/>
+      <c r="S96" s="72"/>
       <c r="T96" s="36">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18470,10 +18470,10 @@
       <c r="O97" s="5"/>
       <c r="P97" s="5"/>
       <c r="Q97" s="5"/>
-      <c r="R97" s="60" t="s">
+      <c r="R97" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="S97" s="61"/>
+      <c r="S97" s="72"/>
       <c r="T97" s="36">
         <f>SUM(T94:T96)</f>
         <v>0</v>
@@ -18538,22 +18538,22 @@
       <c r="C100" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="D100" s="89" t="s">
+      <c r="D100" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="E100" s="90"/>
-      <c r="F100" s="64" t="s">
+      <c r="E100" s="87"/>
+      <c r="F100" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="65"/>
-      <c r="H100" s="65"/>
-      <c r="I100" s="65"/>
-      <c r="J100" s="65"/>
-      <c r="K100" s="65"/>
-      <c r="L100" s="65"/>
-      <c r="M100" s="65"/>
-      <c r="N100" s="65"/>
-      <c r="O100" s="65"/>
+      <c r="G100" s="74"/>
+      <c r="H100" s="74"/>
+      <c r="I100" s="74"/>
+      <c r="J100" s="74"/>
+      <c r="K100" s="74"/>
+      <c r="L100" s="74"/>
+      <c r="M100" s="74"/>
+      <c r="N100" s="74"/>
+      <c r="O100" s="74"/>
       <c r="P100" s="18"/>
       <c r="Q100" s="18"/>
       <c r="R100" s="18"/>
@@ -18561,32 +18561,32 @@
       <c r="T100" s="5"/>
     </row>
     <row r="101" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="69">
+      <c r="A101" s="98">
         <v>1</v>
       </c>
-      <c r="B101" s="57" t="s">
+      <c r="B101" s="66" t="s">
         <v>112</v>
       </c>
       <c r="C101" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D101" s="91">
+      <c r="D101" s="88">
         <f>T42-T80-T91</f>
         <v>0</v>
       </c>
-      <c r="E101" s="92"/>
-      <c r="F101" s="63" t="s">
+      <c r="E101" s="89"/>
+      <c r="F101" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="G101" s="63"/>
-      <c r="H101" s="63"/>
-      <c r="I101" s="63"/>
-      <c r="J101" s="63"/>
-      <c r="K101" s="63"/>
-      <c r="L101" s="63"/>
-      <c r="M101" s="63"/>
-      <c r="N101" s="63"/>
-      <c r="O101" s="63"/>
+      <c r="G101" s="58"/>
+      <c r="H101" s="58"/>
+      <c r="I101" s="58"/>
+      <c r="J101" s="58"/>
+      <c r="K101" s="58"/>
+      <c r="L101" s="58"/>
+      <c r="M101" s="58"/>
+      <c r="N101" s="58"/>
+      <c r="O101" s="58"/>
       <c r="P101" s="18"/>
       <c r="Q101" s="18"/>
       <c r="R101" s="18"/>
@@ -18594,54 +18594,54 @@
       <c r="T101" s="5"/>
     </row>
     <row r="102" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="70"/>
-      <c r="B102" s="58"/>
+      <c r="A102" s="99"/>
+      <c r="B102" s="67"/>
       <c r="C102" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D102" s="91">
+      <c r="D102" s="88">
         <f>T43-T81-T92</f>
         <v>0</v>
       </c>
-      <c r="E102" s="92"/>
-      <c r="F102" s="63" t="s">
+      <c r="E102" s="89"/>
+      <c r="F102" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="G102" s="63"/>
-      <c r="H102" s="63"/>
-      <c r="I102" s="63"/>
-      <c r="J102" s="63"/>
-      <c r="K102" s="63"/>
-      <c r="L102" s="63"/>
-      <c r="M102" s="63"/>
-      <c r="N102" s="63"/>
-      <c r="O102" s="63"/>
+      <c r="G102" s="58"/>
+      <c r="H102" s="58"/>
+      <c r="I102" s="58"/>
+      <c r="J102" s="58"/>
+      <c r="K102" s="58"/>
+      <c r="L102" s="58"/>
+      <c r="M102" s="58"/>
+      <c r="N102" s="58"/>
+      <c r="O102" s="58"/>
       <c r="S102" s="30"/>
       <c r="T102" s="5"/>
     </row>
     <row r="103" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="71"/>
-      <c r="B103" s="59"/>
+      <c r="A103" s="100"/>
+      <c r="B103" s="68"/>
       <c r="C103" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D103" s="91">
+      <c r="D103" s="88">
         <f>T44-T82-T93</f>
         <v>0</v>
       </c>
-      <c r="E103" s="92"/>
-      <c r="F103" s="63" t="s">
+      <c r="E103" s="89"/>
+      <c r="F103" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="G103" s="63"/>
-      <c r="H103" s="63"/>
-      <c r="I103" s="63"/>
-      <c r="J103" s="63"/>
-      <c r="K103" s="63"/>
-      <c r="L103" s="63"/>
-      <c r="M103" s="63"/>
-      <c r="N103" s="63"/>
-      <c r="O103" s="63"/>
+      <c r="G103" s="58"/>
+      <c r="H103" s="58"/>
+      <c r="I103" s="58"/>
+      <c r="J103" s="58"/>
+      <c r="K103" s="58"/>
+      <c r="L103" s="58"/>
+      <c r="M103" s="58"/>
+      <c r="N103" s="58"/>
+      <c r="O103" s="58"/>
       <c r="S103" s="30"/>
       <c r="T103" s="5"/>
     </row>
@@ -18649,15 +18649,15 @@
       <c r="A104" s="49">
         <v>2</v>
       </c>
-      <c r="B104" s="97" t="s">
+      <c r="B104" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="C104" s="97"/>
-      <c r="D104" s="87">
+      <c r="C104" s="94"/>
+      <c r="D104" s="84">
         <f>SUM(D101:E103)</f>
         <v>0</v>
       </c>
-      <c r="E104" s="88"/>
+      <c r="E104" s="85"/>
       <c r="I104" s="18"/>
       <c r="J104" s="18"/>
       <c r="K104" s="41"/>
@@ -18684,12 +18684,12 @@
       <c r="N105" s="30"/>
       <c r="O105" s="30"/>
       <c r="P105" s="30"/>
-      <c r="Q105" s="99" t="s">
+      <c r="Q105" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="R105" s="99"/>
-      <c r="S105" s="99"/>
-      <c r="T105" s="99"/>
+      <c r="R105" s="56"/>
+      <c r="S105" s="56"/>
+      <c r="T105" s="56"/>
     </row>
     <row r="106" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A106" s="28"/>
@@ -18708,12 +18708,12 @@
       <c r="N106" s="30"/>
       <c r="O106" s="30"/>
       <c r="P106" s="30"/>
-      <c r="Q106" s="99" t="s">
+      <c r="Q106" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="R106" s="99"/>
-      <c r="S106" s="99"/>
-      <c r="T106" s="99"/>
+      <c r="R106" s="56"/>
+      <c r="S106" s="56"/>
+      <c r="T106" s="56"/>
     </row>
     <row r="107" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A107" s="28"/>
@@ -18871,75 +18871,34 @@
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="U69:U71"/>
-    <mergeCell ref="U72:U74"/>
-    <mergeCell ref="U33:U35"/>
-    <mergeCell ref="U36:U38"/>
-    <mergeCell ref="U39:U41"/>
-    <mergeCell ref="U51:U53"/>
-    <mergeCell ref="U54:U56"/>
-    <mergeCell ref="U57:U59"/>
-    <mergeCell ref="U60:U62"/>
-    <mergeCell ref="U63:U65"/>
-    <mergeCell ref="U66:U68"/>
-    <mergeCell ref="T29:T31"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="A3:T3"/>
-    <mergeCell ref="A4:T4"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="F29:F32"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="Q29:S29"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="D47:D50"/>
-    <mergeCell ref="E47:E50"/>
-    <mergeCell ref="F47:F50"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="Q47:S47"/>
-    <mergeCell ref="T47:T49"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="Q48:S48"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="Q105:T105"/>
+    <mergeCell ref="Q106:T106"/>
+    <mergeCell ref="R96:S96"/>
+    <mergeCell ref="R97:S97"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="F100:O100"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="F101:O101"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="F102:O102"/>
+    <mergeCell ref="N88:R90"/>
+    <mergeCell ref="S88:S89"/>
+    <mergeCell ref="T88:T89"/>
+    <mergeCell ref="N91:R93"/>
+    <mergeCell ref="R94:S94"/>
+    <mergeCell ref="R95:S95"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="F103:O103"/>
+    <mergeCell ref="T77:T78"/>
+    <mergeCell ref="N80:R82"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="R84:S84"/>
+    <mergeCell ref="R85:S85"/>
+    <mergeCell ref="R86:S86"/>
     <mergeCell ref="E69:E71"/>
     <mergeCell ref="G69:G71"/>
     <mergeCell ref="E72:E74"/>
@@ -18958,34 +18917,75 @@
     <mergeCell ref="G54:G56"/>
     <mergeCell ref="E57:E59"/>
     <mergeCell ref="G57:G59"/>
-    <mergeCell ref="N88:R90"/>
-    <mergeCell ref="S88:S89"/>
-    <mergeCell ref="T88:T89"/>
-    <mergeCell ref="N91:R93"/>
-    <mergeCell ref="R94:S94"/>
-    <mergeCell ref="R95:S95"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="F103:O103"/>
-    <mergeCell ref="T77:T78"/>
-    <mergeCell ref="N80:R82"/>
-    <mergeCell ref="R83:S83"/>
-    <mergeCell ref="R84:S84"/>
-    <mergeCell ref="R85:S85"/>
-    <mergeCell ref="R86:S86"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="Q105:T105"/>
-    <mergeCell ref="Q106:T106"/>
-    <mergeCell ref="R96:S96"/>
-    <mergeCell ref="R97:S97"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="F100:O100"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="F101:O101"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="F102:O102"/>
+    <mergeCell ref="T47:T49"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="Q48:S48"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="D47:D50"/>
+    <mergeCell ref="E47:E50"/>
+    <mergeCell ref="F47:F50"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="Q47:S47"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="T29:T31"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="A3:T3"/>
+    <mergeCell ref="A4:T4"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="U69:U71"/>
+    <mergeCell ref="U72:U74"/>
+    <mergeCell ref="U33:U35"/>
+    <mergeCell ref="U36:U38"/>
+    <mergeCell ref="U39:U41"/>
+    <mergeCell ref="U51:U53"/>
+    <mergeCell ref="U54:U56"/>
+    <mergeCell ref="U57:U59"/>
+    <mergeCell ref="U60:U62"/>
+    <mergeCell ref="U63:U65"/>
+    <mergeCell ref="U66:U68"/>
   </mergeCells>
   <conditionalFormatting sqref="G51 G54 G57 G60 G63 G66 G69 G72">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
